--- a/ep/ep/export/flourish/Joint_name_group.xlsx
+++ b/ep/ep/export/flourish/Joint_name_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="181">
   <si>
     <t>name1</t>
   </si>
@@ -537,12 +537,33 @@
   <si>
     <t>Verts/ALE</t>
   </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/alde.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/S&amp;D.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/greens.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +578,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -591,16 +619,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -968,6 +1002,9 @@
       <c r="C2" t="s">
         <v>167</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H2">
         <v>0.981</v>
       </c>
@@ -1018,6 +1055,9 @@
       <c r="C3" t="s">
         <v>168</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J3">
         <v>0.857</v>
       </c>
@@ -1062,6 +1102,9 @@
       <c r="C4" t="s">
         <v>169</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H4">
         <v>0.5580000000000001</v>
       </c>
@@ -1088,6 +1131,9 @@
       <c r="C5" t="s">
         <v>170</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H5">
         <v>0.601</v>
       </c>
@@ -1135,6 +1181,9 @@
       <c r="C6" t="s">
         <v>171</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H6">
         <v>0.714</v>
       </c>
@@ -1185,6 +1234,9 @@
       <c r="C7" t="s">
         <v>172</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H7">
         <v>0.763</v>
       </c>
@@ -1235,6 +1287,9 @@
       <c r="C8" t="s">
         <v>173</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I8">
         <v>0.63</v>
       </c>
@@ -1270,6 +1325,9 @@
       <c r="C9" t="s">
         <v>167</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J9">
         <v>0.733</v>
       </c>
@@ -1284,6 +1342,9 @@
       <c r="C10" t="s">
         <v>171</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J10">
         <v>0.971</v>
       </c>
@@ -1298,6 +1359,9 @@
       <c r="C11" t="s">
         <v>172</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J11">
         <v>0.769</v>
       </c>
@@ -1312,6 +1376,9 @@
       <c r="C12" t="s">
         <v>173</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="J12">
         <v>0.947</v>
       </c>
@@ -1326,6 +1393,9 @@
       <c r="C13" t="s">
         <v>167</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H13">
         <v>0.738</v>
       </c>
@@ -1361,6 +1431,9 @@
       <c r="C14" t="s">
         <v>168</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J14">
         <v>0.631</v>
       </c>
@@ -1390,6 +1463,9 @@
       <c r="C15" t="s">
         <v>169</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H15">
         <v>0.505</v>
       </c>
@@ -1404,6 +1480,9 @@
       <c r="C16" t="s">
         <v>170</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H16">
         <v>0.644</v>
       </c>
@@ -1436,6 +1515,9 @@
       <c r="C17" t="s">
         <v>171</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H17">
         <v>0.635</v>
       </c>
@@ -1471,6 +1553,9 @@
       <c r="C18" t="s">
         <v>172</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H18">
         <v>0.9340000000000001</v>
       </c>
@@ -1506,6 +1591,9 @@
       <c r="C19" t="s">
         <v>173</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I19">
         <v>0.806</v>
       </c>
@@ -1523,6 +1611,9 @@
       <c r="C20" t="s">
         <v>167</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E20">
         <v>0.792</v>
       </c>
@@ -1552,6 +1643,9 @@
       <c r="C21" t="s">
         <v>169</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H21">
         <v>0.618</v>
       </c>
@@ -1566,6 +1660,9 @@
       <c r="C22" t="s">
         <v>170</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H22">
         <v>0.648</v>
       </c>
@@ -1580,6 +1677,9 @@
       <c r="C23" t="s">
         <v>171</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E23">
         <v>0.626</v>
       </c>
@@ -1609,6 +1709,9 @@
       <c r="C24" t="s">
         <v>172</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E24">
         <v>0.979</v>
       </c>
@@ -1638,6 +1741,9 @@
       <c r="C25" t="s">
         <v>173</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I25">
         <v>0.915</v>
       </c>
@@ -1655,6 +1761,9 @@
       <c r="C26" t="s">
         <v>167</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H26">
         <v>0.749</v>
       </c>
@@ -1669,6 +1778,9 @@
       <c r="C27" t="s">
         <v>169</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H27">
         <v>0.57</v>
       </c>
@@ -1683,6 +1795,9 @@
       <c r="C28" t="s">
         <v>170</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H28">
         <v>0.641</v>
       </c>
@@ -1697,6 +1812,9 @@
       <c r="C29" t="s">
         <v>171</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H29">
         <v>0.629</v>
       </c>
@@ -1711,6 +1829,9 @@
       <c r="C30" t="s">
         <v>172</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H30">
         <v>0.961</v>
       </c>
@@ -1725,6 +1846,9 @@
       <c r="C31" t="s">
         <v>167</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J31">
         <v>0.735</v>
       </c>
@@ -1739,6 +1863,9 @@
       <c r="C32" t="s">
         <v>171</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J32">
         <v>0.971</v>
       </c>
@@ -1753,6 +1880,9 @@
       <c r="C33" t="s">
         <v>172</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J33">
         <v>0.717</v>
       </c>
@@ -1767,6 +1897,9 @@
       <c r="C34" t="s">
         <v>173</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="J34">
         <v>0.9370000000000001</v>
       </c>
@@ -1781,6 +1914,9 @@
       <c r="C35" t="s">
         <v>167</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H35">
         <v>0.884</v>
       </c>
@@ -1795,6 +1931,9 @@
       <c r="C36" t="s">
         <v>169</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H36">
         <v>0.52</v>
       </c>
@@ -1809,6 +1948,9 @@
       <c r="C37" t="s">
         <v>170</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H37">
         <v>0.619</v>
       </c>
@@ -1823,6 +1965,9 @@
       <c r="C38" t="s">
         <v>171</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H38">
         <v>0.764</v>
       </c>
@@ -1837,6 +1982,9 @@
       <c r="C39" t="s">
         <v>172</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H39">
         <v>0.63</v>
       </c>
@@ -1851,6 +1999,9 @@
       <c r="C40" t="s">
         <v>167</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J40">
         <v>0.756</v>
       </c>
@@ -1865,6 +2016,9 @@
       <c r="C41" t="s">
         <v>171</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J41">
         <v>0.82</v>
       </c>
@@ -1879,6 +2033,9 @@
       <c r="C42" t="s">
         <v>172</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J42">
         <v>0.973</v>
       </c>
@@ -1893,6 +2050,9 @@
       <c r="C43" t="s">
         <v>173</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="J43">
         <v>0.946</v>
       </c>
@@ -1907,6 +2067,9 @@
       <c r="C44" t="s">
         <v>167</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O44">
         <v>0.885</v>
       </c>
@@ -1936,6 +2099,9 @@
       <c r="C45" t="s">
         <v>168</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P45">
         <v>0.774</v>
       </c>
@@ -1962,6 +2128,9 @@
       <c r="C46" t="s">
         <v>169</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P46">
         <v>0.503</v>
       </c>
@@ -1985,6 +2154,9 @@
       <c r="C47" t="s">
         <v>170</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O47">
         <v>0.412</v>
       </c>
@@ -2014,6 +2186,9 @@
       <c r="C48" t="s">
         <v>171</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O48">
         <v>0.882</v>
       </c>
@@ -2043,6 +2218,9 @@
       <c r="C49" t="s">
         <v>172</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O49">
         <v>0.979</v>
       </c>
@@ -2072,6 +2250,9 @@
       <c r="C50" t="s">
         <v>173</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O50">
         <v>0.738</v>
       </c>
@@ -2101,6 +2282,9 @@
       <c r="C51" t="s">
         <v>167</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O51">
         <v>0.828</v>
       </c>
@@ -2130,6 +2314,9 @@
       <c r="C52" t="s">
         <v>168</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P52">
         <v>0.787</v>
       </c>
@@ -2156,6 +2343,9 @@
       <c r="C53" t="s">
         <v>169</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P53">
         <v>0.605</v>
       </c>
@@ -2179,6 +2369,9 @@
       <c r="C54" t="s">
         <v>170</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O54">
         <v>0.366</v>
       </c>
@@ -2208,6 +2401,9 @@
       <c r="C55" t="s">
         <v>171</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O55">
         <v>0.984</v>
       </c>
@@ -2237,6 +2433,9 @@
       <c r="C56" t="s">
         <v>172</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O56">
         <v>0.853</v>
       </c>
@@ -2266,6 +2465,9 @@
       <c r="C57" t="s">
         <v>173</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O57">
         <v>0.582</v>
       </c>
@@ -2295,6 +2497,9 @@
       <c r="C58" t="s">
         <v>167</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O58">
         <v>0.837</v>
       </c>
@@ -2324,6 +2529,9 @@
       <c r="C59" t="s">
         <v>168</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P59">
         <v>0.788</v>
       </c>
@@ -2350,6 +2558,9 @@
       <c r="C60" t="s">
         <v>169</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P60">
         <v>0.608</v>
       </c>
@@ -2373,6 +2584,9 @@
       <c r="C61" t="s">
         <v>170</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O61">
         <v>0.37</v>
       </c>
@@ -2402,6 +2616,9 @@
       <c r="C62" t="s">
         <v>171</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O62">
         <v>0.991</v>
       </c>
@@ -2431,6 +2648,9 @@
       <c r="C63" t="s">
         <v>172</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O63">
         <v>0.853</v>
       </c>
@@ -2460,6 +2680,9 @@
       <c r="C64" t="s">
         <v>173</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O64">
         <v>0.573</v>
       </c>
@@ -2489,6 +2712,9 @@
       <c r="C65" t="s">
         <v>167</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E65">
         <v>0.746</v>
       </c>
@@ -2548,6 +2774,9 @@
       <c r="C66" t="s">
         <v>168</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J66">
         <v>0.514</v>
       </c>
@@ -2592,6 +2821,9 @@
       <c r="C67" t="s">
         <v>169</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H67">
         <v>0.637</v>
       </c>
@@ -2618,6 +2850,9 @@
       <c r="C68" t="s">
         <v>170</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H68">
         <v>0.582</v>
       </c>
@@ -2665,6 +2900,9 @@
       <c r="C69" t="s">
         <v>171</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E69">
         <v>0.97</v>
       </c>
@@ -2724,6 +2962,9 @@
       <c r="C70" t="s">
         <v>172</v>
       </c>
+      <c r="D70" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E70">
         <v>0.62</v>
       </c>
@@ -2783,6 +3024,9 @@
       <c r="C71" t="s">
         <v>173</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I71">
         <v>0.913</v>
       </c>
@@ -2818,6 +3062,9 @@
       <c r="C72" t="s">
         <v>167</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="G72">
         <v>0.8179999999999999</v>
       </c>
@@ -2841,6 +3088,9 @@
       <c r="C73" t="s">
         <v>169</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H73">
         <v>0.624</v>
       </c>
@@ -2855,6 +3105,9 @@
       <c r="C74" t="s">
         <v>170</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H74">
         <v>0.597</v>
       </c>
@@ -2869,6 +3122,9 @@
       <c r="C75" t="s">
         <v>171</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G75">
         <v>0.991</v>
       </c>
@@ -2892,6 +3148,9 @@
       <c r="C76" t="s">
         <v>172</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="G76">
         <v>0.751</v>
       </c>
@@ -2915,6 +3174,9 @@
       <c r="C77" t="s">
         <v>173</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I77">
         <v>0.885</v>
       </c>
@@ -2932,6 +3194,9 @@
       <c r="C78" t="s">
         <v>167</v>
       </c>
+      <c r="D78" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H78">
         <v>0.675</v>
       </c>
@@ -2946,6 +3211,9 @@
       <c r="C79" t="s">
         <v>169</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H79">
         <v>0.5590000000000001</v>
       </c>
@@ -2960,6 +3228,9 @@
       <c r="C80" t="s">
         <v>170</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H80">
         <v>0.59</v>
       </c>
@@ -2974,6 +3245,9 @@
       <c r="C81" t="s">
         <v>171</v>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H81">
         <v>0.9409999999999999</v>
       </c>
@@ -2988,6 +3262,9 @@
       <c r="C82" t="s">
         <v>172</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H82">
         <v>0.641</v>
       </c>
@@ -3002,6 +3279,9 @@
       <c r="C83" t="s">
         <v>167</v>
       </c>
+      <c r="D83" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O83">
         <v>0.597</v>
       </c>
@@ -3031,6 +3311,9 @@
       <c r="C84" t="s">
         <v>168</v>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P84">
         <v>0.535</v>
       </c>
@@ -3057,6 +3340,9 @@
       <c r="C85" t="s">
         <v>169</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P85">
         <v>0.445</v>
       </c>
@@ -3080,6 +3366,9 @@
       <c r="C86" t="s">
         <v>170</v>
       </c>
+      <c r="D86" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O86">
         <v>0.572</v>
       </c>
@@ -3109,6 +3398,9 @@
       <c r="C87" t="s">
         <v>171</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O87">
         <v>0.5649999999999999</v>
       </c>
@@ -3138,6 +3430,9 @@
       <c r="C88" t="s">
         <v>172</v>
       </c>
+      <c r="D88" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O88">
         <v>0.719</v>
       </c>
@@ -3167,6 +3462,9 @@
       <c r="C89" t="s">
         <v>173</v>
       </c>
+      <c r="D89" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O89">
         <v>1</v>
       </c>
@@ -3196,6 +3494,9 @@
       <c r="C90" t="s">
         <v>167</v>
       </c>
+      <c r="D90" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E90">
         <v>0.72</v>
       </c>
@@ -3240,6 +3541,9 @@
       <c r="C91" t="s">
         <v>168</v>
       </c>
+      <c r="D91" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J91">
         <v>0.65</v>
       </c>
@@ -3269,6 +3573,9 @@
       <c r="C92" t="s">
         <v>169</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H92">
         <v>0.628</v>
       </c>
@@ -3283,6 +3590,9 @@
       <c r="C93" t="s">
         <v>170</v>
       </c>
+      <c r="D93" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H93">
         <v>0.586</v>
       </c>
@@ -3315,6 +3625,9 @@
       <c r="C94" t="s">
         <v>171</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E94">
         <v>0.953</v>
       </c>
@@ -3359,6 +3672,9 @@
       <c r="C95" t="s">
         <v>172</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E95">
         <v>0.576</v>
       </c>
@@ -3403,6 +3719,9 @@
       <c r="C96" t="s">
         <v>173</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I96">
         <v>0.876</v>
       </c>
@@ -3420,6 +3739,9 @@
       <c r="C97" t="s">
         <v>167</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="K97">
         <v>0.522</v>
       </c>
@@ -3461,6 +3783,9 @@
       <c r="C98" t="s">
         <v>168</v>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="K98">
         <v>0.528</v>
       </c>
@@ -3502,6 +3827,9 @@
       <c r="C99" t="s">
         <v>169</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P99">
         <v>0.707</v>
       </c>
@@ -3525,6 +3853,9 @@
       <c r="C100" t="s">
         <v>170</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="K100">
         <v>0.867</v>
       </c>
@@ -3566,6 +3897,9 @@
       <c r="C101" t="s">
         <v>171</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="K101">
         <v>0.525</v>
       </c>
@@ -3607,6 +3941,9 @@
       <c r="C102" t="s">
         <v>172</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="K102">
         <v>0.541</v>
       </c>
@@ -3648,6 +3985,9 @@
       <c r="C103" t="s">
         <v>173</v>
       </c>
+      <c r="D103" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O103">
         <v>0.573</v>
       </c>
@@ -3677,6 +4017,9 @@
       <c r="C104" t="s">
         <v>167</v>
       </c>
+      <c r="D104" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O104">
         <v>0.825</v>
       </c>
@@ -3706,6 +4049,9 @@
       <c r="C105" t="s">
         <v>168</v>
       </c>
+      <c r="D105" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P105">
         <v>0.6909999999999999</v>
       </c>
@@ -3732,6 +4078,9 @@
       <c r="C106" t="s">
         <v>169</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P106">
         <v>0.512</v>
       </c>
@@ -3755,6 +4104,9 @@
       <c r="C107" t="s">
         <v>170</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O107">
         <v>0.436</v>
       </c>
@@ -3784,6 +4136,9 @@
       <c r="C108" t="s">
         <v>171</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O108">
         <v>0.843</v>
       </c>
@@ -3813,6 +4168,9 @@
       <c r="C109" t="s">
         <v>172</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O109">
         <v>0.988</v>
       </c>
@@ -3842,6 +4200,9 @@
       <c r="C110" t="s">
         <v>173</v>
       </c>
+      <c r="D110" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O110">
         <v>0.717</v>
       </c>
@@ -3871,6 +4232,9 @@
       <c r="C111" t="s">
         <v>167</v>
       </c>
+      <c r="D111" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J111">
         <v>0.622</v>
       </c>
@@ -3915,6 +4279,9 @@
       <c r="C112" t="s">
         <v>168</v>
       </c>
+      <c r="D112" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J112">
         <v>0.64</v>
       </c>
@@ -3959,6 +4326,9 @@
       <c r="C113" t="s">
         <v>169</v>
       </c>
+      <c r="D113" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P113">
         <v>0.502</v>
       </c>
@@ -3982,6 +4352,9 @@
       <c r="C114" t="s">
         <v>170</v>
       </c>
+      <c r="D114" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J114">
         <v>0.678</v>
       </c>
@@ -4026,6 +4399,9 @@
       <c r="C115" t="s">
         <v>171</v>
       </c>
+      <c r="D115" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J115">
         <v>0.73</v>
       </c>
@@ -4070,6 +4446,9 @@
       <c r="C116" t="s">
         <v>172</v>
       </c>
+      <c r="D116" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J116">
         <v>0.6870000000000001</v>
       </c>
@@ -4114,6 +4493,9 @@
       <c r="C117" t="s">
         <v>173</v>
       </c>
+      <c r="D117" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O117">
         <v>0.704</v>
       </c>
@@ -4143,6 +4525,9 @@
       <c r="C118" t="s">
         <v>167</v>
       </c>
+      <c r="D118" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H118">
         <v>0.754</v>
       </c>
@@ -4163,6 +4548,9 @@
       <c r="C119" t="s">
         <v>171</v>
       </c>
+      <c r="D119" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H119">
         <v>0.892</v>
       </c>
@@ -4183,6 +4571,9 @@
       <c r="C120" t="s">
         <v>172</v>
       </c>
+      <c r="D120" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H120">
         <v>0.641</v>
       </c>
@@ -4203,6 +4594,9 @@
       <c r="C121" t="s">
         <v>173</v>
       </c>
+      <c r="D121" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I121">
         <v>0.767</v>
       </c>
@@ -4220,6 +4614,9 @@
       <c r="C122" t="s">
         <v>167</v>
       </c>
+      <c r="D122" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H122">
         <v>0.73</v>
       </c>
@@ -4255,6 +4652,9 @@
       <c r="C123" t="s">
         <v>168</v>
       </c>
+      <c r="D123" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J123">
         <v>0.606</v>
       </c>
@@ -4284,6 +4684,9 @@
       <c r="C124" t="s">
         <v>169</v>
       </c>
+      <c r="D124" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H124">
         <v>0.545</v>
       </c>
@@ -4298,6 +4701,9 @@
       <c r="C125" t="s">
         <v>170</v>
       </c>
+      <c r="D125" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H125">
         <v>0.657</v>
       </c>
@@ -4330,6 +4736,9 @@
       <c r="C126" t="s">
         <v>171</v>
       </c>
+      <c r="D126" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H126">
         <v>0.604</v>
       </c>
@@ -4365,6 +4774,9 @@
       <c r="C127" t="s">
         <v>172</v>
       </c>
+      <c r="D127" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H127">
         <v>0.9340000000000001</v>
       </c>
@@ -4400,6 +4812,9 @@
       <c r="C128" t="s">
         <v>173</v>
       </c>
+      <c r="D128" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I128">
         <v>0.73</v>
       </c>
@@ -4420,6 +4835,9 @@
       <c r="C129" t="s">
         <v>167</v>
       </c>
+      <c r="D129" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J129">
         <v>1</v>
       </c>
@@ -4449,6 +4867,9 @@
       <c r="C130" t="s">
         <v>168</v>
       </c>
+      <c r="D130" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J130">
         <v>0.625</v>
       </c>
@@ -4475,6 +4896,9 @@
       <c r="C131" t="s">
         <v>170</v>
       </c>
+      <c r="D131" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J131">
         <v>0.711</v>
       </c>
@@ -4504,6 +4928,9 @@
       <c r="C132" t="s">
         <v>171</v>
       </c>
+      <c r="D132" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J132">
         <v>0.448</v>
       </c>
@@ -4533,6 +4960,9 @@
       <c r="C133" t="s">
         <v>172</v>
       </c>
+      <c r="D133" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J133">
         <v>0.385</v>
       </c>
@@ -4562,6 +4992,9 @@
       <c r="C134" t="s">
         <v>167</v>
       </c>
+      <c r="D134" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H134">
         <v>0.713</v>
       </c>
@@ -4576,6 +5009,9 @@
       <c r="C135" t="s">
         <v>169</v>
       </c>
+      <c r="D135" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H135">
         <v>0.527</v>
       </c>
@@ -4590,6 +5026,9 @@
       <c r="C136" t="s">
         <v>170</v>
       </c>
+      <c r="D136" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H136">
         <v>0.644</v>
       </c>
@@ -4604,6 +5043,9 @@
       <c r="C137" t="s">
         <v>171</v>
       </c>
+      <c r="D137" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H137">
         <v>0.616</v>
       </c>
@@ -4618,6 +5060,9 @@
       <c r="C138" t="s">
         <v>172</v>
       </c>
+      <c r="D138" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H138">
         <v>0.887</v>
       </c>
@@ -4632,6 +5077,9 @@
       <c r="C139" t="s">
         <v>167</v>
       </c>
+      <c r="D139" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J139">
         <v>0.698</v>
       </c>
@@ -4676,6 +5124,9 @@
       <c r="C140" t="s">
         <v>168</v>
       </c>
+      <c r="D140" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J140">
         <v>0.702</v>
       </c>
@@ -4720,6 +5171,9 @@
       <c r="C141" t="s">
         <v>169</v>
       </c>
+      <c r="D141" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P141">
         <v>0.546</v>
       </c>
@@ -4743,6 +5197,9 @@
       <c r="C142" t="s">
         <v>170</v>
       </c>
+      <c r="D142" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J142">
         <v>0.585</v>
       </c>
@@ -4787,6 +5244,9 @@
       <c r="C143" t="s">
         <v>171</v>
       </c>
+      <c r="D143" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J143">
         <v>0.962</v>
       </c>
@@ -4831,6 +5291,9 @@
       <c r="C144" t="s">
         <v>172</v>
       </c>
+      <c r="D144" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J144">
         <v>0.6879999999999999</v>
       </c>
@@ -4875,6 +5338,9 @@
       <c r="C145" t="s">
         <v>173</v>
       </c>
+      <c r="D145" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O145">
         <v>0.5580000000000001</v>
       </c>
@@ -4904,6 +5370,9 @@
       <c r="C146" t="s">
         <v>167</v>
       </c>
+      <c r="D146" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H146">
         <v>0.59</v>
       </c>
@@ -4918,6 +5387,9 @@
       <c r="C147" t="s">
         <v>169</v>
       </c>
+      <c r="D147" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H147">
         <v>0.835</v>
       </c>
@@ -4932,6 +5404,9 @@
       <c r="C148" t="s">
         <v>170</v>
       </c>
+      <c r="D148" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H148">
         <v>0.726</v>
       </c>
@@ -4946,6 +5421,9 @@
       <c r="C149" t="s">
         <v>171</v>
       </c>
+      <c r="D149" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H149">
         <v>0.665</v>
       </c>
@@ -4960,6 +5438,9 @@
       <c r="C150" t="s">
         <v>172</v>
       </c>
+      <c r="D150" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H150">
         <v>0.553</v>
       </c>
@@ -4974,6 +5455,9 @@
       <c r="C151" t="s">
         <v>167</v>
       </c>
+      <c r="D151" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H151">
         <v>0.977</v>
       </c>
@@ -5021,6 +5505,9 @@
       <c r="C152" t="s">
         <v>168</v>
       </c>
+      <c r="D152" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J152">
         <v>0.6879999999999999</v>
       </c>
@@ -5059,6 +5546,9 @@
       <c r="C153" t="s">
         <v>169</v>
       </c>
+      <c r="D153" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H153">
         <v>0.491</v>
       </c>
@@ -5085,6 +5575,9 @@
       <c r="C154" t="s">
         <v>170</v>
       </c>
+      <c r="D154" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H154">
         <v>0.622</v>
       </c>
@@ -5129,6 +5622,9 @@
       <c r="C155" t="s">
         <v>171</v>
       </c>
+      <c r="D155" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H155">
         <v>0.6830000000000001</v>
       </c>
@@ -5176,6 +5672,9 @@
       <c r="C156" t="s">
         <v>172</v>
       </c>
+      <c r="D156" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H156">
         <v>0.708</v>
       </c>
@@ -5223,6 +5722,9 @@
       <c r="C157" t="s">
         <v>173</v>
       </c>
+      <c r="D157" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I157">
         <v>0.5639999999999999</v>
       </c>
@@ -5258,6 +5760,9 @@
       <c r="C158" t="s">
         <v>167</v>
       </c>
+      <c r="D158" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O158">
         <v>0.896</v>
       </c>
@@ -5287,6 +5792,9 @@
       <c r="C159" t="s">
         <v>168</v>
       </c>
+      <c r="D159" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P159">
         <v>0.6929999999999999</v>
       </c>
@@ -5313,6 +5821,9 @@
       <c r="C160" t="s">
         <v>169</v>
       </c>
+      <c r="D160" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P160">
         <v>0.5</v>
       </c>
@@ -5336,6 +5847,9 @@
       <c r="C161" t="s">
         <v>170</v>
       </c>
+      <c r="D161" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O161">
         <v>0.406</v>
       </c>
@@ -5365,6 +5879,9 @@
       <c r="C162" t="s">
         <v>171</v>
       </c>
+      <c r="D162" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O162">
         <v>0.883</v>
       </c>
@@ -5394,6 +5911,9 @@
       <c r="C163" t="s">
         <v>172</v>
       </c>
+      <c r="D163" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O163">
         <v>0.988</v>
       </c>
@@ -5423,6 +5943,9 @@
       <c r="C164" t="s">
         <v>173</v>
       </c>
+      <c r="D164" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O164">
         <v>0.722</v>
       </c>
@@ -5452,6 +5975,9 @@
       <c r="C165" t="s">
         <v>167</v>
       </c>
+      <c r="D165" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H165">
         <v>0.659</v>
       </c>
@@ -5502,6 +6028,9 @@
       <c r="C166" t="s">
         <v>168</v>
       </c>
+      <c r="D166" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J166">
         <v>0.702</v>
       </c>
@@ -5546,6 +6075,9 @@
       <c r="C167" t="s">
         <v>169</v>
       </c>
+      <c r="D167" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P167">
         <v>0.585</v>
       </c>
@@ -5569,6 +6101,9 @@
       <c r="C168" t="s">
         <v>170</v>
       </c>
+      <c r="D168" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J168">
         <v>0.585</v>
       </c>
@@ -5613,6 +6148,9 @@
       <c r="C169" t="s">
         <v>171</v>
       </c>
+      <c r="D169" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H169">
         <v>0.909</v>
       </c>
@@ -5663,6 +6201,9 @@
       <c r="C170" t="s">
         <v>172</v>
       </c>
+      <c r="D170" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H170">
         <v>0.626</v>
       </c>
@@ -5713,6 +6254,9 @@
       <c r="C171" t="s">
         <v>173</v>
       </c>
+      <c r="D171" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I171">
         <v>0.836</v>
       </c>
@@ -5748,6 +6292,9 @@
       <c r="C172" t="s">
         <v>167</v>
       </c>
+      <c r="D172" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E172">
         <v>0.783</v>
       </c>
@@ -5792,6 +6339,9 @@
       <c r="C173" t="s">
         <v>168</v>
       </c>
+      <c r="D173" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J173">
         <v>0.598</v>
       </c>
@@ -5821,6 +6371,9 @@
       <c r="C174" t="s">
         <v>169</v>
       </c>
+      <c r="D174" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H174">
         <v>0.5679999999999999</v>
       </c>
@@ -5835,6 +6388,9 @@
       <c r="C175" t="s">
         <v>170</v>
       </c>
+      <c r="D175" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H175">
         <v>0.6879999999999999</v>
       </c>
@@ -5867,6 +6423,9 @@
       <c r="C176" t="s">
         <v>171</v>
       </c>
+      <c r="D176" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E176">
         <v>0.611</v>
       </c>
@@ -5911,6 +6470,9 @@
       <c r="C177" t="s">
         <v>172</v>
       </c>
+      <c r="D177" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E177">
         <v>0.982</v>
       </c>
@@ -5955,6 +6517,9 @@
       <c r="C178" t="s">
         <v>173</v>
       </c>
+      <c r="D178" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I178">
         <v>0.832</v>
       </c>
@@ -5972,6 +6537,9 @@
       <c r="C179" t="s">
         <v>167</v>
       </c>
+      <c r="D179" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E179">
         <v>0.722</v>
       </c>
@@ -6016,6 +6584,9 @@
       <c r="C180" t="s">
         <v>168</v>
       </c>
+      <c r="D180" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J180">
         <v>0.667</v>
       </c>
@@ -6045,6 +6616,9 @@
       <c r="C181" t="s">
         <v>169</v>
       </c>
+      <c r="D181" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H181">
         <v>0.605</v>
       </c>
@@ -6059,6 +6633,9 @@
       <c r="C182" t="s">
         <v>170</v>
       </c>
+      <c r="D182" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H182">
         <v>0.598</v>
       </c>
@@ -6091,6 +6668,9 @@
       <c r="C183" t="s">
         <v>171</v>
       </c>
+      <c r="D183" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E183">
         <v>0.951</v>
       </c>
@@ -6135,6 +6715,9 @@
       <c r="C184" t="s">
         <v>172</v>
       </c>
+      <c r="D184" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E184">
         <v>0.584</v>
       </c>
@@ -6179,6 +6762,9 @@
       <c r="C185" t="s">
         <v>173</v>
       </c>
+      <c r="D185" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I185">
         <v>0.87</v>
       </c>
@@ -6196,6 +6782,9 @@
       <c r="C186" t="s">
         <v>167</v>
       </c>
+      <c r="D186" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J186">
         <v>0.449</v>
       </c>
@@ -6225,6 +6814,9 @@
       <c r="C187" t="s">
         <v>168</v>
       </c>
+      <c r="D187" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J187">
         <v>0.474</v>
       </c>
@@ -6254,6 +6846,9 @@
       <c r="C188" t="s">
         <v>170</v>
       </c>
+      <c r="D188" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J188">
         <v>0.833</v>
       </c>
@@ -6283,6 +6878,9 @@
       <c r="C189" t="s">
         <v>171</v>
       </c>
+      <c r="D189" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J189">
         <v>0.518</v>
       </c>
@@ -6312,6 +6910,9 @@
       <c r="C190" t="s">
         <v>172</v>
       </c>
+      <c r="D190" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J190">
         <v>0.441</v>
       </c>
@@ -6341,6 +6942,9 @@
       <c r="C191" t="s">
         <v>167</v>
       </c>
+      <c r="D191" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J191">
         <v>0.713</v>
       </c>
@@ -6355,6 +6959,9 @@
       <c r="C192" t="s">
         <v>171</v>
       </c>
+      <c r="D192" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J192">
         <v>0.961</v>
       </c>
@@ -6369,6 +6976,9 @@
       <c r="C193" t="s">
         <v>172</v>
       </c>
+      <c r="D193" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J193">
         <v>0.749</v>
       </c>
@@ -6383,6 +6993,9 @@
       <c r="C194" t="s">
         <v>173</v>
       </c>
+      <c r="D194" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="J194">
         <v>0.93</v>
       </c>
@@ -6397,6 +7010,9 @@
       <c r="C195" t="s">
         <v>167</v>
       </c>
+      <c r="D195" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J195">
         <v>0.881</v>
       </c>
@@ -6441,6 +7057,9 @@
       <c r="C196" t="s">
         <v>168</v>
       </c>
+      <c r="D196" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J196">
         <v>0.667</v>
       </c>
@@ -6485,6 +7104,9 @@
       <c r="C197" t="s">
         <v>169</v>
       </c>
+      <c r="D197" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P197">
         <v>0.506</v>
       </c>
@@ -6508,6 +7130,9 @@
       <c r="C198" t="s">
         <v>170</v>
       </c>
+      <c r="D198" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J198">
         <v>0.484</v>
       </c>
@@ -6552,6 +7177,9 @@
       <c r="C199" t="s">
         <v>171</v>
       </c>
+      <c r="D199" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J199">
         <v>0.518</v>
       </c>
@@ -6596,6 +7224,9 @@
       <c r="C200" t="s">
         <v>172</v>
       </c>
+      <c r="D200" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J200">
         <v>0.989</v>
       </c>
@@ -6640,6 +7271,9 @@
       <c r="C201" t="s">
         <v>173</v>
       </c>
+      <c r="D201" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="P201">
         <v>0.753</v>
       </c>
@@ -6666,6 +7300,9 @@
       <c r="C202" t="s">
         <v>167</v>
       </c>
+      <c r="D202" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H202">
         <v>0.849</v>
       </c>
@@ -6683,6 +7320,9 @@
       <c r="C203" t="s">
         <v>171</v>
       </c>
+      <c r="D203" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H203">
         <v>0.669</v>
       </c>
@@ -6700,6 +7340,9 @@
       <c r="C204" t="s">
         <v>172</v>
       </c>
+      <c r="D204" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H204">
         <v>0.9330000000000001</v>
       </c>
@@ -6717,6 +7360,9 @@
       <c r="C205" t="s">
         <v>173</v>
       </c>
+      <c r="D205" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I205">
         <v>1</v>
       </c>
@@ -6731,6 +7377,9 @@
       <c r="C206" t="s">
         <v>167</v>
       </c>
+      <c r="D206" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H206">
         <v>0.839</v>
       </c>
@@ -6781,6 +7430,9 @@
       <c r="C207" t="s">
         <v>168</v>
       </c>
+      <c r="D207" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J207">
         <v>0.619</v>
       </c>
@@ -6825,6 +7477,9 @@
       <c r="C208" t="s">
         <v>169</v>
       </c>
+      <c r="D208" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P208">
         <v>0.521</v>
       </c>
@@ -6848,6 +7503,9 @@
       <c r="C209" t="s">
         <v>170</v>
       </c>
+      <c r="D209" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H209">
         <v>0.5</v>
       </c>
@@ -6895,6 +7553,9 @@
       <c r="C210" t="s">
         <v>171</v>
       </c>
+      <c r="D210" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H210">
         <v>0.654</v>
       </c>
@@ -6945,6 +7606,9 @@
       <c r="C211" t="s">
         <v>172</v>
       </c>
+      <c r="D211" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H211">
         <v>0.931</v>
       </c>
@@ -6995,6 +7659,9 @@
       <c r="C212" t="s">
         <v>173</v>
       </c>
+      <c r="D212" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I212">
         <v>0.806</v>
       </c>
@@ -7030,6 +7697,9 @@
       <c r="C213" t="s">
         <v>167</v>
       </c>
+      <c r="D213" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O213">
         <v>0.8169999999999999</v>
       </c>
@@ -7059,6 +7729,9 @@
       <c r="C214" t="s">
         <v>168</v>
       </c>
+      <c r="D214" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P214">
         <v>0.696</v>
       </c>
@@ -7085,6 +7758,9 @@
       <c r="C215" t="s">
         <v>169</v>
       </c>
+      <c r="D215" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P215">
         <v>0.507</v>
       </c>
@@ -7108,6 +7784,9 @@
       <c r="C216" t="s">
         <v>170</v>
       </c>
+      <c r="D216" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O216">
         <v>0.449</v>
       </c>
@@ -7137,6 +7816,9 @@
       <c r="C217" t="s">
         <v>171</v>
       </c>
+      <c r="D217" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O217">
         <v>0.826</v>
       </c>
@@ -7166,6 +7848,9 @@
       <c r="C218" t="s">
         <v>172</v>
       </c>
+      <c r="D218" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O218">
         <v>0.989</v>
       </c>
@@ -7195,6 +7880,9 @@
       <c r="C219" t="s">
         <v>173</v>
       </c>
+      <c r="D219" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O219">
         <v>0.709</v>
       </c>
@@ -7224,6 +7912,9 @@
       <c r="C220" t="s">
         <v>167</v>
       </c>
+      <c r="D220" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="N220">
         <v>0.802</v>
       </c>
@@ -7241,6 +7932,9 @@
       <c r="C221" t="s">
         <v>168</v>
       </c>
+      <c r="D221" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="N221">
         <v>0.505</v>
       </c>
@@ -7258,6 +7952,9 @@
       <c r="C222" t="s">
         <v>170</v>
       </c>
+      <c r="D222" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="N222">
         <v>0.845</v>
       </c>
@@ -7275,6 +7972,9 @@
       <c r="C223" t="s">
         <v>171</v>
       </c>
+      <c r="D223" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="N223">
         <v>0.832</v>
       </c>
@@ -7292,6 +7992,9 @@
       <c r="C224" t="s">
         <v>172</v>
       </c>
+      <c r="D224" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="N224">
         <v>0.924</v>
       </c>
@@ -7309,6 +8012,9 @@
       <c r="C225" t="s">
         <v>167</v>
       </c>
+      <c r="D225" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H225">
         <v>0.747</v>
       </c>
@@ -7323,6 +8029,9 @@
       <c r="C226" t="s">
         <v>169</v>
       </c>
+      <c r="D226" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H226">
         <v>0.5610000000000001</v>
       </c>
@@ -7337,6 +8046,9 @@
       <c r="C227" t="s">
         <v>170</v>
       </c>
+      <c r="D227" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H227">
         <v>0.6850000000000001</v>
       </c>
@@ -7351,6 +8063,9 @@
       <c r="C228" t="s">
         <v>171</v>
       </c>
+      <c r="D228" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H228">
         <v>0.619</v>
       </c>
@@ -7365,6 +8080,9 @@
       <c r="C229" t="s">
         <v>172</v>
       </c>
+      <c r="D229" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H229">
         <v>0.946</v>
       </c>
@@ -7379,6 +8097,9 @@
       <c r="C230" t="s">
         <v>167</v>
       </c>
+      <c r="D230" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O230">
         <v>0.901</v>
       </c>
@@ -7408,6 +8129,9 @@
       <c r="C231" t="s">
         <v>168</v>
       </c>
+      <c r="D231" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P231">
         <v>0.721</v>
       </c>
@@ -7434,6 +8158,9 @@
       <c r="C232" t="s">
         <v>169</v>
       </c>
+      <c r="D232" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P232">
         <v>0.488</v>
       </c>
@@ -7457,6 +8184,9 @@
       <c r="C233" t="s">
         <v>170</v>
       </c>
+      <c r="D233" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O233">
         <v>0.396</v>
       </c>
@@ -7486,6 +8216,9 @@
       <c r="C234" t="s">
         <v>171</v>
       </c>
+      <c r="D234" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O234">
         <v>0.897</v>
       </c>
@@ -7515,6 +8248,9 @@
       <c r="C235" t="s">
         <v>172</v>
       </c>
+      <c r="D235" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O235">
         <v>0.991</v>
       </c>
@@ -7544,6 +8280,9 @@
       <c r="C236" t="s">
         <v>173</v>
       </c>
+      <c r="D236" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O236">
         <v>0.719</v>
       </c>
@@ -7573,6 +8312,9 @@
       <c r="C237" t="s">
         <v>167</v>
       </c>
+      <c r="D237" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O237">
         <v>0.842</v>
       </c>
@@ -7602,6 +8344,9 @@
       <c r="C238" t="s">
         <v>168</v>
       </c>
+      <c r="D238" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P238">
         <v>0.833</v>
       </c>
@@ -7628,6 +8373,9 @@
       <c r="C239" t="s">
         <v>169</v>
       </c>
+      <c r="D239" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P239">
         <v>0.5669999999999999</v>
       </c>
@@ -7651,6 +8399,9 @@
       <c r="C240" t="s">
         <v>170</v>
       </c>
+      <c r="D240" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O240">
         <v>0.369</v>
       </c>
@@ -7680,6 +8431,9 @@
       <c r="C241" t="s">
         <v>171</v>
       </c>
+      <c r="D241" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O241">
         <v>0.986</v>
       </c>
@@ -7709,6 +8463,9 @@
       <c r="C242" t="s">
         <v>172</v>
       </c>
+      <c r="D242" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O242">
         <v>0.838</v>
       </c>
@@ -7738,6 +8495,9 @@
       <c r="C243" t="s">
         <v>173</v>
       </c>
+      <c r="D243" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O243">
         <v>0.5620000000000001</v>
       </c>
@@ -7767,6 +8527,9 @@
       <c r="C244" t="s">
         <v>167</v>
       </c>
+      <c r="D244" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H244">
         <v>1</v>
       </c>
@@ -7787,6 +8550,9 @@
       <c r="C245" t="s">
         <v>171</v>
       </c>
+      <c r="D245" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H245">
         <v>0.741</v>
       </c>
@@ -7807,6 +8573,9 @@
       <c r="C246" t="s">
         <v>172</v>
       </c>
+      <c r="D246" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H246">
         <v>0.8110000000000001</v>
       </c>
@@ -7827,6 +8596,9 @@
       <c r="C247" t="s">
         <v>173</v>
       </c>
+      <c r="D247" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I247">
         <v>0.642</v>
       </c>
@@ -7844,6 +8616,9 @@
       <c r="C248" t="s">
         <v>167</v>
       </c>
+      <c r="D248" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J248">
         <v>0.779</v>
       </c>
@@ -7858,6 +8633,9 @@
       <c r="C249" t="s">
         <v>171</v>
       </c>
+      <c r="D249" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J249">
         <v>0.974</v>
       </c>
@@ -7872,6 +8650,9 @@
       <c r="C250" t="s">
         <v>172</v>
       </c>
+      <c r="D250" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J250">
         <v>0.831</v>
       </c>
@@ -7886,6 +8667,9 @@
       <c r="C251" t="s">
         <v>173</v>
       </c>
+      <c r="D251" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="J251">
         <v>0.948</v>
       </c>
@@ -7900,6 +8684,9 @@
       <c r="C252" t="s">
         <v>167</v>
       </c>
+      <c r="D252" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H252">
         <v>0.548</v>
       </c>
@@ -7914,6 +8701,9 @@
       <c r="C253" t="s">
         <v>169</v>
       </c>
+      <c r="D253" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H253">
         <v>0.873</v>
       </c>
@@ -7928,6 +8718,9 @@
       <c r="C254" t="s">
         <v>170</v>
       </c>
+      <c r="D254" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H254">
         <v>0.66</v>
       </c>
@@ -7942,6 +8735,9 @@
       <c r="C255" t="s">
         <v>171</v>
       </c>
+      <c r="D255" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H255">
         <v>0.62</v>
       </c>
@@ -7956,6 +8752,9 @@
       <c r="C256" t="s">
         <v>172</v>
       </c>
+      <c r="D256" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H256">
         <v>0.5679999999999999</v>
       </c>
@@ -7970,6 +8769,9 @@
       <c r="C257" t="s">
         <v>167</v>
       </c>
+      <c r="D257" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O257">
         <v>0.8</v>
       </c>
@@ -7999,6 +8801,9 @@
       <c r="C258" t="s">
         <v>168</v>
       </c>
+      <c r="D258" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P258">
         <v>0.713</v>
       </c>
@@ -8025,6 +8830,9 @@
       <c r="C259" t="s">
         <v>169</v>
       </c>
+      <c r="D259" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P259">
         <v>0.515</v>
       </c>
@@ -8048,6 +8856,9 @@
       <c r="C260" t="s">
         <v>170</v>
       </c>
+      <c r="D260" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O260">
         <v>0.458</v>
       </c>
@@ -8077,6 +8888,9 @@
       <c r="C261" t="s">
         <v>171</v>
       </c>
+      <c r="D261" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O261">
         <v>0.822</v>
       </c>
@@ -8106,6 +8920,9 @@
       <c r="C262" t="s">
         <v>172</v>
       </c>
+      <c r="D262" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O262">
         <v>0.991</v>
       </c>
@@ -8135,6 +8952,9 @@
       <c r="C263" t="s">
         <v>173</v>
       </c>
+      <c r="D263" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O263">
         <v>0.737</v>
       </c>
@@ -8164,6 +8984,9 @@
       <c r="C264" t="s">
         <v>167</v>
       </c>
+      <c r="D264" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H264">
         <v>0.789</v>
       </c>
@@ -8184,6 +9007,9 @@
       <c r="C265" t="s">
         <v>168</v>
       </c>
+      <c r="D265" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J265">
         <v>0.897</v>
       </c>
@@ -8198,6 +9024,9 @@
       <c r="C266" t="s">
         <v>170</v>
       </c>
+      <c r="D266" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J266">
         <v>0.626</v>
       </c>
@@ -8212,6 +9041,9 @@
       <c r="C267" t="s">
         <v>171</v>
       </c>
+      <c r="D267" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H267">
         <v>0.924</v>
       </c>
@@ -8232,6 +9064,9 @@
       <c r="C268" t="s">
         <v>172</v>
       </c>
+      <c r="D268" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H268">
         <v>0.667</v>
       </c>
@@ -8252,6 +9087,9 @@
       <c r="C269" t="s">
         <v>173</v>
       </c>
+      <c r="D269" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I269">
         <v>0.747</v>
       </c>
@@ -8269,6 +9107,9 @@
       <c r="C270" t="s">
         <v>167</v>
       </c>
+      <c r="D270" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H270">
         <v>0.554</v>
       </c>
@@ -8283,6 +9124,9 @@
       <c r="C271" t="s">
         <v>169</v>
       </c>
+      <c r="D271" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H271">
         <v>0.8070000000000001</v>
       </c>
@@ -8297,6 +9141,9 @@
       <c r="C272" t="s">
         <v>170</v>
       </c>
+      <c r="D272" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H272">
         <v>0.748</v>
       </c>
@@ -8311,6 +9158,9 @@
       <c r="C273" t="s">
         <v>171</v>
       </c>
+      <c r="D273" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H273">
         <v>0.5580000000000001</v>
       </c>
@@ -8325,6 +9175,9 @@
       <c r="C274" t="s">
         <v>172</v>
       </c>
+      <c r="D274" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H274">
         <v>0.599</v>
       </c>
@@ -8339,6 +9192,9 @@
       <c r="C275" t="s">
         <v>167</v>
       </c>
+      <c r="D275" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H275">
         <v>0.762</v>
       </c>
@@ -8356,6 +9212,9 @@
       <c r="C276" t="s">
         <v>171</v>
       </c>
+      <c r="D276" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H276">
         <v>0.895</v>
       </c>
@@ -8373,6 +9232,9 @@
       <c r="C277" t="s">
         <v>172</v>
       </c>
+      <c r="D277" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H277">
         <v>0.703</v>
       </c>
@@ -8390,6 +9252,9 @@
       <c r="C278" t="s">
         <v>173</v>
       </c>
+      <c r="D278" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I278">
         <v>0.726</v>
       </c>
@@ -8404,6 +9269,9 @@
       <c r="C279" t="s">
         <v>167</v>
       </c>
+      <c r="D279" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E279">
         <v>0.77</v>
       </c>
@@ -8448,6 +9316,9 @@
       <c r="C280" t="s">
         <v>168</v>
       </c>
+      <c r="D280" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J280">
         <v>0.62</v>
       </c>
@@ -8477,6 +9348,9 @@
       <c r="C281" t="s">
         <v>169</v>
       </c>
+      <c r="D281" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H281">
         <v>0.544</v>
       </c>
@@ -8491,6 +9365,9 @@
       <c r="C282" t="s">
         <v>170</v>
       </c>
+      <c r="D282" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H282">
         <v>0.671</v>
       </c>
@@ -8523,6 +9400,9 @@
       <c r="C283" t="s">
         <v>171</v>
       </c>
+      <c r="D283" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E283">
         <v>0.597</v>
       </c>
@@ -8567,6 +9447,9 @@
       <c r="C284" t="s">
         <v>172</v>
       </c>
+      <c r="D284" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E284">
         <v>0.981</v>
       </c>
@@ -8611,6 +9494,9 @@
       <c r="C285" t="s">
         <v>173</v>
       </c>
+      <c r="D285" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I285">
         <v>0.641</v>
       </c>
@@ -8628,6 +9514,9 @@
       <c r="C286" t="s">
         <v>167</v>
       </c>
+      <c r="D286" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H286">
         <v>0.969</v>
       </c>
@@ -8651,6 +9540,9 @@
       <c r="C287" t="s">
         <v>168</v>
       </c>
+      <c r="D287" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="N287">
         <v>0.54</v>
       </c>
@@ -8668,6 +9560,9 @@
       <c r="C288" t="s">
         <v>169</v>
       </c>
+      <c r="D288" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H288">
         <v>0.554</v>
       </c>
@@ -8682,6 +9577,9 @@
       <c r="C289" t="s">
         <v>170</v>
       </c>
+      <c r="D289" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H289">
         <v>0.599</v>
       </c>
@@ -8705,6 +9603,9 @@
       <c r="C290" t="s">
         <v>171</v>
       </c>
+      <c r="D290" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H290">
         <v>0.715</v>
       </c>
@@ -8728,6 +9629,9 @@
       <c r="C291" t="s">
         <v>172</v>
       </c>
+      <c r="D291" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H291">
         <v>0.745</v>
       </c>
@@ -8751,6 +9655,9 @@
       <c r="C292" t="s">
         <v>173</v>
       </c>
+      <c r="D292" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O292">
         <v>0.523</v>
       </c>
@@ -8768,6 +9675,9 @@
       <c r="C293" t="s">
         <v>167</v>
       </c>
+      <c r="D293" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J293">
         <v>0.5570000000000001</v>
       </c>
@@ -8797,6 +9707,9 @@
       <c r="C294" t="s">
         <v>168</v>
       </c>
+      <c r="D294" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J294">
         <v>0.846</v>
       </c>
@@ -8826,6 +9739,9 @@
       <c r="C295" t="s">
         <v>170</v>
       </c>
+      <c r="D295" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J295">
         <v>0.605</v>
       </c>
@@ -8855,6 +9771,9 @@
       <c r="C296" t="s">
         <v>171</v>
       </c>
+      <c r="D296" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J296">
         <v>0.973</v>
       </c>
@@ -8884,6 +9803,9 @@
       <c r="C297" t="s">
         <v>172</v>
       </c>
+      <c r="D297" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J297">
         <v>0.601</v>
       </c>
@@ -8913,6 +9835,9 @@
       <c r="C298" t="s">
         <v>167</v>
       </c>
+      <c r="D298" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J298">
         <v>0.695</v>
       </c>
@@ -8942,6 +9867,9 @@
       <c r="C299" t="s">
         <v>168</v>
       </c>
+      <c r="D299" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J299">
         <v>0.706</v>
       </c>
@@ -8971,6 +9899,9 @@
       <c r="C300" t="s">
         <v>170</v>
       </c>
+      <c r="D300" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J300">
         <v>0.585</v>
       </c>
@@ -9000,6 +9931,9 @@
       <c r="C301" t="s">
         <v>171</v>
       </c>
+      <c r="D301" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J301">
         <v>0.968</v>
       </c>
@@ -9029,6 +9963,9 @@
       <c r="C302" t="s">
         <v>172</v>
       </c>
+      <c r="D302" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J302">
         <v>0.668</v>
       </c>
@@ -9058,6 +9995,9 @@
       <c r="C303" t="s">
         <v>167</v>
       </c>
+      <c r="D303" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O303">
         <v>0.786</v>
       </c>
@@ -9087,6 +10027,9 @@
       <c r="C304" t="s">
         <v>168</v>
       </c>
+      <c r="D304" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P304">
         <v>0.634</v>
       </c>
@@ -9113,6 +10056,9 @@
       <c r="C305" t="s">
         <v>169</v>
       </c>
+      <c r="D305" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P305">
         <v>0.529</v>
       </c>
@@ -9136,6 +10082,9 @@
       <c r="C306" t="s">
         <v>170</v>
       </c>
+      <c r="D306" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O306">
         <v>0.542</v>
       </c>
@@ -9165,6 +10114,9 @@
       <c r="C307" t="s">
         <v>171</v>
       </c>
+      <c r="D307" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O307">
         <v>0.792</v>
       </c>
@@ -9194,6 +10146,9 @@
       <c r="C308" t="s">
         <v>172</v>
       </c>
+      <c r="D308" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O308">
         <v>0.991</v>
       </c>
@@ -9223,6 +10178,9 @@
       <c r="C309" t="s">
         <v>173</v>
       </c>
+      <c r="D309" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O309">
         <v>0.718</v>
       </c>
@@ -9252,6 +10210,9 @@
       <c r="C310" t="s">
         <v>167</v>
       </c>
+      <c r="D310" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J310">
         <v>0.653</v>
       </c>
@@ -9266,6 +10227,9 @@
       <c r="C311" t="s">
         <v>168</v>
       </c>
+      <c r="D311" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J311">
         <v>0.602</v>
       </c>
@@ -9280,6 +10244,9 @@
       <c r="C312" t="s">
         <v>170</v>
       </c>
+      <c r="D312" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J312">
         <v>0.625</v>
       </c>
@@ -9294,6 +10261,9 @@
       <c r="C313" t="s">
         <v>171</v>
       </c>
+      <c r="D313" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J313">
         <v>0.971</v>
       </c>
@@ -9308,6 +10278,9 @@
       <c r="C314" t="s">
         <v>172</v>
       </c>
+      <c r="D314" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J314">
         <v>0.658</v>
       </c>
@@ -9322,6 +10295,9 @@
       <c r="C315" t="s">
         <v>167</v>
       </c>
+      <c r="D315" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="M315">
         <v>0.889</v>
       </c>
@@ -9342,6 +10318,9 @@
       <c r="C316" t="s">
         <v>168</v>
       </c>
+      <c r="D316" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="M316">
         <v>0.655</v>
       </c>
@@ -9362,6 +10341,9 @@
       <c r="C317" t="s">
         <v>170</v>
       </c>
+      <c r="D317" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="M317">
         <v>0.759</v>
       </c>
@@ -9382,6 +10364,9 @@
       <c r="C318" t="s">
         <v>171</v>
       </c>
+      <c r="D318" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="M318">
         <v>0.977</v>
       </c>
@@ -9402,6 +10387,9 @@
       <c r="C319" t="s">
         <v>172</v>
       </c>
+      <c r="D319" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="M319">
         <v>0.898</v>
       </c>
@@ -9422,6 +10410,9 @@
       <c r="C320" t="s">
         <v>167</v>
       </c>
+      <c r="D320" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="F320">
         <v>0.6830000000000001</v>
       </c>
@@ -9448,6 +10439,9 @@
       <c r="C321" t="s">
         <v>169</v>
       </c>
+      <c r="D321" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H321">
         <v>0.614</v>
       </c>
@@ -9462,6 +10456,9 @@
       <c r="C322" t="s">
         <v>170</v>
       </c>
+      <c r="D322" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H322">
         <v>0.58</v>
       </c>
@@ -9476,6 +10473,9 @@
       <c r="C323" t="s">
         <v>171</v>
       </c>
+      <c r="D323" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F323">
         <v>0.978</v>
       </c>
@@ -9502,6 +10502,9 @@
       <c r="C324" t="s">
         <v>172</v>
       </c>
+      <c r="D324" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="F324">
         <v>0.585</v>
       </c>
@@ -9528,6 +10531,9 @@
       <c r="C325" t="s">
         <v>173</v>
       </c>
+      <c r="D325" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I325">
         <v>0.858</v>
       </c>
@@ -9545,6 +10551,9 @@
       <c r="C326" t="s">
         <v>167</v>
       </c>
+      <c r="D326" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H326">
         <v>0.6</v>
       </c>
@@ -9559,6 +10568,9 @@
       <c r="C327" t="s">
         <v>169</v>
       </c>
+      <c r="D327" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H327">
         <v>0.758</v>
       </c>
@@ -9573,6 +10585,9 @@
       <c r="C328" t="s">
         <v>170</v>
       </c>
+      <c r="D328" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H328">
         <v>0.6889999999999999</v>
       </c>
@@ -9587,6 +10602,9 @@
       <c r="C329" t="s">
         <v>171</v>
       </c>
+      <c r="D329" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H329">
         <v>0.5629999999999999</v>
       </c>
@@ -9601,6 +10619,9 @@
       <c r="C330" t="s">
         <v>172</v>
       </c>
+      <c r="D330" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H330">
         <v>0.651</v>
       </c>
@@ -9615,6 +10636,9 @@
       <c r="C331" t="s">
         <v>167</v>
       </c>
+      <c r="D331" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="I331">
         <v>0.798</v>
       </c>
@@ -9632,6 +10656,9 @@
       <c r="C332" t="s">
         <v>171</v>
       </c>
+      <c r="D332" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I332">
         <v>0.9419999999999999</v>
       </c>
@@ -9649,6 +10676,9 @@
       <c r="C333" t="s">
         <v>172</v>
       </c>
+      <c r="D333" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="I333">
         <v>0.798</v>
       </c>
@@ -9666,6 +10696,9 @@
       <c r="C334" t="s">
         <v>173</v>
       </c>
+      <c r="D334" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I334">
         <v>0.759</v>
       </c>
@@ -9683,6 +10716,9 @@
       <c r="C335" t="s">
         <v>167</v>
       </c>
+      <c r="D335" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H335">
         <v>0.821</v>
       </c>
@@ -9703,6 +10739,9 @@
       <c r="C336" t="s">
         <v>170</v>
       </c>
+      <c r="D336" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H336">
         <v>0.619</v>
       </c>
@@ -9717,6 +10756,9 @@
       <c r="C337" t="s">
         <v>171</v>
       </c>
+      <c r="D337" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H337">
         <v>0.65</v>
       </c>
@@ -9737,6 +10779,9 @@
       <c r="C338" t="s">
         <v>172</v>
       </c>
+      <c r="D338" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H338">
         <v>0.947</v>
       </c>
@@ -9757,6 +10802,9 @@
       <c r="C339" t="s">
         <v>173</v>
       </c>
+      <c r="D339" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I339">
         <v>0.8110000000000001</v>
       </c>
@@ -9774,6 +10822,9 @@
       <c r="C340" t="s">
         <v>167</v>
       </c>
+      <c r="D340" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="K340">
         <v>0.586</v>
       </c>
@@ -9791,6 +10842,9 @@
       <c r="C341" t="s">
         <v>168</v>
       </c>
+      <c r="D341" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="K341">
         <v>0.478</v>
       </c>
@@ -9808,6 +10862,9 @@
       <c r="C342" t="s">
         <v>170</v>
       </c>
+      <c r="D342" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="K342">
         <v>0.765</v>
       </c>
@@ -9825,6 +10882,9 @@
       <c r="C343" t="s">
         <v>171</v>
       </c>
+      <c r="D343" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="K343">
         <v>0.645</v>
       </c>
@@ -9842,6 +10902,9 @@
       <c r="C344" t="s">
         <v>172</v>
       </c>
+      <c r="D344" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="K344">
         <v>0.772</v>
       </c>
@@ -9859,6 +10922,9 @@
       <c r="C345" t="s">
         <v>167</v>
       </c>
+      <c r="D345" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J345">
         <v>0.851</v>
       </c>
@@ -9888,6 +10954,9 @@
       <c r="C346" t="s">
         <v>168</v>
       </c>
+      <c r="D346" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J346">
         <v>0.628</v>
       </c>
@@ -9917,6 +10986,9 @@
       <c r="C347" t="s">
         <v>170</v>
       </c>
+      <c r="D347" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J347">
         <v>0.515</v>
       </c>
@@ -9946,6 +11018,9 @@
       <c r="C348" t="s">
         <v>171</v>
       </c>
+      <c r="D348" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J348">
         <v>0.666</v>
       </c>
@@ -9975,6 +11050,9 @@
       <c r="C349" t="s">
         <v>172</v>
       </c>
+      <c r="D349" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J349">
         <v>0.973</v>
       </c>
@@ -10004,6 +11082,9 @@
       <c r="C350" t="s">
         <v>167</v>
       </c>
+      <c r="D350" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H350">
         <v>0.976</v>
       </c>
@@ -10018,6 +11099,9 @@
       <c r="C351" t="s">
         <v>169</v>
       </c>
+      <c r="D351" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H351">
         <v>0.572</v>
       </c>
@@ -10032,6 +11116,9 @@
       <c r="C352" t="s">
         <v>170</v>
       </c>
+      <c r="D352" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H352">
         <v>0.597</v>
       </c>
@@ -10046,6 +11133,9 @@
       <c r="C353" t="s">
         <v>171</v>
       </c>
+      <c r="D353" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H353">
         <v>0.698</v>
       </c>
@@ -10060,6 +11150,9 @@
       <c r="C354" t="s">
         <v>172</v>
       </c>
+      <c r="D354" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H354">
         <v>0.739</v>
       </c>
@@ -10074,6 +11167,9 @@
       <c r="C355" t="s">
         <v>167</v>
       </c>
+      <c r="D355" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E355">
         <v>0.8120000000000001</v>
       </c>
@@ -10103,6 +11199,9 @@
       <c r="C356" t="s">
         <v>169</v>
       </c>
+      <c r="D356" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H356">
         <v>0.553</v>
       </c>
@@ -10117,6 +11216,9 @@
       <c r="C357" t="s">
         <v>170</v>
       </c>
+      <c r="D357" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H357">
         <v>0.681</v>
       </c>
@@ -10131,6 +11233,9 @@
       <c r="C358" t="s">
         <v>171</v>
       </c>
+      <c r="D358" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E358">
         <v>0.626</v>
       </c>
@@ -10160,6 +11265,9 @@
       <c r="C359" t="s">
         <v>172</v>
       </c>
+      <c r="D359" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E359">
         <v>0.974</v>
       </c>
@@ -10189,6 +11297,9 @@
       <c r="C360" t="s">
         <v>173</v>
       </c>
+      <c r="D360" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I360">
         <v>0.93</v>
       </c>
@@ -10206,6 +11317,9 @@
       <c r="C361" t="s">
         <v>167</v>
       </c>
+      <c r="D361" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O361">
         <v>0.824</v>
       </c>
@@ -10235,6 +11349,9 @@
       <c r="C362" t="s">
         <v>168</v>
       </c>
+      <c r="D362" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P362">
         <v>0.772</v>
       </c>
@@ -10261,6 +11378,9 @@
       <c r="C363" t="s">
         <v>169</v>
       </c>
+      <c r="D363" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P363">
         <v>0.593</v>
       </c>
@@ -10284,6 +11404,9 @@
       <c r="C364" t="s">
         <v>170</v>
       </c>
+      <c r="D364" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O364">
         <v>0.375</v>
       </c>
@@ -10313,6 +11436,9 @@
       <c r="C365" t="s">
         <v>171</v>
       </c>
+      <c r="D365" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O365">
         <v>0.978</v>
       </c>
@@ -10342,6 +11468,9 @@
       <c r="C366" t="s">
         <v>172</v>
       </c>
+      <c r="D366" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O366">
         <v>0.851</v>
       </c>
@@ -10371,6 +11500,9 @@
       <c r="C367" t="s">
         <v>173</v>
       </c>
+      <c r="D367" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O367">
         <v>0.572</v>
       </c>
@@ -10400,6 +11532,9 @@
       <c r="C368" t="s">
         <v>167</v>
       </c>
+      <c r="D368" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E368">
         <v>0.703</v>
       </c>
@@ -10459,6 +11594,9 @@
       <c r="C369" t="s">
         <v>168</v>
       </c>
+      <c r="D369" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J369">
         <v>0.653</v>
       </c>
@@ -10503,6 +11641,9 @@
       <c r="C370" t="s">
         <v>169</v>
       </c>
+      <c r="D370" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H370">
         <v>0.629</v>
       </c>
@@ -10529,6 +11670,9 @@
       <c r="C371" t="s">
         <v>170</v>
       </c>
+      <c r="D371" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H371">
         <v>0.605</v>
       </c>
@@ -10576,6 +11720,9 @@
       <c r="C372" t="s">
         <v>171</v>
       </c>
+      <c r="D372" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E372">
         <v>0.9350000000000001</v>
       </c>
@@ -10635,6 +11782,9 @@
       <c r="C373" t="s">
         <v>172</v>
       </c>
+      <c r="D373" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E373">
         <v>0.5600000000000001</v>
       </c>
@@ -10694,6 +11844,9 @@
       <c r="C374" t="s">
         <v>173</v>
       </c>
+      <c r="D374" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I374">
         <v>0.876</v>
       </c>
@@ -10729,6 +11882,9 @@
       <c r="C375" t="s">
         <v>167</v>
       </c>
+      <c r="D375" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E375">
         <v>0.9379999999999999</v>
       </c>
@@ -10743,6 +11899,9 @@
       <c r="C376" t="s">
         <v>171</v>
       </c>
+      <c r="D376" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E376">
         <v>0.972</v>
       </c>
@@ -10757,6 +11916,9 @@
       <c r="C377" t="s">
         <v>172</v>
       </c>
+      <c r="D377" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E377">
         <v>0.9350000000000001</v>
       </c>
@@ -10771,6 +11933,9 @@
       <c r="C378" t="s">
         <v>167</v>
       </c>
+      <c r="D378" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E378">
         <v>0.748</v>
       </c>
@@ -10800,6 +11965,9 @@
       <c r="C379" t="s">
         <v>169</v>
       </c>
+      <c r="D379" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H379">
         <v>0.371</v>
       </c>
@@ -10814,6 +11982,9 @@
       <c r="C380" t="s">
         <v>170</v>
       </c>
+      <c r="D380" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H380">
         <v>0.572</v>
       </c>
@@ -10828,6 +11999,9 @@
       <c r="C381" t="s">
         <v>171</v>
       </c>
+      <c r="D381" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E381">
         <v>0.589</v>
       </c>
@@ -10857,6 +12031,9 @@
       <c r="C382" t="s">
         <v>172</v>
       </c>
+      <c r="D382" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E382">
         <v>0.978</v>
       </c>
@@ -10886,6 +12063,9 @@
       <c r="C383" t="s">
         <v>173</v>
       </c>
+      <c r="D383" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I383">
         <v>0.949</v>
       </c>
@@ -10903,6 +12083,9 @@
       <c r="C384" t="s">
         <v>167</v>
       </c>
+      <c r="D384" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H384">
         <v>0.977</v>
       </c>
@@ -10917,6 +12100,9 @@
       <c r="C385" t="s">
         <v>169</v>
       </c>
+      <c r="D385" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H385">
         <v>0.5600000000000001</v>
       </c>
@@ -10931,6 +12117,9 @@
       <c r="C386" t="s">
         <v>170</v>
       </c>
+      <c r="D386" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H386">
         <v>0.603</v>
       </c>
@@ -10945,6 +12134,9 @@
       <c r="C387" t="s">
         <v>171</v>
       </c>
+      <c r="D387" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H387">
         <v>0.713</v>
       </c>
@@ -10959,6 +12151,9 @@
       <c r="C388" t="s">
         <v>172</v>
       </c>
+      <c r="D388" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H388">
         <v>0.75</v>
       </c>
@@ -10973,6 +12168,9 @@
       <c r="C389" t="s">
         <v>167</v>
       </c>
+      <c r="D389" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="K389">
         <v>0.783</v>
       </c>
@@ -11008,6 +12206,9 @@
       <c r="C390" t="s">
         <v>168</v>
       </c>
+      <c r="D390" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="K390">
         <v>0.642</v>
       </c>
@@ -11043,6 +12244,9 @@
       <c r="C391" t="s">
         <v>169</v>
       </c>
+      <c r="D391" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P391">
         <v>0.595</v>
       </c>
@@ -11063,6 +12267,9 @@
       <c r="C392" t="s">
         <v>170</v>
       </c>
+      <c r="D392" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="K392">
         <v>0.628</v>
       </c>
@@ -11098,6 +12305,9 @@
       <c r="C393" t="s">
         <v>171</v>
       </c>
+      <c r="D393" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="K393">
         <v>0.968</v>
       </c>
@@ -11133,6 +12343,9 @@
       <c r="C394" t="s">
         <v>172</v>
       </c>
+      <c r="D394" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="K394">
         <v>0.698</v>
       </c>
@@ -11168,6 +12381,9 @@
       <c r="C395" t="s">
         <v>173</v>
       </c>
+      <c r="D395" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O395">
         <v>0.5639999999999999</v>
       </c>
@@ -11191,6 +12407,9 @@
       <c r="C396" t="s">
         <v>167</v>
       </c>
+      <c r="D396" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J396">
         <v>0.838</v>
       </c>
@@ -11220,6 +12439,9 @@
       <c r="C397" t="s">
         <v>168</v>
       </c>
+      <c r="D397" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J397">
         <v>0.627</v>
       </c>
@@ -11249,6 +12471,9 @@
       <c r="C398" t="s">
         <v>170</v>
       </c>
+      <c r="D398" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J398">
         <v>0.529</v>
       </c>
@@ -11278,6 +12503,9 @@
       <c r="C399" t="s">
         <v>171</v>
       </c>
+      <c r="D399" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J399">
         <v>0.674</v>
       </c>
@@ -11307,6 +12535,9 @@
       <c r="C400" t="s">
         <v>172</v>
       </c>
+      <c r="D400" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J400">
         <v>0.974</v>
       </c>
@@ -11336,6 +12567,9 @@
       <c r="C401" t="s">
         <v>167</v>
       </c>
+      <c r="D401" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J401">
         <v>0.709</v>
       </c>
@@ -11350,6 +12584,9 @@
       <c r="C402" t="s">
         <v>171</v>
       </c>
+      <c r="D402" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J402">
         <v>0.969</v>
       </c>
@@ -11364,6 +12601,9 @@
       <c r="C403" t="s">
         <v>172</v>
       </c>
+      <c r="D403" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J403">
         <v>0.75</v>
       </c>
@@ -11378,6 +12618,9 @@
       <c r="C404" t="s">
         <v>173</v>
       </c>
+      <c r="D404" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="J404">
         <v>0.9379999999999999</v>
       </c>
@@ -11392,6 +12635,9 @@
       <c r="C405" t="s">
         <v>167</v>
       </c>
+      <c r="D405" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H405">
         <v>0.767</v>
       </c>
@@ -11442,6 +12688,9 @@
       <c r="C406" t="s">
         <v>168</v>
       </c>
+      <c r="D406" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J406">
         <v>0.649</v>
       </c>
@@ -11486,6 +12735,9 @@
       <c r="C407" t="s">
         <v>169</v>
       </c>
+      <c r="D407" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H407">
         <v>0.5669999999999999</v>
       </c>
@@ -11512,6 +12764,9 @@
       <c r="C408" t="s">
         <v>170</v>
       </c>
+      <c r="D408" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H408">
         <v>0.5</v>
       </c>
@@ -11559,6 +12814,9 @@
       <c r="C409" t="s">
         <v>171</v>
       </c>
+      <c r="D409" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H409">
         <v>0.64</v>
       </c>
@@ -11609,6 +12867,9 @@
       <c r="C410" t="s">
         <v>172</v>
       </c>
+      <c r="D410" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H410">
         <v>0.945</v>
       </c>
@@ -11659,6 +12920,9 @@
       <c r="C411" t="s">
         <v>173</v>
       </c>
+      <c r="D411" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I411">
         <v>0.802</v>
       </c>
@@ -11694,6 +12958,9 @@
       <c r="C412" t="s">
         <v>167</v>
       </c>
+      <c r="D412" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J412">
         <v>0.726</v>
       </c>
@@ -11723,6 +12990,9 @@
       <c r="C413" t="s">
         <v>168</v>
       </c>
+      <c r="D413" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J413">
         <v>0.696</v>
       </c>
@@ -11752,6 +13022,9 @@
       <c r="C414" t="s">
         <v>170</v>
       </c>
+      <c r="D414" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J414">
         <v>0.589</v>
       </c>
@@ -11781,6 +13054,9 @@
       <c r="C415" t="s">
         <v>171</v>
       </c>
+      <c r="D415" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J415">
         <v>0.974</v>
       </c>
@@ -11810,6 +13086,9 @@
       <c r="C416" t="s">
         <v>172</v>
       </c>
+      <c r="D416" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J416">
         <v>0.746</v>
       </c>
@@ -11839,6 +13118,9 @@
       <c r="C417" t="s">
         <v>173</v>
       </c>
+      <c r="D417" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="J417">
         <v>0.952</v>
       </c>
@@ -11853,6 +13135,9 @@
       <c r="C418" t="s">
         <v>167</v>
       </c>
+      <c r="D418" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E418">
         <v>0.743</v>
       </c>
@@ -11867,6 +13152,9 @@
       <c r="C419" t="s">
         <v>171</v>
       </c>
+      <c r="D419" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E419">
         <v>0.956</v>
       </c>
@@ -11881,6 +13169,9 @@
       <c r="C420" t="s">
         <v>172</v>
       </c>
+      <c r="D420" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E420">
         <v>0.61</v>
       </c>
@@ -11895,6 +13186,9 @@
       <c r="C421" t="s">
         <v>167</v>
       </c>
+      <c r="D421" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E421">
         <v>0.995</v>
       </c>
@@ -11924,6 +13218,9 @@
       <c r="C422" t="s">
         <v>169</v>
       </c>
+      <c r="D422" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H422">
         <v>0.533</v>
       </c>
@@ -11938,6 +13235,9 @@
       <c r="C423" t="s">
         <v>170</v>
       </c>
+      <c r="D423" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H423">
         <v>0.6</v>
       </c>
@@ -11952,6 +13252,9 @@
       <c r="C424" t="s">
         <v>171</v>
       </c>
+      <c r="D424" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E424">
         <v>0.729</v>
       </c>
@@ -11981,6 +13284,9 @@
       <c r="C425" t="s">
         <v>172</v>
       </c>
+      <c r="D425" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E425">
         <v>0.772</v>
       </c>
@@ -12010,6 +13316,9 @@
       <c r="C426" t="s">
         <v>173</v>
       </c>
+      <c r="D426" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I426">
         <v>0.631</v>
       </c>
@@ -12027,6 +13336,9 @@
       <c r="C427" t="s">
         <v>167</v>
       </c>
+      <c r="D427" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O427">
         <v>0.795</v>
       </c>
@@ -12056,6 +13368,9 @@
       <c r="C428" t="s">
         <v>168</v>
       </c>
+      <c r="D428" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P428">
         <v>0.6899999999999999</v>
       </c>
@@ -12082,6 +13397,9 @@
       <c r="C429" t="s">
         <v>169</v>
       </c>
+      <c r="D429" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P429">
         <v>0.498</v>
       </c>
@@ -12105,6 +13423,9 @@
       <c r="C430" t="s">
         <v>170</v>
       </c>
+      <c r="D430" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O430">
         <v>0.468</v>
       </c>
@@ -12134,6 +13455,9 @@
       <c r="C431" t="s">
         <v>171</v>
       </c>
+      <c r="D431" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O431">
         <v>0.8110000000000001</v>
       </c>
@@ -12163,6 +13487,9 @@
       <c r="C432" t="s">
         <v>172</v>
       </c>
+      <c r="D432" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O432">
         <v>0.978</v>
       </c>
@@ -12192,6 +13519,9 @@
       <c r="C433" t="s">
         <v>173</v>
       </c>
+      <c r="D433" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O433">
         <v>0.754</v>
       </c>
@@ -12221,6 +13551,9 @@
       <c r="C434" t="s">
         <v>167</v>
       </c>
+      <c r="D434" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H434">
         <v>0.678</v>
       </c>
@@ -12271,6 +13604,9 @@
       <c r="C435" t="s">
         <v>168</v>
       </c>
+      <c r="D435" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J435">
         <v>0.553</v>
       </c>
@@ -12315,6 +13651,9 @@
       <c r="C436" t="s">
         <v>169</v>
       </c>
+      <c r="D436" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P436">
         <v>0.59</v>
       </c>
@@ -12338,6 +13677,9 @@
       <c r="C437" t="s">
         <v>170</v>
       </c>
+      <c r="D437" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J437">
         <v>0.584</v>
       </c>
@@ -12382,6 +13724,9 @@
       <c r="C438" t="s">
         <v>171</v>
       </c>
+      <c r="D438" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H438">
         <v>0.874</v>
       </c>
@@ -12432,6 +13777,9 @@
       <c r="C439" t="s">
         <v>172</v>
       </c>
+      <c r="D439" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H439">
         <v>0.622</v>
       </c>
@@ -12482,6 +13830,9 @@
       <c r="C440" t="s">
         <v>173</v>
       </c>
+      <c r="D440" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I440">
         <v>0.893</v>
       </c>
@@ -12517,6 +13868,9 @@
       <c r="C441" t="s">
         <v>167</v>
       </c>
+      <c r="D441" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J441">
         <v>0.654</v>
       </c>
@@ -12537,6 +13891,9 @@
       <c r="C442" t="s">
         <v>168</v>
       </c>
+      <c r="D442" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J442">
         <v>0.647</v>
       </c>
@@ -12557,6 +13914,9 @@
       <c r="C443" t="s">
         <v>170</v>
       </c>
+      <c r="D443" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J443">
         <v>0.596</v>
       </c>
@@ -12577,6 +13937,9 @@
       <c r="C444" t="s">
         <v>171</v>
       </c>
+      <c r="D444" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J444">
         <v>0.966</v>
       </c>
@@ -12597,6 +13960,9 @@
       <c r="C445" t="s">
         <v>172</v>
       </c>
+      <c r="D445" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J445">
         <v>0.666</v>
       </c>
@@ -12617,6 +13983,9 @@
       <c r="C446" t="s">
         <v>167</v>
       </c>
+      <c r="D446" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E446">
         <v>0.735</v>
       </c>
@@ -12676,6 +14045,9 @@
       <c r="C447" t="s">
         <v>168</v>
       </c>
+      <c r="D447" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J447">
         <v>0.6899999999999999</v>
       </c>
@@ -12720,6 +14092,9 @@
       <c r="C448" t="s">
         <v>169</v>
       </c>
+      <c r="D448" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H448">
         <v>0.627</v>
       </c>
@@ -12746,6 +14121,9 @@
       <c r="C449" t="s">
         <v>170</v>
       </c>
+      <c r="D449" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H449">
         <v>0.575</v>
       </c>
@@ -12793,6 +14171,9 @@
       <c r="C450" t="s">
         <v>171</v>
       </c>
+      <c r="D450" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E450">
         <v>0.961</v>
       </c>
@@ -12852,6 +14233,9 @@
       <c r="C451" t="s">
         <v>172</v>
       </c>
+      <c r="D451" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E451">
         <v>0.607</v>
       </c>
@@ -12911,6 +14295,9 @@
       <c r="C452" t="s">
         <v>173</v>
       </c>
+      <c r="D452" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I452">
         <v>0.869</v>
       </c>
@@ -12946,6 +14333,9 @@
       <c r="C453" t="s">
         <v>167</v>
       </c>
+      <c r="D453" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E453">
         <v>0.646</v>
       </c>
@@ -12975,6 +14365,9 @@
       <c r="C454" t="s">
         <v>169</v>
       </c>
+      <c r="D454" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H454">
         <v>0.472</v>
       </c>
@@ -12989,6 +14382,9 @@
       <c r="C455" t="s">
         <v>170</v>
       </c>
+      <c r="D455" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H455">
         <v>0.656</v>
       </c>
@@ -13003,6 +14399,9 @@
       <c r="C456" t="s">
         <v>171</v>
       </c>
+      <c r="D456" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E456">
         <v>0.606</v>
       </c>
@@ -13032,6 +14431,9 @@
       <c r="C457" t="s">
         <v>172</v>
       </c>
+      <c r="D457" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E457">
         <v>0.957</v>
       </c>
@@ -13061,6 +14463,9 @@
       <c r="C458" t="s">
         <v>173</v>
       </c>
+      <c r="D458" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I458">
         <v>0.787</v>
       </c>
@@ -13078,6 +14483,9 @@
       <c r="C459" t="s">
         <v>167</v>
       </c>
+      <c r="D459" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E459">
         <v>0.736</v>
       </c>
@@ -13137,6 +14545,9 @@
       <c r="C460" t="s">
         <v>168</v>
       </c>
+      <c r="D460" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J460">
         <v>0.655</v>
       </c>
@@ -13181,6 +14592,9 @@
       <c r="C461" t="s">
         <v>169</v>
       </c>
+      <c r="D461" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H461">
         <v>0.622</v>
       </c>
@@ -13207,6 +14621,9 @@
       <c r="C462" t="s">
         <v>170</v>
       </c>
+      <c r="D462" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H462">
         <v>0.58</v>
       </c>
@@ -13254,6 +14671,9 @@
       <c r="C463" t="s">
         <v>171</v>
       </c>
+      <c r="D463" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E463">
         <v>0.962</v>
       </c>
@@ -13313,6 +14733,9 @@
       <c r="C464" t="s">
         <v>172</v>
       </c>
+      <c r="D464" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E464">
         <v>0.615</v>
       </c>
@@ -13372,6 +14795,9 @@
       <c r="C465" t="s">
         <v>173</v>
       </c>
+      <c r="D465" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I465">
         <v>0.873</v>
       </c>
@@ -13407,6 +14833,9 @@
       <c r="C466" t="s">
         <v>167</v>
       </c>
+      <c r="D466" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J466">
         <v>0.846</v>
       </c>
@@ -13436,6 +14865,9 @@
       <c r="C467" t="s">
         <v>168</v>
       </c>
+      <c r="D467" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J467">
         <v>0.636</v>
       </c>
@@ -13465,6 +14897,9 @@
       <c r="C468" t="s">
         <v>170</v>
       </c>
+      <c r="D468" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J468">
         <v>0.515</v>
       </c>
@@ -13494,6 +14929,9 @@
       <c r="C469" t="s">
         <v>171</v>
       </c>
+      <c r="D469" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J469">
         <v>0.675</v>
       </c>
@@ -13523,6 +14961,9 @@
       <c r="C470" t="s">
         <v>172</v>
       </c>
+      <c r="D470" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J470">
         <v>0.976</v>
       </c>
@@ -13552,6 +14993,9 @@
       <c r="C471" t="s">
         <v>167</v>
       </c>
+      <c r="D471" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J471">
         <v>0.35</v>
       </c>
@@ -13596,6 +15040,9 @@
       <c r="C472" t="s">
         <v>168</v>
       </c>
+      <c r="D472" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J472">
         <v>0.167</v>
       </c>
@@ -13640,6 +15087,9 @@
       <c r="C473" t="s">
         <v>169</v>
       </c>
+      <c r="D473" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P473">
         <v>0.717</v>
       </c>
@@ -13663,6 +15113,9 @@
       <c r="C474" t="s">
         <v>170</v>
       </c>
+      <c r="D474" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J474">
         <v>0.853</v>
       </c>
@@ -13707,6 +15160,9 @@
       <c r="C475" t="s">
         <v>171</v>
       </c>
+      <c r="D475" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J475">
         <v>0.438</v>
       </c>
@@ -13751,6 +15207,9 @@
       <c r="C476" t="s">
         <v>172</v>
       </c>
+      <c r="D476" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J476">
         <v>0.301</v>
       </c>
@@ -13795,6 +15254,9 @@
       <c r="C477" t="s">
         <v>173</v>
       </c>
+      <c r="D477" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O477">
         <v>0.586</v>
       </c>
@@ -13824,6 +15286,9 @@
       <c r="C478" t="s">
         <v>167</v>
       </c>
+      <c r="D478" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H478">
         <v>0.707</v>
       </c>
@@ -13838,6 +15303,9 @@
       <c r="C479" t="s">
         <v>169</v>
       </c>
+      <c r="D479" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H479">
         <v>0.542</v>
       </c>
@@ -13852,6 +15320,9 @@
       <c r="C480" t="s">
         <v>170</v>
       </c>
+      <c r="D480" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H480">
         <v>0.631</v>
       </c>
@@ -13866,6 +15337,9 @@
       <c r="C481" t="s">
         <v>171</v>
       </c>
+      <c r="D481" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H481">
         <v>0.902</v>
       </c>
@@ -13880,6 +15354,9 @@
       <c r="C482" t="s">
         <v>172</v>
       </c>
+      <c r="D482" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H482">
         <v>0.634</v>
       </c>
@@ -13894,6 +15371,9 @@
       <c r="C483" t="s">
         <v>167</v>
       </c>
+      <c r="D483" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J483">
         <v>0.729</v>
       </c>
@@ -13923,6 +15403,9 @@
       <c r="C484" t="s">
         <v>168</v>
       </c>
+      <c r="D484" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J484">
         <v>1</v>
       </c>
@@ -13952,6 +15435,9 @@
       <c r="C485" t="s">
         <v>170</v>
       </c>
+      <c r="D485" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J485">
         <v>0.573</v>
       </c>
@@ -13981,6 +15467,9 @@
       <c r="C486" t="s">
         <v>171</v>
       </c>
+      <c r="D486" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J486">
         <v>0.662</v>
       </c>
@@ -14010,6 +15499,9 @@
       <c r="C487" t="s">
         <v>172</v>
       </c>
+      <c r="D487" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J487">
         <v>0.622</v>
       </c>
@@ -14039,6 +15531,9 @@
       <c r="C488" t="s">
         <v>167</v>
       </c>
+      <c r="D488" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O488">
         <v>0.803</v>
       </c>
@@ -14068,6 +15563,9 @@
       <c r="C489" t="s">
         <v>168</v>
       </c>
+      <c r="D489" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P489">
         <v>0.466</v>
       </c>
@@ -14094,6 +15592,9 @@
       <c r="C490" t="s">
         <v>169</v>
       </c>
+      <c r="D490" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P490">
         <v>1</v>
       </c>
@@ -14117,6 +15618,9 @@
       <c r="C491" t="s">
         <v>170</v>
       </c>
+      <c r="D491" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O491">
         <v>0.462</v>
       </c>
@@ -14146,6 +15650,9 @@
       <c r="C492" t="s">
         <v>171</v>
       </c>
+      <c r="D492" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O492">
         <v>0.825</v>
       </c>
@@ -14175,6 +15682,9 @@
       <c r="C493" t="s">
         <v>172</v>
       </c>
+      <c r="D493" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O493">
         <v>0.982</v>
       </c>
@@ -14204,6 +15714,9 @@
       <c r="C494" t="s">
         <v>173</v>
       </c>
+      <c r="D494" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O494">
         <v>0.711</v>
       </c>
@@ -14233,6 +15746,9 @@
       <c r="C495" t="s">
         <v>167</v>
       </c>
+      <c r="D495" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E495">
         <v>0.735</v>
       </c>
@@ -14277,6 +15793,9 @@
       <c r="C496" t="s">
         <v>168</v>
       </c>
+      <c r="D496" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J496">
         <v>0.669</v>
       </c>
@@ -14306,6 +15825,9 @@
       <c r="C497" t="s">
         <v>169</v>
       </c>
+      <c r="D497" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H497">
         <v>0.7</v>
       </c>
@@ -14320,6 +15842,9 @@
       <c r="C498" t="s">
         <v>170</v>
       </c>
+      <c r="D498" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H498">
         <v>0.584</v>
       </c>
@@ -14352,6 +15877,9 @@
       <c r="C499" t="s">
         <v>171</v>
       </c>
+      <c r="D499" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E499">
         <v>0.966</v>
       </c>
@@ -14396,6 +15924,9 @@
       <c r="C500" t="s">
         <v>172</v>
       </c>
+      <c r="D500" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E500">
         <v>0.621</v>
       </c>
@@ -14440,6 +15971,9 @@
       <c r="C501" t="s">
         <v>173</v>
       </c>
+      <c r="D501" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I501">
         <v>0.892</v>
       </c>
@@ -14457,6 +15991,9 @@
       <c r="C502" t="s">
         <v>167</v>
       </c>
+      <c r="D502" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="I502">
         <v>0.626</v>
       </c>
@@ -14504,6 +16041,9 @@
       <c r="C503" t="s">
         <v>168</v>
       </c>
+      <c r="D503" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J503">
         <v>0.602</v>
       </c>
@@ -14548,6 +16088,9 @@
       <c r="C504" t="s">
         <v>169</v>
       </c>
+      <c r="D504" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P504">
         <v>0.598</v>
       </c>
@@ -14571,6 +16114,9 @@
       <c r="C505" t="s">
         <v>170</v>
       </c>
+      <c r="D505" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J505">
         <v>0.531</v>
       </c>
@@ -14615,6 +16161,9 @@
       <c r="C506" t="s">
         <v>171</v>
       </c>
+      <c r="D506" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I506">
         <v>0.822</v>
       </c>
@@ -14662,6 +16211,9 @@
       <c r="C507" t="s">
         <v>172</v>
       </c>
+      <c r="D507" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="I507">
         <v>0.8080000000000001</v>
       </c>
@@ -14709,6 +16261,9 @@
       <c r="C508" t="s">
         <v>173</v>
       </c>
+      <c r="D508" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I508">
         <v>1</v>
       </c>
@@ -14744,6 +16299,9 @@
       <c r="C509" t="s">
         <v>167</v>
       </c>
+      <c r="D509" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E509">
         <v>0.73</v>
       </c>
@@ -14797,6 +16355,9 @@
       <c r="C510" t="s">
         <v>168</v>
       </c>
+      <c r="D510" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J510">
         <v>0.711</v>
       </c>
@@ -14832,6 +16393,9 @@
       <c r="C511" t="s">
         <v>169</v>
       </c>
+      <c r="D511" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H511">
         <v>0.653</v>
       </c>
@@ -14852,6 +16416,9 @@
       <c r="C512" t="s">
         <v>170</v>
       </c>
+      <c r="D512" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H512">
         <v>0.51</v>
       </c>
@@ -14893,6 +16460,9 @@
       <c r="C513" t="s">
         <v>171</v>
       </c>
+      <c r="D513" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E513">
         <v>0.963</v>
       </c>
@@ -14946,6 +16516,9 @@
       <c r="C514" t="s">
         <v>172</v>
       </c>
+      <c r="D514" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E514">
         <v>0.594</v>
       </c>
@@ -14999,6 +16572,9 @@
       <c r="C515" t="s">
         <v>173</v>
       </c>
+      <c r="D515" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I515">
         <v>0.875</v>
       </c>
@@ -15025,6 +16601,9 @@
       <c r="C516" t="s">
         <v>167</v>
       </c>
+      <c r="D516" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E516">
         <v>0.791</v>
       </c>
@@ -15054,6 +16633,9 @@
       <c r="C517" t="s">
         <v>169</v>
       </c>
+      <c r="D517" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H517">
         <v>0.493</v>
       </c>
@@ -15068,6 +16650,9 @@
       <c r="C518" t="s">
         <v>170</v>
       </c>
+      <c r="D518" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H518">
         <v>0.652</v>
       </c>
@@ -15082,6 +16667,9 @@
       <c r="C519" t="s">
         <v>171</v>
       </c>
+      <c r="D519" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E519">
         <v>0.547</v>
       </c>
@@ -15111,6 +16699,9 @@
       <c r="C520" t="s">
         <v>172</v>
       </c>
+      <c r="D520" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E520">
         <v>0.985</v>
       </c>
@@ -15140,6 +16731,9 @@
       <c r="C521" t="s">
         <v>173</v>
       </c>
+      <c r="D521" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I521">
         <v>0.9429999999999999</v>
       </c>
@@ -15157,6 +16751,9 @@
       <c r="C522" t="s">
         <v>167</v>
       </c>
+      <c r="D522" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H522">
         <v>1</v>
       </c>
@@ -15177,6 +16774,9 @@
       <c r="C523" t="s">
         <v>171</v>
       </c>
+      <c r="D523" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H523">
         <v>0.733</v>
       </c>
@@ -15197,6 +16797,9 @@
       <c r="C524" t="s">
         <v>172</v>
       </c>
+      <c r="D524" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H524">
         <v>0.8169999999999999</v>
       </c>
@@ -15217,6 +16820,9 @@
       <c r="C525" t="s">
         <v>173</v>
       </c>
+      <c r="D525" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I525">
         <v>0.664</v>
       </c>
@@ -15234,6 +16840,9 @@
       <c r="C526" t="s">
         <v>167</v>
       </c>
+      <c r="D526" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O526">
         <v>0.798</v>
       </c>
@@ -15263,6 +16872,9 @@
       <c r="C527" t="s">
         <v>168</v>
       </c>
+      <c r="D527" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P527">
         <v>0.7</v>
       </c>
@@ -15289,6 +16901,9 @@
       <c r="C528" t="s">
         <v>169</v>
       </c>
+      <c r="D528" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P528">
         <v>0.507</v>
       </c>
@@ -15312,6 +16927,9 @@
       <c r="C529" t="s">
         <v>170</v>
       </c>
+      <c r="D529" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O529">
         <v>0.453</v>
       </c>
@@ -15341,6 +16959,9 @@
       <c r="C530" t="s">
         <v>171</v>
       </c>
+      <c r="D530" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O530">
         <v>0.827</v>
       </c>
@@ -15370,6 +16991,9 @@
       <c r="C531" t="s">
         <v>172</v>
       </c>
+      <c r="D531" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O531">
         <v>0.991</v>
       </c>
@@ -15399,6 +17023,9 @@
       <c r="C532" t="s">
         <v>173</v>
       </c>
+      <c r="D532" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O532">
         <v>0.735</v>
       </c>
@@ -15428,6 +17055,9 @@
       <c r="C533" t="s">
         <v>167</v>
       </c>
+      <c r="D533" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="S533">
         <v>0.8070000000000001</v>
       </c>
@@ -15445,6 +17075,9 @@
       <c r="C534" t="s">
         <v>168</v>
       </c>
+      <c r="D534" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="S534">
         <v>0.734</v>
       </c>
@@ -15462,6 +17095,9 @@
       <c r="C535" t="s">
         <v>169</v>
       </c>
+      <c r="D535" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="S535">
         <v>0.443</v>
       </c>
@@ -15476,6 +17112,9 @@
       <c r="C536" t="s">
         <v>170</v>
       </c>
+      <c r="D536" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="S536">
         <v>0.538</v>
       </c>
@@ -15493,6 +17132,9 @@
       <c r="C537" t="s">
         <v>171</v>
       </c>
+      <c r="D537" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="S537">
         <v>0.785</v>
       </c>
@@ -15510,6 +17152,9 @@
       <c r="C538" t="s">
         <v>172</v>
       </c>
+      <c r="D538" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="S538">
         <v>0.955</v>
       </c>
@@ -15527,6 +17172,9 @@
       <c r="C539" t="s">
         <v>173</v>
       </c>
+      <c r="D539" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="S539">
         <v>0.698</v>
       </c>
@@ -15544,6 +17192,9 @@
       <c r="C540" t="s">
         <v>167</v>
       </c>
+      <c r="D540" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H540">
         <v>0.717</v>
       </c>
@@ -15564,6 +17215,9 @@
       <c r="C541" t="s">
         <v>169</v>
       </c>
+      <c r="D541" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H541">
         <v>0.601</v>
       </c>
@@ -15578,6 +17232,9 @@
       <c r="C542" t="s">
         <v>170</v>
       </c>
+      <c r="D542" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H542">
         <v>0.509</v>
       </c>
@@ -15592,6 +17249,9 @@
       <c r="C543" t="s">
         <v>171</v>
       </c>
+      <c r="D543" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H543">
         <v>0.9379999999999999</v>
       </c>
@@ -15612,6 +17272,9 @@
       <c r="C544" t="s">
         <v>172</v>
       </c>
+      <c r="D544" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H544">
         <v>0.615</v>
       </c>
@@ -15632,6 +17295,9 @@
       <c r="C545" t="s">
         <v>173</v>
       </c>
+      <c r="D545" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I545">
         <v>0.752</v>
       </c>
@@ -15649,6 +17315,9 @@
       <c r="C546" t="s">
         <v>167</v>
       </c>
+      <c r="D546" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H546">
         <v>0.771</v>
       </c>
@@ -15666,6 +17335,9 @@
       <c r="C547" t="s">
         <v>171</v>
       </c>
+      <c r="D547" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H547">
         <v>0.904</v>
       </c>
@@ -15683,6 +17355,9 @@
       <c r="C548" t="s">
         <v>172</v>
       </c>
+      <c r="D548" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H548">
         <v>0.651</v>
       </c>
@@ -15700,6 +17375,9 @@
       <c r="C549" t="s">
         <v>173</v>
       </c>
+      <c r="D549" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I549">
         <v>0.78</v>
       </c>
@@ -15714,6 +17392,9 @@
       <c r="C550" t="s">
         <v>167</v>
       </c>
+      <c r="D550" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H550">
         <v>0.803</v>
       </c>
@@ -15764,6 +17445,9 @@
       <c r="C551" t="s">
         <v>168</v>
       </c>
+      <c r="D551" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J551">
         <v>0.64</v>
       </c>
@@ -15808,6 +17492,9 @@
       <c r="C552" t="s">
         <v>169</v>
       </c>
+      <c r="D552" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H552">
         <v>0.642</v>
       </c>
@@ -15834,6 +17521,9 @@
       <c r="C553" t="s">
         <v>170</v>
       </c>
+      <c r="D553" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H553">
         <v>0.624</v>
       </c>
@@ -15881,6 +17571,9 @@
       <c r="C554" t="s">
         <v>171</v>
       </c>
+      <c r="D554" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H554">
         <v>0.915</v>
       </c>
@@ -15931,6 +17624,9 @@
       <c r="C555" t="s">
         <v>172</v>
       </c>
+      <c r="D555" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H555">
         <v>0.675</v>
       </c>
@@ -15981,6 +17677,9 @@
       <c r="C556" t="s">
         <v>173</v>
       </c>
+      <c r="D556" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I556">
         <v>0.8139999999999999</v>
       </c>
@@ -16016,6 +17715,9 @@
       <c r="C557" t="s">
         <v>167</v>
       </c>
+      <c r="D557" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H557">
         <v>0.784</v>
       </c>
@@ -16033,6 +17735,9 @@
       <c r="C558" t="s">
         <v>171</v>
       </c>
+      <c r="D558" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H558">
         <v>0.915</v>
       </c>
@@ -16050,6 +17755,9 @@
       <c r="C559" t="s">
         <v>172</v>
       </c>
+      <c r="D559" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H559">
         <v>0.6860000000000001</v>
       </c>
@@ -16067,6 +17775,9 @@
       <c r="C560" t="s">
         <v>173</v>
       </c>
+      <c r="D560" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I560">
         <v>0.789</v>
       </c>
@@ -16081,6 +17792,9 @@
       <c r="C561" t="s">
         <v>167</v>
       </c>
+      <c r="D561" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="P561">
         <v>0.827</v>
       </c>
@@ -16107,6 +17821,9 @@
       <c r="C562" t="s">
         <v>168</v>
       </c>
+      <c r="D562" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P562">
         <v>0.82</v>
       </c>
@@ -16133,6 +17850,9 @@
       <c r="C563" t="s">
         <v>169</v>
       </c>
+      <c r="D563" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P563">
         <v>0.5629999999999999</v>
       </c>
@@ -16156,6 +17876,9 @@
       <c r="C564" t="s">
         <v>170</v>
       </c>
+      <c r="D564" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="P564">
         <v>0.476</v>
       </c>
@@ -16182,6 +17905,9 @@
       <c r="C565" t="s">
         <v>171</v>
       </c>
+      <c r="D565" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="P565">
         <v>0.972</v>
       </c>
@@ -16208,6 +17934,9 @@
       <c r="C566" t="s">
         <v>172</v>
       </c>
+      <c r="D566" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="P566">
         <v>0.785</v>
       </c>
@@ -16234,6 +17963,9 @@
       <c r="C567" t="s">
         <v>173</v>
       </c>
+      <c r="D567" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="P567">
         <v>0.545</v>
       </c>
@@ -16260,6 +17992,9 @@
       <c r="C568" t="s">
         <v>167</v>
       </c>
+      <c r="D568" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="M568">
         <v>0.919</v>
       </c>
@@ -16280,6 +18015,9 @@
       <c r="C569" t="s">
         <v>168</v>
       </c>
+      <c r="D569" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="M569">
         <v>0.572</v>
       </c>
@@ -16300,6 +18038,9 @@
       <c r="C570" t="s">
         <v>170</v>
       </c>
+      <c r="D570" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="M570">
         <v>0.766</v>
       </c>
@@ -16320,6 +18061,9 @@
       <c r="C571" t="s">
         <v>171</v>
       </c>
+      <c r="D571" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="M571">
         <v>0.829</v>
       </c>
@@ -16340,6 +18084,9 @@
       <c r="C572" t="s">
         <v>172</v>
       </c>
+      <c r="D572" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="M572">
         <v>0.979</v>
       </c>
@@ -16360,6 +18107,9 @@
       <c r="C573" t="s">
         <v>167</v>
       </c>
+      <c r="D573" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O573">
         <v>0.978</v>
       </c>
@@ -16389,6 +18139,9 @@
       <c r="C574" t="s">
         <v>168</v>
       </c>
+      <c r="D574" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P574">
         <v>0.761</v>
       </c>
@@ -16415,6 +18168,9 @@
       <c r="C575" t="s">
         <v>169</v>
       </c>
+      <c r="D575" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P575">
         <v>0.443</v>
       </c>
@@ -16438,6 +18194,9 @@
       <c r="C576" t="s">
         <v>170</v>
       </c>
+      <c r="D576" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O576">
         <v>0.385</v>
       </c>
@@ -16467,6 +18226,9 @@
       <c r="C577" t="s">
         <v>171</v>
       </c>
+      <c r="D577" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O577">
         <v>0.831</v>
       </c>
@@ -16496,6 +18258,9 @@
       <c r="C578" t="s">
         <v>172</v>
       </c>
+      <c r="D578" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O578">
         <v>0.821</v>
       </c>
@@ -16525,6 +18290,9 @@
       <c r="C579" t="s">
         <v>173</v>
       </c>
+      <c r="D579" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O579">
         <v>0.59</v>
       </c>
@@ -16554,6 +18322,9 @@
       <c r="C580" t="s">
         <v>167</v>
       </c>
+      <c r="D580" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J580">
         <v>0.678</v>
       </c>
@@ -16598,6 +18369,9 @@
       <c r="C581" t="s">
         <v>168</v>
       </c>
+      <c r="D581" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J581">
         <v>0.657</v>
       </c>
@@ -16642,6 +18416,9 @@
       <c r="C582" t="s">
         <v>169</v>
       </c>
+      <c r="D582" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P582">
         <v>0.541</v>
       </c>
@@ -16665,6 +18442,9 @@
       <c r="C583" t="s">
         <v>170</v>
       </c>
+      <c r="D583" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J583">
         <v>0.5649999999999999</v>
       </c>
@@ -16709,6 +18489,9 @@
       <c r="C584" t="s">
         <v>171</v>
       </c>
+      <c r="D584" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J584">
         <v>0.964</v>
       </c>
@@ -16753,6 +18536,9 @@
       <c r="C585" t="s">
         <v>172</v>
       </c>
+      <c r="D585" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J585">
         <v>0.652</v>
       </c>
@@ -16797,6 +18583,9 @@
       <c r="C586" t="s">
         <v>173</v>
       </c>
+      <c r="D586" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O586">
         <v>0.502</v>
       </c>
@@ -16826,6 +18615,9 @@
       <c r="C587" t="s">
         <v>167</v>
       </c>
+      <c r="D587" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H587">
         <v>0.694</v>
       </c>
@@ -16840,6 +18632,9 @@
       <c r="C588" t="s">
         <v>169</v>
       </c>
+      <c r="D588" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H588">
         <v>0.606</v>
       </c>
@@ -16854,6 +18649,9 @@
       <c r="C589" t="s">
         <v>170</v>
       </c>
+      <c r="D589" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H589">
         <v>0.49</v>
       </c>
@@ -16868,6 +18666,9 @@
       <c r="C590" t="s">
         <v>171</v>
       </c>
+      <c r="D590" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H590">
         <v>0.928</v>
       </c>
@@ -16882,6 +18683,9 @@
       <c r="C591" t="s">
         <v>172</v>
       </c>
+      <c r="D591" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H591">
         <v>0.599</v>
       </c>
@@ -16896,6 +18700,9 @@
       <c r="C592" t="s">
         <v>167</v>
       </c>
+      <c r="D592" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H592">
         <v>0.8139999999999999</v>
       </c>
@@ -16916,6 +18723,9 @@
       <c r="C593" t="s">
         <v>171</v>
       </c>
+      <c r="D593" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H593">
         <v>0.883</v>
       </c>
@@ -16936,6 +18746,9 @@
       <c r="C594" t="s">
         <v>172</v>
       </c>
+      <c r="D594" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H594">
         <v>0.66</v>
       </c>
@@ -16956,6 +18769,9 @@
       <c r="C595" t="s">
         <v>173</v>
       </c>
+      <c r="D595" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I595">
         <v>0.745</v>
       </c>
@@ -16973,6 +18789,9 @@
       <c r="C596" t="s">
         <v>167</v>
       </c>
+      <c r="D596" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H596">
         <v>0.772</v>
       </c>
@@ -16993,6 +18812,9 @@
       <c r="C597" t="s">
         <v>171</v>
       </c>
+      <c r="D597" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H597">
         <v>0.883</v>
       </c>
@@ -17013,6 +18835,9 @@
       <c r="C598" t="s">
         <v>172</v>
       </c>
+      <c r="D598" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H598">
         <v>0.704</v>
       </c>
@@ -17033,6 +18858,9 @@
       <c r="C599" t="s">
         <v>173</v>
       </c>
+      <c r="D599" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I599">
         <v>0.774</v>
       </c>
@@ -17050,6 +18878,9 @@
       <c r="C600" t="s">
         <v>167</v>
       </c>
+      <c r="D600" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O600">
         <v>0.834</v>
       </c>
@@ -17079,6 +18910,9 @@
       <c r="C601" t="s">
         <v>168</v>
       </c>
+      <c r="D601" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P601">
         <v>0.785</v>
       </c>
@@ -17105,6 +18939,9 @@
       <c r="C602" t="s">
         <v>169</v>
       </c>
+      <c r="D602" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P602">
         <v>0.6</v>
       </c>
@@ -17128,6 +18965,9 @@
       <c r="C603" t="s">
         <v>170</v>
       </c>
+      <c r="D603" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O603">
         <v>0.373</v>
       </c>
@@ -17157,6 +18997,9 @@
       <c r="C604" t="s">
         <v>171</v>
       </c>
+      <c r="D604" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O604">
         <v>0.989</v>
       </c>
@@ -17186,6 +19029,9 @@
       <c r="C605" t="s">
         <v>172</v>
       </c>
+      <c r="D605" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O605">
         <v>0.848</v>
       </c>
@@ -17215,6 +19061,9 @@
       <c r="C606" t="s">
         <v>173</v>
       </c>
+      <c r="D606" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O606">
         <v>0.571</v>
       </c>
@@ -17244,6 +19093,9 @@
       <c r="C607" t="s">
         <v>167</v>
       </c>
+      <c r="D607" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J607">
         <v>0.96</v>
       </c>
@@ -17288,6 +19140,9 @@
       <c r="C608" t="s">
         <v>168</v>
       </c>
+      <c r="D608" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J608">
         <v>0.833</v>
       </c>
@@ -17332,6 +19187,9 @@
       <c r="C609" t="s">
         <v>169</v>
       </c>
+      <c r="D609" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P609">
         <v>0.539</v>
       </c>
@@ -17355,6 +19213,9 @@
       <c r="C610" t="s">
         <v>170</v>
       </c>
+      <c r="D610" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J610">
         <v>0.482</v>
       </c>
@@ -17399,6 +19260,9 @@
       <c r="C611" t="s">
         <v>171</v>
       </c>
+      <c r="D611" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J611">
         <v>0.5600000000000001</v>
       </c>
@@ -17443,6 +19307,9 @@
       <c r="C612" t="s">
         <v>172</v>
       </c>
+      <c r="D612" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J612">
         <v>0.773</v>
       </c>
@@ -17487,6 +19354,9 @@
       <c r="C613" t="s">
         <v>173</v>
       </c>
+      <c r="D613" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O613">
         <v>0.621</v>
       </c>
@@ -17516,6 +19386,9 @@
       <c r="C614" t="s">
         <v>167</v>
       </c>
+      <c r="D614" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="N614">
         <v>0.975</v>
       </c>
@@ -17533,6 +19406,9 @@
       <c r="C615" t="s">
         <v>168</v>
       </c>
+      <c r="D615" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="N615">
         <v>0.516</v>
       </c>
@@ -17550,6 +19426,9 @@
       <c r="C616" t="s">
         <v>170</v>
       </c>
+      <c r="D616" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="N616">
         <v>0.714</v>
       </c>
@@ -17567,6 +19446,9 @@
       <c r="C617" t="s">
         <v>171</v>
       </c>
+      <c r="D617" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="N617">
         <v>0.775</v>
       </c>
@@ -17584,6 +19466,9 @@
       <c r="C618" t="s">
         <v>172</v>
       </c>
+      <c r="D618" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="N618">
         <v>0.833</v>
       </c>
@@ -17601,6 +19486,9 @@
       <c r="C619" t="s">
         <v>167</v>
       </c>
+      <c r="D619" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H619">
         <v>0.67</v>
       </c>
@@ -17615,6 +19503,9 @@
       <c r="C620" t="s">
         <v>169</v>
       </c>
+      <c r="D620" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H620">
         <v>0.644</v>
       </c>
@@ -17629,6 +19520,9 @@
       <c r="C621" t="s">
         <v>170</v>
       </c>
+      <c r="D621" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H621">
         <v>0.53</v>
       </c>
@@ -17643,6 +19537,9 @@
       <c r="C622" t="s">
         <v>171</v>
       </c>
+      <c r="D622" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H622">
         <v>0.853</v>
       </c>
@@ -17657,6 +19554,9 @@
       <c r="C623" t="s">
         <v>172</v>
       </c>
+      <c r="D623" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H623">
         <v>0.543</v>
       </c>
@@ -17671,6 +19571,9 @@
       <c r="C624" t="s">
         <v>167</v>
       </c>
+      <c r="D624" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H624">
         <v>0.5580000000000001</v>
       </c>
@@ -17685,6 +19588,9 @@
       <c r="C625" t="s">
         <v>169</v>
       </c>
+      <c r="D625" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H625">
         <v>0.855</v>
       </c>
@@ -17699,6 +19605,9 @@
       <c r="C626" t="s">
         <v>170</v>
       </c>
+      <c r="D626" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H626">
         <v>0.6840000000000001</v>
       </c>
@@ -17713,6 +19622,9 @@
       <c r="C627" t="s">
         <v>171</v>
       </c>
+      <c r="D627" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H627">
         <v>0.67</v>
       </c>
@@ -17727,6 +19639,9 @@
       <c r="C628" t="s">
         <v>172</v>
       </c>
+      <c r="D628" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H628">
         <v>0.571</v>
       </c>
@@ -17741,6 +19656,9 @@
       <c r="C629" t="s">
         <v>167</v>
       </c>
+      <c r="D629" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J629">
         <v>0.676</v>
       </c>
@@ -17770,6 +19688,9 @@
       <c r="C630" t="s">
         <v>168</v>
       </c>
+      <c r="D630" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J630">
         <v>0.664</v>
       </c>
@@ -17799,6 +19720,9 @@
       <c r="C631" t="s">
         <v>170</v>
       </c>
+      <c r="D631" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J631">
         <v>0.589</v>
       </c>
@@ -17828,6 +19752,9 @@
       <c r="C632" t="s">
         <v>171</v>
       </c>
+      <c r="D632" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J632">
         <v>0.966</v>
       </c>
@@ -17857,6 +19784,9 @@
       <c r="C633" t="s">
         <v>172</v>
       </c>
+      <c r="D633" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J633">
         <v>0.671</v>
       </c>
@@ -17886,6 +19816,9 @@
       <c r="C634" t="s">
         <v>167</v>
       </c>
+      <c r="D634" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H634">
         <v>0.796</v>
       </c>
@@ -17903,6 +19836,9 @@
       <c r="C635" t="s">
         <v>171</v>
       </c>
+      <c r="D635" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H635">
         <v>0.907</v>
       </c>
@@ -17920,6 +19856,9 @@
       <c r="C636" t="s">
         <v>172</v>
       </c>
+      <c r="D636" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H636">
         <v>0.642</v>
       </c>
@@ -17937,6 +19876,9 @@
       <c r="C637" t="s">
         <v>173</v>
       </c>
+      <c r="D637" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I637">
         <v>0.721</v>
       </c>
@@ -17951,6 +19893,9 @@
       <c r="C638" t="s">
         <v>167</v>
       </c>
+      <c r="D638" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E638">
         <v>0.773</v>
       </c>
@@ -17980,6 +19925,9 @@
       <c r="C639" t="s">
         <v>168</v>
       </c>
+      <c r="D639" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J639">
         <v>0.669</v>
       </c>
@@ -17994,6 +19942,9 @@
       <c r="C640" t="s">
         <v>169</v>
       </c>
+      <c r="D640" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H640">
         <v>0.578</v>
       </c>
@@ -18008,6 +19959,9 @@
       <c r="C641" t="s">
         <v>170</v>
       </c>
+      <c r="D641" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H641">
         <v>0.587</v>
       </c>
@@ -18025,6 +19979,9 @@
       <c r="C642" t="s">
         <v>171</v>
       </c>
+      <c r="D642" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E642">
         <v>0.92</v>
       </c>
@@ -18054,6 +20011,9 @@
       <c r="C643" t="s">
         <v>172</v>
       </c>
+      <c r="D643" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E643">
         <v>0.588</v>
       </c>
@@ -18083,6 +20043,9 @@
       <c r="C644" t="s">
         <v>173</v>
       </c>
+      <c r="D644" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I644">
         <v>0.865</v>
       </c>
@@ -18100,6 +20063,9 @@
       <c r="C645" t="s">
         <v>167</v>
       </c>
+      <c r="D645" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O645">
         <v>0.8179999999999999</v>
       </c>
@@ -18129,6 +20095,9 @@
       <c r="C646" t="s">
         <v>168</v>
       </c>
+      <c r="D646" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P646">
         <v>0.6909999999999999</v>
       </c>
@@ -18155,6 +20124,9 @@
       <c r="C647" t="s">
         <v>169</v>
       </c>
+      <c r="D647" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P647">
         <v>0.503</v>
       </c>
@@ -18178,6 +20150,9 @@
       <c r="C648" t="s">
         <v>170</v>
       </c>
+      <c r="D648" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O648">
         <v>0.44</v>
       </c>
@@ -18207,6 +20182,9 @@
       <c r="C649" t="s">
         <v>171</v>
       </c>
+      <c r="D649" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O649">
         <v>0.83</v>
       </c>
@@ -18236,6 +20214,9 @@
       <c r="C650" t="s">
         <v>172</v>
       </c>
+      <c r="D650" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O650">
         <v>0.986</v>
       </c>
@@ -18265,6 +20246,9 @@
       <c r="C651" t="s">
         <v>173</v>
       </c>
+      <c r="D651" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O651">
         <v>0.709</v>
       </c>
@@ -18294,6 +20278,9 @@
       <c r="C652" t="s">
         <v>167</v>
       </c>
+      <c r="D652" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E652">
         <v>0.782</v>
       </c>
@@ -18323,6 +20310,9 @@
       <c r="C653" t="s">
         <v>169</v>
       </c>
+      <c r="D653" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H653">
         <v>0.625</v>
       </c>
@@ -18337,6 +20327,9 @@
       <c r="C654" t="s">
         <v>170</v>
       </c>
+      <c r="D654" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H654">
         <v>0.61</v>
       </c>
@@ -18351,6 +20344,9 @@
       <c r="C655" t="s">
         <v>171</v>
       </c>
+      <c r="D655" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E655">
         <v>0.9320000000000001</v>
       </c>
@@ -18380,6 +20376,9 @@
       <c r="C656" t="s">
         <v>172</v>
       </c>
+      <c r="D656" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E656">
         <v>0.65</v>
       </c>
@@ -18409,6 +20408,9 @@
       <c r="C657" t="s">
         <v>173</v>
       </c>
+      <c r="D657" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I657">
         <v>0.865</v>
       </c>
@@ -18426,6 +20428,9 @@
       <c r="C658" t="s">
         <v>167</v>
       </c>
+      <c r="D658" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H658">
         <v>0.752</v>
       </c>
@@ -18440,6 +20445,9 @@
       <c r="C659" t="s">
         <v>169</v>
       </c>
+      <c r="D659" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H659">
         <v>0.552</v>
       </c>
@@ -18454,6 +20462,9 @@
       <c r="C660" t="s">
         <v>170</v>
       </c>
+      <c r="D660" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H660">
         <v>0.622</v>
       </c>
@@ -18468,6 +20479,9 @@
       <c r="C661" t="s">
         <v>171</v>
       </c>
+      <c r="D661" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H661">
         <v>0.642</v>
       </c>
@@ -18482,6 +20496,9 @@
       <c r="C662" t="s">
         <v>172</v>
       </c>
+      <c r="D662" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H662">
         <v>0.9389999999999999</v>
       </c>
@@ -18496,6 +20513,9 @@
       <c r="C663" t="s">
         <v>167</v>
       </c>
+      <c r="D663" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H663">
         <v>0.6879999999999999</v>
       </c>
@@ -18510,6 +20530,9 @@
       <c r="C664" t="s">
         <v>169</v>
       </c>
+      <c r="D664" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H664">
         <v>0.5679999999999999</v>
       </c>
@@ -18524,6 +20547,9 @@
       <c r="C665" t="s">
         <v>170</v>
       </c>
+      <c r="D665" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H665">
         <v>0.621</v>
       </c>
@@ -18538,6 +20564,9 @@
       <c r="C666" t="s">
         <v>171</v>
       </c>
+      <c r="D666" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H666">
         <v>0.878</v>
       </c>
@@ -18552,6 +20581,9 @@
       <c r="C667" t="s">
         <v>172</v>
       </c>
+      <c r="D667" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H667">
         <v>0.586</v>
       </c>
@@ -18566,6 +20598,9 @@
       <c r="C668" t="s">
         <v>167</v>
       </c>
+      <c r="D668" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H668">
         <v>1</v>
       </c>
@@ -18613,6 +20648,9 @@
       <c r="C669" t="s">
         <v>168</v>
       </c>
+      <c r="D669" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J669">
         <v>0.6919999999999999</v>
       </c>
@@ -18651,6 +20689,9 @@
       <c r="C670" t="s">
         <v>169</v>
       </c>
+      <c r="D670" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P670">
         <v>0.5629999999999999</v>
       </c>
@@ -18674,6 +20715,9 @@
       <c r="C671" t="s">
         <v>170</v>
       </c>
+      <c r="D671" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J671">
         <v>0.5679999999999999</v>
       </c>
@@ -18715,6 +20759,9 @@
       <c r="C672" t="s">
         <v>171</v>
       </c>
+      <c r="D672" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H672">
         <v>0.742</v>
       </c>
@@ -18762,6 +20809,9 @@
       <c r="C673" t="s">
         <v>172</v>
       </c>
+      <c r="D673" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H673">
         <v>0.823</v>
       </c>
@@ -18809,6 +20859,9 @@
       <c r="C674" t="s">
         <v>173</v>
       </c>
+      <c r="D674" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I674">
         <v>0.673</v>
       </c>
@@ -18844,6 +20897,9 @@
       <c r="C675" t="s">
         <v>167</v>
       </c>
+      <c r="D675" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H675">
         <v>0.784</v>
       </c>
@@ -18879,6 +20935,9 @@
       <c r="C676" t="s">
         <v>168</v>
       </c>
+      <c r="D676" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J676">
         <v>0.595</v>
       </c>
@@ -18905,6 +20964,9 @@
       <c r="C677" t="s">
         <v>170</v>
       </c>
+      <c r="D677" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J677">
         <v>0.616</v>
       </c>
@@ -18934,6 +20996,9 @@
       <c r="C678" t="s">
         <v>171</v>
       </c>
+      <c r="D678" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H678">
         <v>0.916</v>
       </c>
@@ -18969,6 +21034,9 @@
       <c r="C679" t="s">
         <v>172</v>
       </c>
+      <c r="D679" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H679">
         <v>0.671</v>
       </c>
@@ -19004,6 +21072,9 @@
       <c r="C680" t="s">
         <v>173</v>
       </c>
+      <c r="D680" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I680">
         <v>0.831</v>
       </c>
@@ -19021,6 +21092,9 @@
       <c r="C681" t="s">
         <v>167</v>
       </c>
+      <c r="D681" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H681">
         <v>1</v>
       </c>
@@ -19071,6 +21145,9 @@
       <c r="C682" t="s">
         <v>168</v>
       </c>
+      <c r="D682" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J682">
         <v>0.926</v>
       </c>
@@ -19115,6 +21192,9 @@
       <c r="C683" t="s">
         <v>169</v>
       </c>
+      <c r="D683" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P683">
         <v>0.474</v>
       </c>
@@ -19138,6 +21218,9 @@
       <c r="C684" t="s">
         <v>170</v>
       </c>
+      <c r="D684" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J684">
         <v>0.5</v>
       </c>
@@ -19182,6 +21265,9 @@
       <c r="C685" t="s">
         <v>171</v>
       </c>
+      <c r="D685" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H685">
         <v>0.741</v>
       </c>
@@ -19232,6 +21318,9 @@
       <c r="C686" t="s">
         <v>172</v>
       </c>
+      <c r="D686" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H686">
         <v>0.823</v>
       </c>
@@ -19282,6 +21371,9 @@
       <c r="C687" t="s">
         <v>173</v>
       </c>
+      <c r="D687" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I687">
         <v>0.622</v>
       </c>
@@ -19317,6 +21409,9 @@
       <c r="C688" t="s">
         <v>167</v>
       </c>
+      <c r="D688" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H688">
         <v>0.714</v>
       </c>
@@ -19334,6 +21429,9 @@
       <c r="C689" t="s">
         <v>169</v>
       </c>
+      <c r="D689" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H689">
         <v>0.593</v>
       </c>
@@ -19348,6 +21446,9 @@
       <c r="C690" t="s">
         <v>170</v>
       </c>
+      <c r="D690" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H690">
         <v>0.538</v>
       </c>
@@ -19362,6 +21463,9 @@
       <c r="C691" t="s">
         <v>171</v>
       </c>
+      <c r="D691" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H691">
         <v>0.923</v>
       </c>
@@ -19379,6 +21483,9 @@
       <c r="C692" t="s">
         <v>172</v>
       </c>
+      <c r="D692" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H692">
         <v>0.639</v>
       </c>
@@ -19396,6 +21503,9 @@
       <c r="C693" t="s">
         <v>173</v>
       </c>
+      <c r="D693" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I693">
         <v>0.667</v>
       </c>
@@ -19410,6 +21520,9 @@
       <c r="C694" t="s">
         <v>167</v>
       </c>
+      <c r="D694" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H694">
         <v>0.867</v>
       </c>
@@ -19436,6 +21549,9 @@
       <c r="C695" t="s">
         <v>168</v>
       </c>
+      <c r="D695" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J695">
         <v>0.604</v>
       </c>
@@ -19456,6 +21572,9 @@
       <c r="C696" t="s">
         <v>170</v>
       </c>
+      <c r="D696" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H696">
         <v>0.57</v>
       </c>
@@ -19479,6 +21598,9 @@
       <c r="C697" t="s">
         <v>171</v>
       </c>
+      <c r="D697" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H697">
         <v>0.698</v>
       </c>
@@ -19505,6 +21627,9 @@
       <c r="C698" t="s">
         <v>172</v>
       </c>
+      <c r="D698" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H698">
         <v>0.9350000000000001</v>
       </c>
@@ -19531,6 +21656,9 @@
       <c r="C699" t="s">
         <v>173</v>
       </c>
+      <c r="D699" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I699">
         <v>0.75</v>
       </c>
@@ -19548,6 +21676,9 @@
       <c r="C700" t="s">
         <v>167</v>
       </c>
+      <c r="D700" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="R700">
         <v>0.852</v>
       </c>
@@ -19568,6 +21699,9 @@
       <c r="C701" t="s">
         <v>168</v>
       </c>
+      <c r="D701" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="R701">
         <v>0.767</v>
       </c>
@@ -19588,6 +21722,9 @@
       <c r="C702" t="s">
         <v>169</v>
       </c>
+      <c r="D702" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="R702">
         <v>0.44</v>
       </c>
@@ -19605,6 +21742,9 @@
       <c r="C703" t="s">
         <v>170</v>
       </c>
+      <c r="D703" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="R703">
         <v>0.504</v>
       </c>
@@ -19625,6 +21765,9 @@
       <c r="C704" t="s">
         <v>171</v>
       </c>
+      <c r="D704" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="R704">
         <v>0.79</v>
       </c>
@@ -19645,6 +21788,9 @@
       <c r="C705" t="s">
         <v>172</v>
       </c>
+      <c r="D705" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="R705">
         <v>0.971</v>
       </c>
@@ -19665,6 +21811,9 @@
       <c r="C706" t="s">
         <v>173</v>
       </c>
+      <c r="D706" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="R706">
         <v>0.777</v>
       </c>
@@ -19685,6 +21834,9 @@
       <c r="C707" t="s">
         <v>167</v>
       </c>
+      <c r="D707" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H707">
         <v>0.79</v>
       </c>
@@ -19720,6 +21872,9 @@
       <c r="C708" t="s">
         <v>168</v>
       </c>
+      <c r="D708" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J708">
         <v>0.9</v>
       </c>
@@ -19749,6 +21904,9 @@
       <c r="C709" t="s">
         <v>170</v>
       </c>
+      <c r="D709" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J709">
         <v>0.599</v>
       </c>
@@ -19778,6 +21936,9 @@
       <c r="C710" t="s">
         <v>171</v>
       </c>
+      <c r="D710" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H710">
         <v>0.924</v>
       </c>
@@ -19813,6 +21974,9 @@
       <c r="C711" t="s">
         <v>172</v>
       </c>
+      <c r="D711" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H711">
         <v>0.672</v>
       </c>
@@ -19848,6 +22012,9 @@
       <c r="C712" t="s">
         <v>173</v>
       </c>
+      <c r="D712" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I712">
         <v>0.768</v>
       </c>
@@ -19865,6 +22032,9 @@
       <c r="C713" t="s">
         <v>167</v>
       </c>
+      <c r="D713" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O713">
         <v>0.849</v>
       </c>
@@ -19894,6 +22064,9 @@
       <c r="C714" t="s">
         <v>168</v>
       </c>
+      <c r="D714" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P714">
         <v>0.8100000000000001</v>
       </c>
@@ -19920,6 +22093,9 @@
       <c r="C715" t="s">
         <v>169</v>
       </c>
+      <c r="D715" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P715">
         <v>0.5659999999999999</v>
       </c>
@@ -19943,6 +22119,9 @@
       <c r="C716" t="s">
         <v>170</v>
       </c>
+      <c r="D716" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O716">
         <v>0.366</v>
       </c>
@@ -19972,6 +22151,9 @@
       <c r="C717" t="s">
         <v>171</v>
       </c>
+      <c r="D717" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O717">
         <v>0.985</v>
       </c>
@@ -20001,6 +22183,9 @@
       <c r="C718" t="s">
         <v>172</v>
       </c>
+      <c r="D718" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O718">
         <v>0.844</v>
       </c>
@@ -20030,6 +22215,9 @@
       <c r="C719" t="s">
         <v>173</v>
       </c>
+      <c r="D719" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O719">
         <v>0.5610000000000001</v>
       </c>
@@ -20059,6 +22247,9 @@
       <c r="C720" t="s">
         <v>167</v>
       </c>
+      <c r="D720" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H720">
         <v>0.958</v>
       </c>
@@ -20073,6 +22264,9 @@
       <c r="C721" t="s">
         <v>169</v>
       </c>
+      <c r="D721" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H721">
         <v>0.533</v>
       </c>
@@ -20087,6 +22281,9 @@
       <c r="C722" t="s">
         <v>170</v>
       </c>
+      <c r="D722" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H722">
         <v>0.594</v>
       </c>
@@ -20101,6 +22298,9 @@
       <c r="C723" t="s">
         <v>171</v>
       </c>
+      <c r="D723" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H723">
         <v>0.715</v>
       </c>
@@ -20115,6 +22315,9 @@
       <c r="C724" t="s">
         <v>172</v>
       </c>
+      <c r="D724" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H724">
         <v>0.737</v>
       </c>
@@ -20129,6 +22332,9 @@
       <c r="C725" t="s">
         <v>167</v>
       </c>
+      <c r="D725" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H725">
         <v>0.794</v>
       </c>
@@ -20164,6 +22370,9 @@
       <c r="C726" t="s">
         <v>168</v>
       </c>
+      <c r="D726" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J726">
         <v>0.593</v>
       </c>
@@ -20193,6 +22402,9 @@
       <c r="C727" t="s">
         <v>169</v>
       </c>
+      <c r="D727" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H727">
         <v>0.674</v>
       </c>
@@ -20207,6 +22419,9 @@
       <c r="C728" t="s">
         <v>170</v>
       </c>
+      <c r="D728" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H728">
         <v>0.639</v>
       </c>
@@ -20239,6 +22454,9 @@
       <c r="C729" t="s">
         <v>171</v>
       </c>
+      <c r="D729" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H729">
         <v>0.641</v>
       </c>
@@ -20274,6 +22492,9 @@
       <c r="C730" t="s">
         <v>172</v>
       </c>
+      <c r="D730" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H730">
         <v>0.9330000000000001</v>
       </c>
@@ -20309,6 +22530,9 @@
       <c r="C731" t="s">
         <v>173</v>
       </c>
+      <c r="D731" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I731">
         <v>0.782</v>
       </c>
@@ -20326,6 +22550,9 @@
       <c r="C732" t="s">
         <v>167</v>
       </c>
+      <c r="D732" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H732">
         <v>0.767</v>
       </c>
@@ -20340,6 +22567,9 @@
       <c r="C733" t="s">
         <v>171</v>
       </c>
+      <c r="D733" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H733">
         <v>0.902</v>
       </c>
@@ -20354,6 +22584,9 @@
       <c r="C734" t="s">
         <v>172</v>
       </c>
+      <c r="D734" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H734">
         <v>0.678</v>
       </c>
@@ -20368,6 +22601,9 @@
       <c r="C735" t="s">
         <v>167</v>
       </c>
+      <c r="D735" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O735">
         <v>0.828</v>
       </c>
@@ -20397,6 +22633,9 @@
       <c r="C736" t="s">
         <v>168</v>
       </c>
+      <c r="D736" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P736">
         <v>0.722</v>
       </c>
@@ -20423,6 +22662,9 @@
       <c r="C737" t="s">
         <v>169</v>
       </c>
+      <c r="D737" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P737">
         <v>0.491</v>
       </c>
@@ -20446,6 +22688,9 @@
       <c r="C738" t="s">
         <v>170</v>
       </c>
+      <c r="D738" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O738">
         <v>0.444</v>
       </c>
@@ -20475,6 +22720,9 @@
       <c r="C739" t="s">
         <v>171</v>
       </c>
+      <c r="D739" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O739">
         <v>0.844</v>
       </c>
@@ -20504,6 +22752,9 @@
       <c r="C740" t="s">
         <v>172</v>
       </c>
+      <c r="D740" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O740">
         <v>0.987</v>
       </c>
@@ -20533,6 +22784,9 @@
       <c r="C741" t="s">
         <v>173</v>
       </c>
+      <c r="D741" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O741">
         <v>0.712</v>
       </c>
@@ -20562,6 +22816,9 @@
       <c r="C742" t="s">
         <v>167</v>
       </c>
+      <c r="D742" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E742">
         <v>0.804</v>
       </c>
@@ -20591,6 +22848,9 @@
       <c r="C743" t="s">
         <v>169</v>
       </c>
+      <c r="D743" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H743">
         <v>0.5570000000000001</v>
       </c>
@@ -20605,6 +22865,9 @@
       <c r="C744" t="s">
         <v>170</v>
       </c>
+      <c r="D744" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H744">
         <v>0.643</v>
       </c>
@@ -20619,6 +22882,9 @@
       <c r="C745" t="s">
         <v>171</v>
       </c>
+      <c r="D745" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E745">
         <v>0.648</v>
       </c>
@@ -20648,6 +22914,9 @@
       <c r="C746" t="s">
         <v>172</v>
       </c>
+      <c r="D746" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E746">
         <v>0.981</v>
       </c>
@@ -20677,6 +22946,9 @@
       <c r="C747" t="s">
         <v>173</v>
       </c>
+      <c r="D747" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I747">
         <v>0.8159999999999999</v>
       </c>
@@ -20694,6 +22966,9 @@
       <c r="C748" t="s">
         <v>167</v>
       </c>
+      <c r="D748" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H748">
         <v>0.699</v>
       </c>
@@ -20708,6 +22983,9 @@
       <c r="C749" t="s">
         <v>169</v>
       </c>
+      <c r="D749" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H749">
         <v>0.581</v>
       </c>
@@ -20722,6 +23000,9 @@
       <c r="C750" t="s">
         <v>171</v>
       </c>
+      <c r="D750" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H750">
         <v>0.9350000000000001</v>
       </c>
@@ -20736,6 +23017,9 @@
       <c r="C751" t="s">
         <v>172</v>
       </c>
+      <c r="D751" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H751">
         <v>0.594</v>
       </c>
@@ -20750,6 +23034,9 @@
       <c r="C752" t="s">
         <v>167</v>
       </c>
+      <c r="D752" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J752">
         <v>0.739</v>
       </c>
@@ -20794,6 +23081,9 @@
       <c r="C753" t="s">
         <v>168</v>
       </c>
+      <c r="D753" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J753">
         <v>0.514</v>
       </c>
@@ -20838,6 +23128,9 @@
       <c r="C754" t="s">
         <v>169</v>
       </c>
+      <c r="D754" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P754">
         <v>0.5649999999999999</v>
       </c>
@@ -20861,6 +23154,9 @@
       <c r="C755" t="s">
         <v>170</v>
       </c>
+      <c r="D755" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J755">
         <v>0.492</v>
       </c>
@@ -20905,6 +23201,9 @@
       <c r="C756" t="s">
         <v>171</v>
       </c>
+      <c r="D756" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J756">
         <v>0.966</v>
       </c>
@@ -20949,6 +23248,9 @@
       <c r="C757" t="s">
         <v>172</v>
       </c>
+      <c r="D757" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J757">
         <v>0.706</v>
       </c>
@@ -20993,6 +23295,9 @@
       <c r="C758" t="s">
         <v>173</v>
       </c>
+      <c r="D758" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O758">
         <v>0.594</v>
       </c>
@@ -21022,6 +23327,9 @@
       <c r="C759" t="s">
         <v>167</v>
       </c>
+      <c r="D759" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O759">
         <v>0.594</v>
       </c>
@@ -21051,6 +23359,9 @@
       <c r="C760" t="s">
         <v>168</v>
       </c>
+      <c r="D760" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P760">
         <v>0.596</v>
       </c>
@@ -21077,6 +23388,9 @@
       <c r="C761" t="s">
         <v>169</v>
       </c>
+      <c r="D761" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P761">
         <v>0.473</v>
       </c>
@@ -21100,6 +23414,9 @@
       <c r="C762" t="s">
         <v>170</v>
       </c>
+      <c r="D762" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O762">
         <v>0.59</v>
       </c>
@@ -21129,6 +23446,9 @@
       <c r="C763" t="s">
         <v>171</v>
       </c>
+      <c r="D763" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O763">
         <v>0.555</v>
       </c>
@@ -21158,6 +23478,9 @@
       <c r="C764" t="s">
         <v>172</v>
       </c>
+      <c r="D764" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O764">
         <v>0.719</v>
       </c>
@@ -21187,6 +23510,9 @@
       <c r="C765" t="s">
         <v>173</v>
       </c>
+      <c r="D765" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O765">
         <v>1</v>
       </c>
@@ -21216,6 +23542,9 @@
       <c r="C766" t="s">
         <v>167</v>
       </c>
+      <c r="D766" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H766">
         <v>0.6889999999999999</v>
       </c>
@@ -21266,6 +23595,9 @@
       <c r="C767" t="s">
         <v>168</v>
       </c>
+      <c r="D767" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J767">
         <v>0.6909999999999999</v>
       </c>
@@ -21310,6 +23642,9 @@
       <c r="C768" t="s">
         <v>169</v>
       </c>
+      <c r="D768" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P768">
         <v>0.5610000000000001</v>
       </c>
@@ -21333,6 +23668,9 @@
       <c r="C769" t="s">
         <v>170</v>
       </c>
+      <c r="D769" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J769">
         <v>0.5639999999999999</v>
       </c>
@@ -21377,6 +23715,9 @@
       <c r="C770" t="s">
         <v>171</v>
       </c>
+      <c r="D770" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H770">
         <v>0.832</v>
       </c>
@@ -21427,6 +23768,9 @@
       <c r="C771" t="s">
         <v>172</v>
       </c>
+      <c r="D771" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H771">
         <v>0.663</v>
       </c>
@@ -21477,6 +23821,9 @@
       <c r="C772" t="s">
         <v>173</v>
       </c>
+      <c r="D772" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I772">
         <v>0.652</v>
       </c>
@@ -21512,6 +23859,9 @@
       <c r="C773" t="s">
         <v>167</v>
       </c>
+      <c r="D773" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H773">
         <v>0.962</v>
       </c>
@@ -21526,6 +23876,9 @@
       <c r="C774" t="s">
         <v>169</v>
       </c>
+      <c r="D774" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H774">
         <v>0.468</v>
       </c>
@@ -21540,6 +23893,9 @@
       <c r="C775" t="s">
         <v>170</v>
       </c>
+      <c r="D775" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H775">
         <v>0.626</v>
       </c>
@@ -21554,6 +23910,9 @@
       <c r="C776" t="s">
         <v>171</v>
       </c>
+      <c r="D776" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H776">
         <v>0.652</v>
       </c>
@@ -21568,6 +23927,9 @@
       <c r="C777" t="s">
         <v>172</v>
       </c>
+      <c r="D777" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H777">
         <v>0.726</v>
       </c>
@@ -21582,6 +23944,9 @@
       <c r="C778" t="s">
         <v>167</v>
       </c>
+      <c r="D778" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O778">
         <v>0.8090000000000001</v>
       </c>
@@ -21611,6 +23976,9 @@
       <c r="C779" t="s">
         <v>168</v>
       </c>
+      <c r="D779" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P779">
         <v>0.6830000000000001</v>
       </c>
@@ -21637,6 +24005,9 @@
       <c r="C780" t="s">
         <v>169</v>
       </c>
+      <c r="D780" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P780">
         <v>0.504</v>
       </c>
@@ -21660,6 +24031,9 @@
       <c r="C781" t="s">
         <v>170</v>
       </c>
+      <c r="D781" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O781">
         <v>0.465</v>
       </c>
@@ -21689,6 +24063,9 @@
       <c r="C782" t="s">
         <v>171</v>
       </c>
+      <c r="D782" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O782">
         <v>0.8080000000000001</v>
       </c>
@@ -21718,6 +24095,9 @@
       <c r="C783" t="s">
         <v>172</v>
       </c>
+      <c r="D783" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O783">
         <v>0.971</v>
       </c>
@@ -21747,6 +24127,9 @@
       <c r="C784" t="s">
         <v>173</v>
       </c>
+      <c r="D784" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O784">
         <v>0.727</v>
       </c>
@@ -21776,6 +24159,9 @@
       <c r="C785" t="s">
         <v>167</v>
       </c>
+      <c r="D785" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H785">
         <v>0.867</v>
       </c>
@@ -21793,6 +24179,9 @@
       <c r="C786" t="s">
         <v>171</v>
       </c>
+      <c r="D786" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H786">
         <v>0.6899999999999999</v>
       </c>
@@ -21810,6 +24199,9 @@
       <c r="C787" t="s">
         <v>172</v>
       </c>
+      <c r="D787" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H787">
         <v>0.9379999999999999</v>
       </c>
@@ -21827,6 +24219,9 @@
       <c r="C788" t="s">
         <v>173</v>
       </c>
+      <c r="D788" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I788">
         <v>1</v>
       </c>
@@ -21841,6 +24236,9 @@
       <c r="C789" t="s">
         <v>167</v>
       </c>
+      <c r="D789" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J789">
         <v>0.441</v>
       </c>
@@ -21885,6 +24283,9 @@
       <c r="C790" t="s">
         <v>168</v>
       </c>
+      <c r="D790" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="K790">
         <v>0.697</v>
       </c>
@@ -21923,6 +24324,9 @@
       <c r="C791" t="s">
         <v>169</v>
       </c>
+      <c r="D791" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P791">
         <v>0.5590000000000001</v>
       </c>
@@ -21946,6 +24350,9 @@
       <c r="C792" t="s">
         <v>170</v>
       </c>
+      <c r="D792" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J792">
         <v>0.672</v>
       </c>
@@ -21990,6 +24397,9 @@
       <c r="C793" t="s">
         <v>171</v>
       </c>
+      <c r="D793" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J793">
         <v>0.994</v>
       </c>
@@ -22034,6 +24444,9 @@
       <c r="C794" t="s">
         <v>172</v>
       </c>
+      <c r="D794" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J794">
         <v>0.391</v>
       </c>
@@ -22078,6 +24491,9 @@
       <c r="C795" t="s">
         <v>173</v>
       </c>
+      <c r="D795" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O795">
         <v>0.5</v>
       </c>
@@ -22107,6 +24523,9 @@
       <c r="C796" t="s">
         <v>167</v>
       </c>
+      <c r="D796" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H796">
         <v>0.736</v>
       </c>
@@ -22121,6 +24540,9 @@
       <c r="C797" t="s">
         <v>169</v>
       </c>
+      <c r="D797" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H797">
         <v>0.497</v>
       </c>
@@ -22135,6 +24557,9 @@
       <c r="C798" t="s">
         <v>170</v>
       </c>
+      <c r="D798" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H798">
         <v>0.649</v>
       </c>
@@ -22149,6 +24574,9 @@
       <c r="C799" t="s">
         <v>171</v>
       </c>
+      <c r="D799" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H799">
         <v>0.636</v>
       </c>
@@ -22163,6 +24591,9 @@
       <c r="C800" t="s">
         <v>172</v>
       </c>
+      <c r="D800" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H800">
         <v>0.929</v>
       </c>
@@ -22177,6 +24608,9 @@
       <c r="C801" t="s">
         <v>167</v>
       </c>
+      <c r="D801" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H801">
         <v>0.8110000000000001</v>
       </c>
@@ -22227,6 +24661,9 @@
       <c r="C802" t="s">
         <v>168</v>
       </c>
+      <c r="D802" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J802">
         <v>0.642</v>
       </c>
@@ -22271,6 +24708,9 @@
       <c r="C803" t="s">
         <v>169</v>
       </c>
+      <c r="D803" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P803">
         <v>0.504</v>
       </c>
@@ -22294,6 +24734,9 @@
       <c r="C804" t="s">
         <v>170</v>
       </c>
+      <c r="D804" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J804">
         <v>0.521</v>
       </c>
@@ -22338,6 +24781,9 @@
       <c r="C805" t="s">
         <v>171</v>
       </c>
+      <c r="D805" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H805">
         <v>0.642</v>
       </c>
@@ -22388,6 +24834,9 @@
       <c r="C806" t="s">
         <v>172</v>
       </c>
+      <c r="D806" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H806">
         <v>0.891</v>
       </c>
@@ -22438,6 +24887,9 @@
       <c r="C807" t="s">
         <v>173</v>
       </c>
+      <c r="D807" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I807">
         <v>0.8090000000000001</v>
       </c>
@@ -22473,6 +24925,9 @@
       <c r="C808" t="s">
         <v>167</v>
       </c>
+      <c r="D808" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="O808">
         <v>0.828</v>
       </c>
@@ -22496,6 +24951,9 @@
       <c r="C809" t="s">
         <v>168</v>
       </c>
+      <c r="D809" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="P809">
         <v>0.679</v>
       </c>
@@ -22516,6 +24974,9 @@
       <c r="C810" t="s">
         <v>169</v>
       </c>
+      <c r="D810" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P810">
         <v>0.513</v>
       </c>
@@ -22536,6 +24997,9 @@
       <c r="C811" t="s">
         <v>170</v>
       </c>
+      <c r="D811" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="O811">
         <v>0.429</v>
       </c>
@@ -22559,6 +25023,9 @@
       <c r="C812" t="s">
         <v>171</v>
       </c>
+      <c r="D812" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="O812">
         <v>0.837</v>
       </c>
@@ -22582,6 +25049,9 @@
       <c r="C813" t="s">
         <v>172</v>
       </c>
+      <c r="D813" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="O813">
         <v>0.981</v>
       </c>
@@ -22605,6 +25075,9 @@
       <c r="C814" t="s">
         <v>173</v>
       </c>
+      <c r="D814" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O814">
         <v>0.699</v>
       </c>
@@ -22628,6 +25101,9 @@
       <c r="C815" t="s">
         <v>167</v>
       </c>
+      <c r="D815" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="G815">
         <v>0.985</v>
       </c>
@@ -22651,6 +25127,9 @@
       <c r="C816" t="s">
         <v>169</v>
       </c>
+      <c r="D816" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H816">
         <v>0.553</v>
       </c>
@@ -22665,6 +25144,9 @@
       <c r="C817" t="s">
         <v>170</v>
       </c>
+      <c r="D817" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H817">
         <v>0.603</v>
       </c>
@@ -22679,6 +25161,9 @@
       <c r="C818" t="s">
         <v>171</v>
       </c>
+      <c r="D818" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="G818">
         <v>0.8179999999999999</v>
       </c>
@@ -22702,6 +25187,9 @@
       <c r="C819" t="s">
         <v>172</v>
       </c>
+      <c r="D819" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="G819">
         <v>0.787</v>
       </c>
@@ -22725,6 +25213,9 @@
       <c r="C820" t="s">
         <v>173</v>
       </c>
+      <c r="D820" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I820">
         <v>0.509</v>
       </c>
@@ -22742,6 +25233,9 @@
       <c r="C821" t="s">
         <v>167</v>
       </c>
+      <c r="D821" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J821">
         <v>0.784</v>
       </c>
@@ -22780,6 +25274,9 @@
       <c r="C822" t="s">
         <v>168</v>
       </c>
+      <c r="D822" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J822">
         <v>0.667</v>
       </c>
@@ -22818,6 +25315,9 @@
       <c r="C823" t="s">
         <v>169</v>
       </c>
+      <c r="D823" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P823">
         <v>0.519</v>
       </c>
@@ -22838,6 +25338,9 @@
       <c r="C824" t="s">
         <v>170</v>
       </c>
+      <c r="D824" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J824">
         <v>0.495</v>
       </c>
@@ -22876,6 +25379,9 @@
       <c r="C825" t="s">
         <v>171</v>
       </c>
+      <c r="D825" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J825">
         <v>0.6899999999999999</v>
       </c>
@@ -22914,6 +25420,9 @@
       <c r="C826" t="s">
         <v>172</v>
       </c>
+      <c r="D826" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J826">
         <v>0.982</v>
       </c>
@@ -22952,6 +25461,9 @@
       <c r="C827" t="s">
         <v>173</v>
       </c>
+      <c r="D827" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="J827">
         <v>0.773</v>
       </c>
@@ -22978,6 +25490,9 @@
       <c r="C828" t="s">
         <v>167</v>
       </c>
+      <c r="D828" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="H828">
         <v>0.483</v>
       </c>
@@ -22992,6 +25507,9 @@
       <c r="C829" t="s">
         <v>169</v>
       </c>
+      <c r="D829" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H829">
         <v>0.869</v>
       </c>
@@ -23006,6 +25524,9 @@
       <c r="C830" t="s">
         <v>170</v>
       </c>
+      <c r="D830" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H830">
         <v>0.735</v>
       </c>
@@ -23020,6 +25541,9 @@
       <c r="C831" t="s">
         <v>171</v>
       </c>
+      <c r="D831" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="H831">
         <v>0.581</v>
       </c>
@@ -23034,6 +25558,9 @@
       <c r="C832" t="s">
         <v>172</v>
       </c>
+      <c r="D832" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="H832">
         <v>0.435</v>
       </c>
@@ -23048,6 +25575,9 @@
       <c r="C833" t="s">
         <v>167</v>
       </c>
+      <c r="D833" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E833">
         <v>0.755</v>
       </c>
@@ -23092,6 +25622,9 @@
       <c r="C834" t="s">
         <v>168</v>
       </c>
+      <c r="D834" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J834">
         <v>0.625</v>
       </c>
@@ -23121,6 +25654,9 @@
       <c r="C835" t="s">
         <v>169</v>
       </c>
+      <c r="D835" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H835">
         <v>0.468</v>
       </c>
@@ -23135,6 +25671,9 @@
       <c r="C836" t="s">
         <v>170</v>
       </c>
+      <c r="D836" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H836">
         <v>0.628</v>
       </c>
@@ -23167,6 +25706,9 @@
       <c r="C837" t="s">
         <v>171</v>
       </c>
+      <c r="D837" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E837">
         <v>0.482</v>
       </c>
@@ -23211,6 +25753,9 @@
       <c r="C838" t="s">
         <v>172</v>
       </c>
+      <c r="D838" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E838">
         <v>0.977</v>
       </c>
@@ -23255,6 +25800,9 @@
       <c r="C839" t="s">
         <v>173</v>
       </c>
+      <c r="D839" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I839">
         <v>0.783</v>
       </c>
@@ -23272,6 +25820,9 @@
       <c r="C840" t="s">
         <v>167</v>
       </c>
+      <c r="D840" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="K840">
         <v>0.791</v>
       </c>
@@ -23298,6 +25849,9 @@
       <c r="C841" t="s">
         <v>168</v>
       </c>
+      <c r="D841" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="K841">
         <v>0.612</v>
       </c>
@@ -23324,6 +25878,9 @@
       <c r="C842" t="s">
         <v>170</v>
       </c>
+      <c r="D842" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="K842">
         <v>0.609</v>
       </c>
@@ -23350,6 +25907,9 @@
       <c r="C843" t="s">
         <v>171</v>
       </c>
+      <c r="D843" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="K843">
         <v>0.969</v>
       </c>
@@ -23376,6 +25936,9 @@
       <c r="C844" t="s">
         <v>172</v>
       </c>
+      <c r="D844" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="K844">
         <v>0.704</v>
       </c>
@@ -23402,6 +25965,9 @@
       <c r="C845" t="s">
         <v>167</v>
       </c>
+      <c r="D845" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J845">
         <v>0.473</v>
       </c>
@@ -23434,6 +26000,9 @@
       <c r="C846" t="s">
         <v>168</v>
       </c>
+      <c r="D846" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J846">
         <v>0.582</v>
       </c>
@@ -23463,6 +26032,9 @@
       <c r="C847" t="s">
         <v>169</v>
       </c>
+      <c r="D847" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P847">
         <v>0.732</v>
       </c>
@@ -23486,6 +26058,9 @@
       <c r="C848" t="s">
         <v>170</v>
       </c>
+      <c r="D848" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J848">
         <v>0.8110000000000001</v>
       </c>
@@ -23518,6 +26093,9 @@
       <c r="C849" t="s">
         <v>171</v>
       </c>
+      <c r="D849" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J849">
         <v>0.491</v>
       </c>
@@ -23550,6 +26128,9 @@
       <c r="C850" t="s">
         <v>172</v>
       </c>
+      <c r="D850" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J850">
         <v>0.439</v>
       </c>
@@ -23582,6 +26163,9 @@
       <c r="C851" t="s">
         <v>173</v>
       </c>
+      <c r="D851" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O851">
         <v>0.582</v>
       </c>
@@ -23611,6 +26195,9 @@
       <c r="C852" t="s">
         <v>167</v>
       </c>
+      <c r="D852" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="E852">
         <v>0.713</v>
       </c>
@@ -23640,6 +26227,9 @@
       <c r="C853" t="s">
         <v>169</v>
       </c>
+      <c r="D853" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H853">
         <v>0.638</v>
       </c>
@@ -23654,6 +26244,9 @@
       <c r="C854" t="s">
         <v>170</v>
       </c>
+      <c r="D854" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="H854">
         <v>0.594</v>
       </c>
@@ -23668,6 +26261,9 @@
       <c r="C855" t="s">
         <v>171</v>
       </c>
+      <c r="D855" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="E855">
         <v>0.955</v>
       </c>
@@ -23697,6 +26293,9 @@
       <c r="C856" t="s">
         <v>172</v>
       </c>
+      <c r="D856" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="E856">
         <v>0.572</v>
       </c>
@@ -23726,6 +26325,9 @@
       <c r="C857" t="s">
         <v>173</v>
       </c>
+      <c r="D857" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="I857">
         <v>0.805</v>
       </c>
@@ -23743,6 +26345,9 @@
       <c r="C858" t="s">
         <v>167</v>
       </c>
+      <c r="D858" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J858">
         <v>0.646</v>
       </c>
@@ -23787,6 +26392,9 @@
       <c r="C859" t="s">
         <v>168</v>
       </c>
+      <c r="D859" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J859">
         <v>0.653</v>
       </c>
@@ -23831,6 +26439,9 @@
       <c r="C860" t="s">
         <v>169</v>
       </c>
+      <c r="D860" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P860">
         <v>0.62</v>
       </c>
@@ -23854,6 +26465,9 @@
       <c r="C861" t="s">
         <v>170</v>
       </c>
+      <c r="D861" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J861">
         <v>0.593</v>
       </c>
@@ -23898,6 +26512,9 @@
       <c r="C862" t="s">
         <v>171</v>
       </c>
+      <c r="D862" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J862">
         <v>0.971</v>
       </c>
@@ -23942,6 +26559,9 @@
       <c r="C863" t="s">
         <v>172</v>
       </c>
+      <c r="D863" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J863">
         <v>0.669</v>
       </c>
@@ -23986,6 +26606,9 @@
       <c r="C864" t="s">
         <v>173</v>
       </c>
+      <c r="D864" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="O864">
         <v>0.586</v>
       </c>
@@ -24015,6 +26638,9 @@
       <c r="C865" t="s">
         <v>167</v>
       </c>
+      <c r="D865" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="J865">
         <v>0.652</v>
       </c>
@@ -24044,6 +26670,9 @@
       <c r="C866" t="s">
         <v>168</v>
       </c>
+      <c r="D866" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="J866">
         <v>0.65</v>
       </c>
@@ -24073,6 +26702,9 @@
       <c r="C867" t="s">
         <v>170</v>
       </c>
+      <c r="D867" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="J867">
         <v>0.582</v>
       </c>
@@ -24102,6 +26734,9 @@
       <c r="C868" t="s">
         <v>171</v>
       </c>
+      <c r="D868" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="J868">
         <v>0.972</v>
       </c>
@@ -24131,6 +26766,9 @@
       <c r="C869" t="s">
         <v>172</v>
       </c>
+      <c r="D869" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="J869">
         <v>0.674</v>
       </c>
@@ -24151,6 +26789,876 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
+    <hyperlink ref="D171" r:id="rId170"/>
+    <hyperlink ref="D172" r:id="rId171"/>
+    <hyperlink ref="D173" r:id="rId172"/>
+    <hyperlink ref="D174" r:id="rId173"/>
+    <hyperlink ref="D175" r:id="rId174"/>
+    <hyperlink ref="D176" r:id="rId175"/>
+    <hyperlink ref="D177" r:id="rId176"/>
+    <hyperlink ref="D178" r:id="rId177"/>
+    <hyperlink ref="D179" r:id="rId178"/>
+    <hyperlink ref="D180" r:id="rId179"/>
+    <hyperlink ref="D181" r:id="rId180"/>
+    <hyperlink ref="D182" r:id="rId181"/>
+    <hyperlink ref="D183" r:id="rId182"/>
+    <hyperlink ref="D184" r:id="rId183"/>
+    <hyperlink ref="D185" r:id="rId184"/>
+    <hyperlink ref="D186" r:id="rId185"/>
+    <hyperlink ref="D187" r:id="rId186"/>
+    <hyperlink ref="D188" r:id="rId187"/>
+    <hyperlink ref="D189" r:id="rId188"/>
+    <hyperlink ref="D190" r:id="rId189"/>
+    <hyperlink ref="D191" r:id="rId190"/>
+    <hyperlink ref="D192" r:id="rId191"/>
+    <hyperlink ref="D193" r:id="rId192"/>
+    <hyperlink ref="D194" r:id="rId193"/>
+    <hyperlink ref="D195" r:id="rId194"/>
+    <hyperlink ref="D196" r:id="rId195"/>
+    <hyperlink ref="D197" r:id="rId196"/>
+    <hyperlink ref="D198" r:id="rId197"/>
+    <hyperlink ref="D199" r:id="rId198"/>
+    <hyperlink ref="D200" r:id="rId199"/>
+    <hyperlink ref="D201" r:id="rId200"/>
+    <hyperlink ref="D202" r:id="rId201"/>
+    <hyperlink ref="D203" r:id="rId202"/>
+    <hyperlink ref="D204" r:id="rId203"/>
+    <hyperlink ref="D205" r:id="rId204"/>
+    <hyperlink ref="D206" r:id="rId205"/>
+    <hyperlink ref="D207" r:id="rId206"/>
+    <hyperlink ref="D208" r:id="rId207"/>
+    <hyperlink ref="D209" r:id="rId208"/>
+    <hyperlink ref="D210" r:id="rId209"/>
+    <hyperlink ref="D211" r:id="rId210"/>
+    <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
+    <hyperlink ref="D214" r:id="rId213"/>
+    <hyperlink ref="D215" r:id="rId214"/>
+    <hyperlink ref="D216" r:id="rId215"/>
+    <hyperlink ref="D217" r:id="rId216"/>
+    <hyperlink ref="D218" r:id="rId217"/>
+    <hyperlink ref="D219" r:id="rId218"/>
+    <hyperlink ref="D220" r:id="rId219"/>
+    <hyperlink ref="D221" r:id="rId220"/>
+    <hyperlink ref="D222" r:id="rId221"/>
+    <hyperlink ref="D223" r:id="rId222"/>
+    <hyperlink ref="D224" r:id="rId223"/>
+    <hyperlink ref="D225" r:id="rId224"/>
+    <hyperlink ref="D226" r:id="rId225"/>
+    <hyperlink ref="D227" r:id="rId226"/>
+    <hyperlink ref="D228" r:id="rId227"/>
+    <hyperlink ref="D229" r:id="rId228"/>
+    <hyperlink ref="D230" r:id="rId229"/>
+    <hyperlink ref="D231" r:id="rId230"/>
+    <hyperlink ref="D232" r:id="rId231"/>
+    <hyperlink ref="D233" r:id="rId232"/>
+    <hyperlink ref="D234" r:id="rId233"/>
+    <hyperlink ref="D235" r:id="rId234"/>
+    <hyperlink ref="D236" r:id="rId235"/>
+    <hyperlink ref="D237" r:id="rId236"/>
+    <hyperlink ref="D238" r:id="rId237"/>
+    <hyperlink ref="D239" r:id="rId238"/>
+    <hyperlink ref="D240" r:id="rId239"/>
+    <hyperlink ref="D241" r:id="rId240"/>
+    <hyperlink ref="D242" r:id="rId241"/>
+    <hyperlink ref="D243" r:id="rId242"/>
+    <hyperlink ref="D244" r:id="rId243"/>
+    <hyperlink ref="D245" r:id="rId244"/>
+    <hyperlink ref="D246" r:id="rId245"/>
+    <hyperlink ref="D247" r:id="rId246"/>
+    <hyperlink ref="D248" r:id="rId247"/>
+    <hyperlink ref="D249" r:id="rId248"/>
+    <hyperlink ref="D250" r:id="rId249"/>
+    <hyperlink ref="D251" r:id="rId250"/>
+    <hyperlink ref="D252" r:id="rId251"/>
+    <hyperlink ref="D253" r:id="rId252"/>
+    <hyperlink ref="D254" r:id="rId253"/>
+    <hyperlink ref="D255" r:id="rId254"/>
+    <hyperlink ref="D256" r:id="rId255"/>
+    <hyperlink ref="D257" r:id="rId256"/>
+    <hyperlink ref="D258" r:id="rId257"/>
+    <hyperlink ref="D259" r:id="rId258"/>
+    <hyperlink ref="D260" r:id="rId259"/>
+    <hyperlink ref="D261" r:id="rId260"/>
+    <hyperlink ref="D262" r:id="rId261"/>
+    <hyperlink ref="D263" r:id="rId262"/>
+    <hyperlink ref="D264" r:id="rId263"/>
+    <hyperlink ref="D265" r:id="rId264"/>
+    <hyperlink ref="D266" r:id="rId265"/>
+    <hyperlink ref="D267" r:id="rId266"/>
+    <hyperlink ref="D268" r:id="rId267"/>
+    <hyperlink ref="D269" r:id="rId268"/>
+    <hyperlink ref="D270" r:id="rId269"/>
+    <hyperlink ref="D271" r:id="rId270"/>
+    <hyperlink ref="D272" r:id="rId271"/>
+    <hyperlink ref="D273" r:id="rId272"/>
+    <hyperlink ref="D274" r:id="rId273"/>
+    <hyperlink ref="D275" r:id="rId274"/>
+    <hyperlink ref="D276" r:id="rId275"/>
+    <hyperlink ref="D277" r:id="rId276"/>
+    <hyperlink ref="D278" r:id="rId277"/>
+    <hyperlink ref="D279" r:id="rId278"/>
+    <hyperlink ref="D280" r:id="rId279"/>
+    <hyperlink ref="D281" r:id="rId280"/>
+    <hyperlink ref="D282" r:id="rId281"/>
+    <hyperlink ref="D283" r:id="rId282"/>
+    <hyperlink ref="D284" r:id="rId283"/>
+    <hyperlink ref="D285" r:id="rId284"/>
+    <hyperlink ref="D286" r:id="rId285"/>
+    <hyperlink ref="D287" r:id="rId286"/>
+    <hyperlink ref="D288" r:id="rId287"/>
+    <hyperlink ref="D289" r:id="rId288"/>
+    <hyperlink ref="D290" r:id="rId289"/>
+    <hyperlink ref="D291" r:id="rId290"/>
+    <hyperlink ref="D292" r:id="rId291"/>
+    <hyperlink ref="D293" r:id="rId292"/>
+    <hyperlink ref="D294" r:id="rId293"/>
+    <hyperlink ref="D295" r:id="rId294"/>
+    <hyperlink ref="D296" r:id="rId295"/>
+    <hyperlink ref="D297" r:id="rId296"/>
+    <hyperlink ref="D298" r:id="rId297"/>
+    <hyperlink ref="D299" r:id="rId298"/>
+    <hyperlink ref="D300" r:id="rId299"/>
+    <hyperlink ref="D301" r:id="rId300"/>
+    <hyperlink ref="D302" r:id="rId301"/>
+    <hyperlink ref="D303" r:id="rId302"/>
+    <hyperlink ref="D304" r:id="rId303"/>
+    <hyperlink ref="D305" r:id="rId304"/>
+    <hyperlink ref="D306" r:id="rId305"/>
+    <hyperlink ref="D307" r:id="rId306"/>
+    <hyperlink ref="D308" r:id="rId307"/>
+    <hyperlink ref="D309" r:id="rId308"/>
+    <hyperlink ref="D310" r:id="rId309"/>
+    <hyperlink ref="D311" r:id="rId310"/>
+    <hyperlink ref="D312" r:id="rId311"/>
+    <hyperlink ref="D313" r:id="rId312"/>
+    <hyperlink ref="D314" r:id="rId313"/>
+    <hyperlink ref="D315" r:id="rId314"/>
+    <hyperlink ref="D316" r:id="rId315"/>
+    <hyperlink ref="D317" r:id="rId316"/>
+    <hyperlink ref="D318" r:id="rId317"/>
+    <hyperlink ref="D319" r:id="rId318"/>
+    <hyperlink ref="D320" r:id="rId319"/>
+    <hyperlink ref="D321" r:id="rId320"/>
+    <hyperlink ref="D322" r:id="rId321"/>
+    <hyperlink ref="D323" r:id="rId322"/>
+    <hyperlink ref="D324" r:id="rId323"/>
+    <hyperlink ref="D325" r:id="rId324"/>
+    <hyperlink ref="D326" r:id="rId325"/>
+    <hyperlink ref="D327" r:id="rId326"/>
+    <hyperlink ref="D328" r:id="rId327"/>
+    <hyperlink ref="D329" r:id="rId328"/>
+    <hyperlink ref="D330" r:id="rId329"/>
+    <hyperlink ref="D331" r:id="rId330"/>
+    <hyperlink ref="D332" r:id="rId331"/>
+    <hyperlink ref="D333" r:id="rId332"/>
+    <hyperlink ref="D334" r:id="rId333"/>
+    <hyperlink ref="D335" r:id="rId334"/>
+    <hyperlink ref="D336" r:id="rId335"/>
+    <hyperlink ref="D337" r:id="rId336"/>
+    <hyperlink ref="D338" r:id="rId337"/>
+    <hyperlink ref="D339" r:id="rId338"/>
+    <hyperlink ref="D340" r:id="rId339"/>
+    <hyperlink ref="D341" r:id="rId340"/>
+    <hyperlink ref="D342" r:id="rId341"/>
+    <hyperlink ref="D343" r:id="rId342"/>
+    <hyperlink ref="D344" r:id="rId343"/>
+    <hyperlink ref="D345" r:id="rId344"/>
+    <hyperlink ref="D346" r:id="rId345"/>
+    <hyperlink ref="D347" r:id="rId346"/>
+    <hyperlink ref="D348" r:id="rId347"/>
+    <hyperlink ref="D349" r:id="rId348"/>
+    <hyperlink ref="D350" r:id="rId349"/>
+    <hyperlink ref="D351" r:id="rId350"/>
+    <hyperlink ref="D352" r:id="rId351"/>
+    <hyperlink ref="D353" r:id="rId352"/>
+    <hyperlink ref="D354" r:id="rId353"/>
+    <hyperlink ref="D355" r:id="rId354"/>
+    <hyperlink ref="D356" r:id="rId355"/>
+    <hyperlink ref="D357" r:id="rId356"/>
+    <hyperlink ref="D358" r:id="rId357"/>
+    <hyperlink ref="D359" r:id="rId358"/>
+    <hyperlink ref="D360" r:id="rId359"/>
+    <hyperlink ref="D361" r:id="rId360"/>
+    <hyperlink ref="D362" r:id="rId361"/>
+    <hyperlink ref="D363" r:id="rId362"/>
+    <hyperlink ref="D364" r:id="rId363"/>
+    <hyperlink ref="D365" r:id="rId364"/>
+    <hyperlink ref="D366" r:id="rId365"/>
+    <hyperlink ref="D367" r:id="rId366"/>
+    <hyperlink ref="D368" r:id="rId367"/>
+    <hyperlink ref="D369" r:id="rId368"/>
+    <hyperlink ref="D370" r:id="rId369"/>
+    <hyperlink ref="D371" r:id="rId370"/>
+    <hyperlink ref="D372" r:id="rId371"/>
+    <hyperlink ref="D373" r:id="rId372"/>
+    <hyperlink ref="D374" r:id="rId373"/>
+    <hyperlink ref="D375" r:id="rId374"/>
+    <hyperlink ref="D376" r:id="rId375"/>
+    <hyperlink ref="D377" r:id="rId376"/>
+    <hyperlink ref="D378" r:id="rId377"/>
+    <hyperlink ref="D379" r:id="rId378"/>
+    <hyperlink ref="D380" r:id="rId379"/>
+    <hyperlink ref="D381" r:id="rId380"/>
+    <hyperlink ref="D382" r:id="rId381"/>
+    <hyperlink ref="D383" r:id="rId382"/>
+    <hyperlink ref="D384" r:id="rId383"/>
+    <hyperlink ref="D385" r:id="rId384"/>
+    <hyperlink ref="D386" r:id="rId385"/>
+    <hyperlink ref="D387" r:id="rId386"/>
+    <hyperlink ref="D388" r:id="rId387"/>
+    <hyperlink ref="D389" r:id="rId388"/>
+    <hyperlink ref="D390" r:id="rId389"/>
+    <hyperlink ref="D391" r:id="rId390"/>
+    <hyperlink ref="D392" r:id="rId391"/>
+    <hyperlink ref="D393" r:id="rId392"/>
+    <hyperlink ref="D394" r:id="rId393"/>
+    <hyperlink ref="D395" r:id="rId394"/>
+    <hyperlink ref="D396" r:id="rId395"/>
+    <hyperlink ref="D397" r:id="rId396"/>
+    <hyperlink ref="D398" r:id="rId397"/>
+    <hyperlink ref="D399" r:id="rId398"/>
+    <hyperlink ref="D400" r:id="rId399"/>
+    <hyperlink ref="D401" r:id="rId400"/>
+    <hyperlink ref="D402" r:id="rId401"/>
+    <hyperlink ref="D403" r:id="rId402"/>
+    <hyperlink ref="D404" r:id="rId403"/>
+    <hyperlink ref="D405" r:id="rId404"/>
+    <hyperlink ref="D406" r:id="rId405"/>
+    <hyperlink ref="D407" r:id="rId406"/>
+    <hyperlink ref="D408" r:id="rId407"/>
+    <hyperlink ref="D409" r:id="rId408"/>
+    <hyperlink ref="D410" r:id="rId409"/>
+    <hyperlink ref="D411" r:id="rId410"/>
+    <hyperlink ref="D412" r:id="rId411"/>
+    <hyperlink ref="D413" r:id="rId412"/>
+    <hyperlink ref="D414" r:id="rId413"/>
+    <hyperlink ref="D415" r:id="rId414"/>
+    <hyperlink ref="D416" r:id="rId415"/>
+    <hyperlink ref="D417" r:id="rId416"/>
+    <hyperlink ref="D418" r:id="rId417"/>
+    <hyperlink ref="D419" r:id="rId418"/>
+    <hyperlink ref="D420" r:id="rId419"/>
+    <hyperlink ref="D421" r:id="rId420"/>
+    <hyperlink ref="D422" r:id="rId421"/>
+    <hyperlink ref="D423" r:id="rId422"/>
+    <hyperlink ref="D424" r:id="rId423"/>
+    <hyperlink ref="D425" r:id="rId424"/>
+    <hyperlink ref="D426" r:id="rId425"/>
+    <hyperlink ref="D427" r:id="rId426"/>
+    <hyperlink ref="D428" r:id="rId427"/>
+    <hyperlink ref="D429" r:id="rId428"/>
+    <hyperlink ref="D430" r:id="rId429"/>
+    <hyperlink ref="D431" r:id="rId430"/>
+    <hyperlink ref="D432" r:id="rId431"/>
+    <hyperlink ref="D433" r:id="rId432"/>
+    <hyperlink ref="D434" r:id="rId433"/>
+    <hyperlink ref="D435" r:id="rId434"/>
+    <hyperlink ref="D436" r:id="rId435"/>
+    <hyperlink ref="D437" r:id="rId436"/>
+    <hyperlink ref="D438" r:id="rId437"/>
+    <hyperlink ref="D439" r:id="rId438"/>
+    <hyperlink ref="D440" r:id="rId439"/>
+    <hyperlink ref="D441" r:id="rId440"/>
+    <hyperlink ref="D442" r:id="rId441"/>
+    <hyperlink ref="D443" r:id="rId442"/>
+    <hyperlink ref="D444" r:id="rId443"/>
+    <hyperlink ref="D445" r:id="rId444"/>
+    <hyperlink ref="D446" r:id="rId445"/>
+    <hyperlink ref="D447" r:id="rId446"/>
+    <hyperlink ref="D448" r:id="rId447"/>
+    <hyperlink ref="D449" r:id="rId448"/>
+    <hyperlink ref="D450" r:id="rId449"/>
+    <hyperlink ref="D451" r:id="rId450"/>
+    <hyperlink ref="D452" r:id="rId451"/>
+    <hyperlink ref="D453" r:id="rId452"/>
+    <hyperlink ref="D454" r:id="rId453"/>
+    <hyperlink ref="D455" r:id="rId454"/>
+    <hyperlink ref="D456" r:id="rId455"/>
+    <hyperlink ref="D457" r:id="rId456"/>
+    <hyperlink ref="D458" r:id="rId457"/>
+    <hyperlink ref="D459" r:id="rId458"/>
+    <hyperlink ref="D460" r:id="rId459"/>
+    <hyperlink ref="D461" r:id="rId460"/>
+    <hyperlink ref="D462" r:id="rId461"/>
+    <hyperlink ref="D463" r:id="rId462"/>
+    <hyperlink ref="D464" r:id="rId463"/>
+    <hyperlink ref="D465" r:id="rId464"/>
+    <hyperlink ref="D466" r:id="rId465"/>
+    <hyperlink ref="D467" r:id="rId466"/>
+    <hyperlink ref="D468" r:id="rId467"/>
+    <hyperlink ref="D469" r:id="rId468"/>
+    <hyperlink ref="D470" r:id="rId469"/>
+    <hyperlink ref="D471" r:id="rId470"/>
+    <hyperlink ref="D472" r:id="rId471"/>
+    <hyperlink ref="D473" r:id="rId472"/>
+    <hyperlink ref="D474" r:id="rId473"/>
+    <hyperlink ref="D475" r:id="rId474"/>
+    <hyperlink ref="D476" r:id="rId475"/>
+    <hyperlink ref="D477" r:id="rId476"/>
+    <hyperlink ref="D478" r:id="rId477"/>
+    <hyperlink ref="D479" r:id="rId478"/>
+    <hyperlink ref="D480" r:id="rId479"/>
+    <hyperlink ref="D481" r:id="rId480"/>
+    <hyperlink ref="D482" r:id="rId481"/>
+    <hyperlink ref="D483" r:id="rId482"/>
+    <hyperlink ref="D484" r:id="rId483"/>
+    <hyperlink ref="D485" r:id="rId484"/>
+    <hyperlink ref="D486" r:id="rId485"/>
+    <hyperlink ref="D487" r:id="rId486"/>
+    <hyperlink ref="D488" r:id="rId487"/>
+    <hyperlink ref="D489" r:id="rId488"/>
+    <hyperlink ref="D490" r:id="rId489"/>
+    <hyperlink ref="D491" r:id="rId490"/>
+    <hyperlink ref="D492" r:id="rId491"/>
+    <hyperlink ref="D493" r:id="rId492"/>
+    <hyperlink ref="D494" r:id="rId493"/>
+    <hyperlink ref="D495" r:id="rId494"/>
+    <hyperlink ref="D496" r:id="rId495"/>
+    <hyperlink ref="D497" r:id="rId496"/>
+    <hyperlink ref="D498" r:id="rId497"/>
+    <hyperlink ref="D499" r:id="rId498"/>
+    <hyperlink ref="D500" r:id="rId499"/>
+    <hyperlink ref="D501" r:id="rId500"/>
+    <hyperlink ref="D502" r:id="rId501"/>
+    <hyperlink ref="D503" r:id="rId502"/>
+    <hyperlink ref="D504" r:id="rId503"/>
+    <hyperlink ref="D505" r:id="rId504"/>
+    <hyperlink ref="D506" r:id="rId505"/>
+    <hyperlink ref="D507" r:id="rId506"/>
+    <hyperlink ref="D508" r:id="rId507"/>
+    <hyperlink ref="D509" r:id="rId508"/>
+    <hyperlink ref="D510" r:id="rId509"/>
+    <hyperlink ref="D511" r:id="rId510"/>
+    <hyperlink ref="D512" r:id="rId511"/>
+    <hyperlink ref="D513" r:id="rId512"/>
+    <hyperlink ref="D514" r:id="rId513"/>
+    <hyperlink ref="D515" r:id="rId514"/>
+    <hyperlink ref="D516" r:id="rId515"/>
+    <hyperlink ref="D517" r:id="rId516"/>
+    <hyperlink ref="D518" r:id="rId517"/>
+    <hyperlink ref="D519" r:id="rId518"/>
+    <hyperlink ref="D520" r:id="rId519"/>
+    <hyperlink ref="D521" r:id="rId520"/>
+    <hyperlink ref="D522" r:id="rId521"/>
+    <hyperlink ref="D523" r:id="rId522"/>
+    <hyperlink ref="D524" r:id="rId523"/>
+    <hyperlink ref="D525" r:id="rId524"/>
+    <hyperlink ref="D526" r:id="rId525"/>
+    <hyperlink ref="D527" r:id="rId526"/>
+    <hyperlink ref="D528" r:id="rId527"/>
+    <hyperlink ref="D529" r:id="rId528"/>
+    <hyperlink ref="D530" r:id="rId529"/>
+    <hyperlink ref="D531" r:id="rId530"/>
+    <hyperlink ref="D532" r:id="rId531"/>
+    <hyperlink ref="D533" r:id="rId532"/>
+    <hyperlink ref="D534" r:id="rId533"/>
+    <hyperlink ref="D535" r:id="rId534"/>
+    <hyperlink ref="D536" r:id="rId535"/>
+    <hyperlink ref="D537" r:id="rId536"/>
+    <hyperlink ref="D538" r:id="rId537"/>
+    <hyperlink ref="D539" r:id="rId538"/>
+    <hyperlink ref="D540" r:id="rId539"/>
+    <hyperlink ref="D541" r:id="rId540"/>
+    <hyperlink ref="D542" r:id="rId541"/>
+    <hyperlink ref="D543" r:id="rId542"/>
+    <hyperlink ref="D544" r:id="rId543"/>
+    <hyperlink ref="D545" r:id="rId544"/>
+    <hyperlink ref="D546" r:id="rId545"/>
+    <hyperlink ref="D547" r:id="rId546"/>
+    <hyperlink ref="D548" r:id="rId547"/>
+    <hyperlink ref="D549" r:id="rId548"/>
+    <hyperlink ref="D550" r:id="rId549"/>
+    <hyperlink ref="D551" r:id="rId550"/>
+    <hyperlink ref="D552" r:id="rId551"/>
+    <hyperlink ref="D553" r:id="rId552"/>
+    <hyperlink ref="D554" r:id="rId553"/>
+    <hyperlink ref="D555" r:id="rId554"/>
+    <hyperlink ref="D556" r:id="rId555"/>
+    <hyperlink ref="D557" r:id="rId556"/>
+    <hyperlink ref="D558" r:id="rId557"/>
+    <hyperlink ref="D559" r:id="rId558"/>
+    <hyperlink ref="D560" r:id="rId559"/>
+    <hyperlink ref="D561" r:id="rId560"/>
+    <hyperlink ref="D562" r:id="rId561"/>
+    <hyperlink ref="D563" r:id="rId562"/>
+    <hyperlink ref="D564" r:id="rId563"/>
+    <hyperlink ref="D565" r:id="rId564"/>
+    <hyperlink ref="D566" r:id="rId565"/>
+    <hyperlink ref="D567" r:id="rId566"/>
+    <hyperlink ref="D568" r:id="rId567"/>
+    <hyperlink ref="D569" r:id="rId568"/>
+    <hyperlink ref="D570" r:id="rId569"/>
+    <hyperlink ref="D571" r:id="rId570"/>
+    <hyperlink ref="D572" r:id="rId571"/>
+    <hyperlink ref="D573" r:id="rId572"/>
+    <hyperlink ref="D574" r:id="rId573"/>
+    <hyperlink ref="D575" r:id="rId574"/>
+    <hyperlink ref="D576" r:id="rId575"/>
+    <hyperlink ref="D577" r:id="rId576"/>
+    <hyperlink ref="D578" r:id="rId577"/>
+    <hyperlink ref="D579" r:id="rId578"/>
+    <hyperlink ref="D580" r:id="rId579"/>
+    <hyperlink ref="D581" r:id="rId580"/>
+    <hyperlink ref="D582" r:id="rId581"/>
+    <hyperlink ref="D583" r:id="rId582"/>
+    <hyperlink ref="D584" r:id="rId583"/>
+    <hyperlink ref="D585" r:id="rId584"/>
+    <hyperlink ref="D586" r:id="rId585"/>
+    <hyperlink ref="D587" r:id="rId586"/>
+    <hyperlink ref="D588" r:id="rId587"/>
+    <hyperlink ref="D589" r:id="rId588"/>
+    <hyperlink ref="D590" r:id="rId589"/>
+    <hyperlink ref="D591" r:id="rId590"/>
+    <hyperlink ref="D592" r:id="rId591"/>
+    <hyperlink ref="D593" r:id="rId592"/>
+    <hyperlink ref="D594" r:id="rId593"/>
+    <hyperlink ref="D595" r:id="rId594"/>
+    <hyperlink ref="D596" r:id="rId595"/>
+    <hyperlink ref="D597" r:id="rId596"/>
+    <hyperlink ref="D598" r:id="rId597"/>
+    <hyperlink ref="D599" r:id="rId598"/>
+    <hyperlink ref="D600" r:id="rId599"/>
+    <hyperlink ref="D601" r:id="rId600"/>
+    <hyperlink ref="D602" r:id="rId601"/>
+    <hyperlink ref="D603" r:id="rId602"/>
+    <hyperlink ref="D604" r:id="rId603"/>
+    <hyperlink ref="D605" r:id="rId604"/>
+    <hyperlink ref="D606" r:id="rId605"/>
+    <hyperlink ref="D607" r:id="rId606"/>
+    <hyperlink ref="D608" r:id="rId607"/>
+    <hyperlink ref="D609" r:id="rId608"/>
+    <hyperlink ref="D610" r:id="rId609"/>
+    <hyperlink ref="D611" r:id="rId610"/>
+    <hyperlink ref="D612" r:id="rId611"/>
+    <hyperlink ref="D613" r:id="rId612"/>
+    <hyperlink ref="D614" r:id="rId613"/>
+    <hyperlink ref="D615" r:id="rId614"/>
+    <hyperlink ref="D616" r:id="rId615"/>
+    <hyperlink ref="D617" r:id="rId616"/>
+    <hyperlink ref="D618" r:id="rId617"/>
+    <hyperlink ref="D619" r:id="rId618"/>
+    <hyperlink ref="D620" r:id="rId619"/>
+    <hyperlink ref="D621" r:id="rId620"/>
+    <hyperlink ref="D622" r:id="rId621"/>
+    <hyperlink ref="D623" r:id="rId622"/>
+    <hyperlink ref="D624" r:id="rId623"/>
+    <hyperlink ref="D625" r:id="rId624"/>
+    <hyperlink ref="D626" r:id="rId625"/>
+    <hyperlink ref="D627" r:id="rId626"/>
+    <hyperlink ref="D628" r:id="rId627"/>
+    <hyperlink ref="D629" r:id="rId628"/>
+    <hyperlink ref="D630" r:id="rId629"/>
+    <hyperlink ref="D631" r:id="rId630"/>
+    <hyperlink ref="D632" r:id="rId631"/>
+    <hyperlink ref="D633" r:id="rId632"/>
+    <hyperlink ref="D634" r:id="rId633"/>
+    <hyperlink ref="D635" r:id="rId634"/>
+    <hyperlink ref="D636" r:id="rId635"/>
+    <hyperlink ref="D637" r:id="rId636"/>
+    <hyperlink ref="D638" r:id="rId637"/>
+    <hyperlink ref="D639" r:id="rId638"/>
+    <hyperlink ref="D640" r:id="rId639"/>
+    <hyperlink ref="D641" r:id="rId640"/>
+    <hyperlink ref="D642" r:id="rId641"/>
+    <hyperlink ref="D643" r:id="rId642"/>
+    <hyperlink ref="D644" r:id="rId643"/>
+    <hyperlink ref="D645" r:id="rId644"/>
+    <hyperlink ref="D646" r:id="rId645"/>
+    <hyperlink ref="D647" r:id="rId646"/>
+    <hyperlink ref="D648" r:id="rId647"/>
+    <hyperlink ref="D649" r:id="rId648"/>
+    <hyperlink ref="D650" r:id="rId649"/>
+    <hyperlink ref="D651" r:id="rId650"/>
+    <hyperlink ref="D652" r:id="rId651"/>
+    <hyperlink ref="D653" r:id="rId652"/>
+    <hyperlink ref="D654" r:id="rId653"/>
+    <hyperlink ref="D655" r:id="rId654"/>
+    <hyperlink ref="D656" r:id="rId655"/>
+    <hyperlink ref="D657" r:id="rId656"/>
+    <hyperlink ref="D658" r:id="rId657"/>
+    <hyperlink ref="D659" r:id="rId658"/>
+    <hyperlink ref="D660" r:id="rId659"/>
+    <hyperlink ref="D661" r:id="rId660"/>
+    <hyperlink ref="D662" r:id="rId661"/>
+    <hyperlink ref="D663" r:id="rId662"/>
+    <hyperlink ref="D664" r:id="rId663"/>
+    <hyperlink ref="D665" r:id="rId664"/>
+    <hyperlink ref="D666" r:id="rId665"/>
+    <hyperlink ref="D667" r:id="rId666"/>
+    <hyperlink ref="D668" r:id="rId667"/>
+    <hyperlink ref="D669" r:id="rId668"/>
+    <hyperlink ref="D670" r:id="rId669"/>
+    <hyperlink ref="D671" r:id="rId670"/>
+    <hyperlink ref="D672" r:id="rId671"/>
+    <hyperlink ref="D673" r:id="rId672"/>
+    <hyperlink ref="D674" r:id="rId673"/>
+    <hyperlink ref="D675" r:id="rId674"/>
+    <hyperlink ref="D676" r:id="rId675"/>
+    <hyperlink ref="D677" r:id="rId676"/>
+    <hyperlink ref="D678" r:id="rId677"/>
+    <hyperlink ref="D679" r:id="rId678"/>
+    <hyperlink ref="D680" r:id="rId679"/>
+    <hyperlink ref="D681" r:id="rId680"/>
+    <hyperlink ref="D682" r:id="rId681"/>
+    <hyperlink ref="D683" r:id="rId682"/>
+    <hyperlink ref="D684" r:id="rId683"/>
+    <hyperlink ref="D685" r:id="rId684"/>
+    <hyperlink ref="D686" r:id="rId685"/>
+    <hyperlink ref="D687" r:id="rId686"/>
+    <hyperlink ref="D688" r:id="rId687"/>
+    <hyperlink ref="D689" r:id="rId688"/>
+    <hyperlink ref="D690" r:id="rId689"/>
+    <hyperlink ref="D691" r:id="rId690"/>
+    <hyperlink ref="D692" r:id="rId691"/>
+    <hyperlink ref="D693" r:id="rId692"/>
+    <hyperlink ref="D694" r:id="rId693"/>
+    <hyperlink ref="D695" r:id="rId694"/>
+    <hyperlink ref="D696" r:id="rId695"/>
+    <hyperlink ref="D697" r:id="rId696"/>
+    <hyperlink ref="D698" r:id="rId697"/>
+    <hyperlink ref="D699" r:id="rId698"/>
+    <hyperlink ref="D700" r:id="rId699"/>
+    <hyperlink ref="D701" r:id="rId700"/>
+    <hyperlink ref="D702" r:id="rId701"/>
+    <hyperlink ref="D703" r:id="rId702"/>
+    <hyperlink ref="D704" r:id="rId703"/>
+    <hyperlink ref="D705" r:id="rId704"/>
+    <hyperlink ref="D706" r:id="rId705"/>
+    <hyperlink ref="D707" r:id="rId706"/>
+    <hyperlink ref="D708" r:id="rId707"/>
+    <hyperlink ref="D709" r:id="rId708"/>
+    <hyperlink ref="D710" r:id="rId709"/>
+    <hyperlink ref="D711" r:id="rId710"/>
+    <hyperlink ref="D712" r:id="rId711"/>
+    <hyperlink ref="D713" r:id="rId712"/>
+    <hyperlink ref="D714" r:id="rId713"/>
+    <hyperlink ref="D715" r:id="rId714"/>
+    <hyperlink ref="D716" r:id="rId715"/>
+    <hyperlink ref="D717" r:id="rId716"/>
+    <hyperlink ref="D718" r:id="rId717"/>
+    <hyperlink ref="D719" r:id="rId718"/>
+    <hyperlink ref="D720" r:id="rId719"/>
+    <hyperlink ref="D721" r:id="rId720"/>
+    <hyperlink ref="D722" r:id="rId721"/>
+    <hyperlink ref="D723" r:id="rId722"/>
+    <hyperlink ref="D724" r:id="rId723"/>
+    <hyperlink ref="D725" r:id="rId724"/>
+    <hyperlink ref="D726" r:id="rId725"/>
+    <hyperlink ref="D727" r:id="rId726"/>
+    <hyperlink ref="D728" r:id="rId727"/>
+    <hyperlink ref="D729" r:id="rId728"/>
+    <hyperlink ref="D730" r:id="rId729"/>
+    <hyperlink ref="D731" r:id="rId730"/>
+    <hyperlink ref="D732" r:id="rId731"/>
+    <hyperlink ref="D733" r:id="rId732"/>
+    <hyperlink ref="D734" r:id="rId733"/>
+    <hyperlink ref="D735" r:id="rId734"/>
+    <hyperlink ref="D736" r:id="rId735"/>
+    <hyperlink ref="D737" r:id="rId736"/>
+    <hyperlink ref="D738" r:id="rId737"/>
+    <hyperlink ref="D739" r:id="rId738"/>
+    <hyperlink ref="D740" r:id="rId739"/>
+    <hyperlink ref="D741" r:id="rId740"/>
+    <hyperlink ref="D742" r:id="rId741"/>
+    <hyperlink ref="D743" r:id="rId742"/>
+    <hyperlink ref="D744" r:id="rId743"/>
+    <hyperlink ref="D745" r:id="rId744"/>
+    <hyperlink ref="D746" r:id="rId745"/>
+    <hyperlink ref="D747" r:id="rId746"/>
+    <hyperlink ref="D748" r:id="rId747"/>
+    <hyperlink ref="D749" r:id="rId748"/>
+    <hyperlink ref="D750" r:id="rId749"/>
+    <hyperlink ref="D751" r:id="rId750"/>
+    <hyperlink ref="D752" r:id="rId751"/>
+    <hyperlink ref="D753" r:id="rId752"/>
+    <hyperlink ref="D754" r:id="rId753"/>
+    <hyperlink ref="D755" r:id="rId754"/>
+    <hyperlink ref="D756" r:id="rId755"/>
+    <hyperlink ref="D757" r:id="rId756"/>
+    <hyperlink ref="D758" r:id="rId757"/>
+    <hyperlink ref="D759" r:id="rId758"/>
+    <hyperlink ref="D760" r:id="rId759"/>
+    <hyperlink ref="D761" r:id="rId760"/>
+    <hyperlink ref="D762" r:id="rId761"/>
+    <hyperlink ref="D763" r:id="rId762"/>
+    <hyperlink ref="D764" r:id="rId763"/>
+    <hyperlink ref="D765" r:id="rId764"/>
+    <hyperlink ref="D766" r:id="rId765"/>
+    <hyperlink ref="D767" r:id="rId766"/>
+    <hyperlink ref="D768" r:id="rId767"/>
+    <hyperlink ref="D769" r:id="rId768"/>
+    <hyperlink ref="D770" r:id="rId769"/>
+    <hyperlink ref="D771" r:id="rId770"/>
+    <hyperlink ref="D772" r:id="rId771"/>
+    <hyperlink ref="D773" r:id="rId772"/>
+    <hyperlink ref="D774" r:id="rId773"/>
+    <hyperlink ref="D775" r:id="rId774"/>
+    <hyperlink ref="D776" r:id="rId775"/>
+    <hyperlink ref="D777" r:id="rId776"/>
+    <hyperlink ref="D778" r:id="rId777"/>
+    <hyperlink ref="D779" r:id="rId778"/>
+    <hyperlink ref="D780" r:id="rId779"/>
+    <hyperlink ref="D781" r:id="rId780"/>
+    <hyperlink ref="D782" r:id="rId781"/>
+    <hyperlink ref="D783" r:id="rId782"/>
+    <hyperlink ref="D784" r:id="rId783"/>
+    <hyperlink ref="D785" r:id="rId784"/>
+    <hyperlink ref="D786" r:id="rId785"/>
+    <hyperlink ref="D787" r:id="rId786"/>
+    <hyperlink ref="D788" r:id="rId787"/>
+    <hyperlink ref="D789" r:id="rId788"/>
+    <hyperlink ref="D790" r:id="rId789"/>
+    <hyperlink ref="D791" r:id="rId790"/>
+    <hyperlink ref="D792" r:id="rId791"/>
+    <hyperlink ref="D793" r:id="rId792"/>
+    <hyperlink ref="D794" r:id="rId793"/>
+    <hyperlink ref="D795" r:id="rId794"/>
+    <hyperlink ref="D796" r:id="rId795"/>
+    <hyperlink ref="D797" r:id="rId796"/>
+    <hyperlink ref="D798" r:id="rId797"/>
+    <hyperlink ref="D799" r:id="rId798"/>
+    <hyperlink ref="D800" r:id="rId799"/>
+    <hyperlink ref="D801" r:id="rId800"/>
+    <hyperlink ref="D802" r:id="rId801"/>
+    <hyperlink ref="D803" r:id="rId802"/>
+    <hyperlink ref="D804" r:id="rId803"/>
+    <hyperlink ref="D805" r:id="rId804"/>
+    <hyperlink ref="D806" r:id="rId805"/>
+    <hyperlink ref="D807" r:id="rId806"/>
+    <hyperlink ref="D808" r:id="rId807"/>
+    <hyperlink ref="D809" r:id="rId808"/>
+    <hyperlink ref="D810" r:id="rId809"/>
+    <hyperlink ref="D811" r:id="rId810"/>
+    <hyperlink ref="D812" r:id="rId811"/>
+    <hyperlink ref="D813" r:id="rId812"/>
+    <hyperlink ref="D814" r:id="rId813"/>
+    <hyperlink ref="D815" r:id="rId814"/>
+    <hyperlink ref="D816" r:id="rId815"/>
+    <hyperlink ref="D817" r:id="rId816"/>
+    <hyperlink ref="D818" r:id="rId817"/>
+    <hyperlink ref="D819" r:id="rId818"/>
+    <hyperlink ref="D820" r:id="rId819"/>
+    <hyperlink ref="D821" r:id="rId820"/>
+    <hyperlink ref="D822" r:id="rId821"/>
+    <hyperlink ref="D823" r:id="rId822"/>
+    <hyperlink ref="D824" r:id="rId823"/>
+    <hyperlink ref="D825" r:id="rId824"/>
+    <hyperlink ref="D826" r:id="rId825"/>
+    <hyperlink ref="D827" r:id="rId826"/>
+    <hyperlink ref="D828" r:id="rId827"/>
+    <hyperlink ref="D829" r:id="rId828"/>
+    <hyperlink ref="D830" r:id="rId829"/>
+    <hyperlink ref="D831" r:id="rId830"/>
+    <hyperlink ref="D832" r:id="rId831"/>
+    <hyperlink ref="D833" r:id="rId832"/>
+    <hyperlink ref="D834" r:id="rId833"/>
+    <hyperlink ref="D835" r:id="rId834"/>
+    <hyperlink ref="D836" r:id="rId835"/>
+    <hyperlink ref="D837" r:id="rId836"/>
+    <hyperlink ref="D838" r:id="rId837"/>
+    <hyperlink ref="D839" r:id="rId838"/>
+    <hyperlink ref="D840" r:id="rId839"/>
+    <hyperlink ref="D841" r:id="rId840"/>
+    <hyperlink ref="D842" r:id="rId841"/>
+    <hyperlink ref="D843" r:id="rId842"/>
+    <hyperlink ref="D844" r:id="rId843"/>
+    <hyperlink ref="D845" r:id="rId844"/>
+    <hyperlink ref="D846" r:id="rId845"/>
+    <hyperlink ref="D847" r:id="rId846"/>
+    <hyperlink ref="D848" r:id="rId847"/>
+    <hyperlink ref="D849" r:id="rId848"/>
+    <hyperlink ref="D850" r:id="rId849"/>
+    <hyperlink ref="D851" r:id="rId850"/>
+    <hyperlink ref="D852" r:id="rId851"/>
+    <hyperlink ref="D853" r:id="rId852"/>
+    <hyperlink ref="D854" r:id="rId853"/>
+    <hyperlink ref="D855" r:id="rId854"/>
+    <hyperlink ref="D856" r:id="rId855"/>
+    <hyperlink ref="D857" r:id="rId856"/>
+    <hyperlink ref="D858" r:id="rId857"/>
+    <hyperlink ref="D859" r:id="rId858"/>
+    <hyperlink ref="D860" r:id="rId859"/>
+    <hyperlink ref="D861" r:id="rId860"/>
+    <hyperlink ref="D862" r:id="rId861"/>
+    <hyperlink ref="D863" r:id="rId862"/>
+    <hyperlink ref="D864" r:id="rId863"/>
+    <hyperlink ref="D865" r:id="rId864"/>
+    <hyperlink ref="D866" r:id="rId865"/>
+    <hyperlink ref="D867" r:id="rId866"/>
+    <hyperlink ref="D868" r:id="rId867"/>
+    <hyperlink ref="D869" r:id="rId868"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ep/ep/export/flourish/Joint_name_group.xlsx
+++ b/ep/ep/export/flourish/Joint_name_group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="181">
   <si>
     <t>name1</t>
   </si>
@@ -523,7 +523,7 @@
     <t>ECR</t>
   </si>
   <si>
-    <t>EN</t>
+    <t>ENF</t>
   </si>
   <si>
     <t>EPP</t>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/ecr.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/enf.jpg</t>
   </si>
   <si>
     <t>https://szekelydata.csaladen.es/ep/ep/img/epp.jpg</t>
@@ -1099,6 +1102,9 @@
       <c r="C4" t="s">
         <v>169</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H4">
         <v>0.5580000000000001</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>170</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H5">
         <v>0.714</v>
@@ -1179,7 +1185,7 @@
         <v>171</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I6">
         <v>0.63</v>
@@ -1217,7 +1223,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H7">
         <v>0.601</v>
@@ -1267,7 +1273,7 @@
         <v>173</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H8">
         <v>0.763</v>
@@ -1337,7 +1343,7 @@
         <v>170</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J10">
         <v>0.971</v>
@@ -1354,7 +1360,7 @@
         <v>171</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J11">
         <v>0.947</v>
@@ -1371,7 +1377,7 @@
         <v>173</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J12">
         <v>0.769</v>
@@ -1457,6 +1463,9 @@
       <c r="C15" t="s">
         <v>169</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H15">
         <v>0.505</v>
       </c>
@@ -1472,7 +1481,7 @@
         <v>170</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H16">
         <v>0.635</v>
@@ -1510,7 +1519,7 @@
         <v>171</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I17">
         <v>0.806</v>
@@ -1530,7 +1539,7 @@
         <v>172</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H18">
         <v>0.644</v>
@@ -1565,7 +1574,7 @@
         <v>173</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H19">
         <v>0.9340000000000001</v>
@@ -1634,6 +1643,9 @@
       <c r="C21" t="s">
         <v>169</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H21">
         <v>0.618</v>
       </c>
@@ -1649,7 +1661,7 @@
         <v>170</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E22">
         <v>0.626</v>
@@ -1681,7 +1693,7 @@
         <v>171</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I23">
         <v>0.915</v>
@@ -1701,7 +1713,7 @@
         <v>172</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H24">
         <v>0.648</v>
@@ -1718,7 +1730,7 @@
         <v>173</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E25">
         <v>0.979</v>
@@ -1766,6 +1778,9 @@
       <c r="C27" t="s">
         <v>169</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H27">
         <v>0.57</v>
       </c>
@@ -1781,7 +1796,7 @@
         <v>170</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H28">
         <v>0.629</v>
@@ -1798,7 +1813,7 @@
         <v>172</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H29">
         <v>0.641</v>
@@ -1815,7 +1830,7 @@
         <v>173</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H30">
         <v>0.961</v>
@@ -1849,7 +1864,7 @@
         <v>170</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J32">
         <v>0.971</v>
@@ -1866,7 +1881,7 @@
         <v>171</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J33">
         <v>0.9370000000000001</v>
@@ -1883,7 +1898,7 @@
         <v>173</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J34">
         <v>0.717</v>
@@ -1916,6 +1931,9 @@
       <c r="C36" t="s">
         <v>169</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H36">
         <v>0.52</v>
       </c>
@@ -1931,7 +1949,7 @@
         <v>170</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H37">
         <v>0.764</v>
@@ -1948,7 +1966,7 @@
         <v>172</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H38">
         <v>0.619</v>
@@ -1965,7 +1983,7 @@
         <v>173</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H39">
         <v>0.63</v>
@@ -1999,7 +2017,7 @@
         <v>170</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J41">
         <v>0.82</v>
@@ -2016,7 +2034,7 @@
         <v>171</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J42">
         <v>0.946</v>
@@ -2033,7 +2051,7 @@
         <v>173</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J43">
         <v>0.973</v>
@@ -2110,6 +2128,9 @@
       <c r="C46" t="s">
         <v>169</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P46">
         <v>0.503</v>
       </c>
@@ -2134,7 +2155,7 @@
         <v>170</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O47">
         <v>0.882</v>
@@ -2166,7 +2187,7 @@
         <v>171</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O48">
         <v>0.738</v>
@@ -2198,7 +2219,7 @@
         <v>172</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O49">
         <v>0.412</v>
@@ -2230,7 +2251,7 @@
         <v>173</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O50">
         <v>0.979</v>
@@ -2322,6 +2343,9 @@
       <c r="C53" t="s">
         <v>169</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P53">
         <v>0.605</v>
       </c>
@@ -2346,7 +2370,7 @@
         <v>170</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O54">
         <v>0.984</v>
@@ -2378,7 +2402,7 @@
         <v>171</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O55">
         <v>0.582</v>
@@ -2410,7 +2434,7 @@
         <v>172</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O56">
         <v>0.366</v>
@@ -2442,7 +2466,7 @@
         <v>173</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O57">
         <v>0.853</v>
@@ -2534,6 +2558,9 @@
       <c r="C60" t="s">
         <v>169</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P60">
         <v>0.608</v>
       </c>
@@ -2558,7 +2585,7 @@
         <v>170</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O61">
         <v>0.991</v>
@@ -2590,7 +2617,7 @@
         <v>171</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O62">
         <v>0.573</v>
@@ -2622,7 +2649,7 @@
         <v>172</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O63">
         <v>0.37</v>
@@ -2654,7 +2681,7 @@
         <v>173</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O64">
         <v>0.853</v>
@@ -2794,6 +2821,9 @@
       <c r="C67" t="s">
         <v>169</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H67">
         <v>0.637</v>
       </c>
@@ -2821,7 +2851,7 @@
         <v>170</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E68">
         <v>0.97</v>
@@ -2883,7 +2913,7 @@
         <v>171</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I69">
         <v>0.913</v>
@@ -2921,7 +2951,7 @@
         <v>172</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H70">
         <v>0.582</v>
@@ -2971,7 +3001,7 @@
         <v>173</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E71">
         <v>0.62</v>
@@ -3058,6 +3088,9 @@
       <c r="C73" t="s">
         <v>169</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H73">
         <v>0.624</v>
       </c>
@@ -3073,7 +3106,7 @@
         <v>170</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G74">
         <v>0.991</v>
@@ -3099,7 +3132,7 @@
         <v>171</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I75">
         <v>0.885</v>
@@ -3119,7 +3152,7 @@
         <v>172</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H76">
         <v>0.597</v>
@@ -3136,7 +3169,7 @@
         <v>173</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G77">
         <v>0.751</v>
@@ -3178,6 +3211,9 @@
       <c r="C79" t="s">
         <v>169</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H79">
         <v>0.5590000000000001</v>
       </c>
@@ -3193,7 +3229,7 @@
         <v>170</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H80">
         <v>0.9409999999999999</v>
@@ -3210,7 +3246,7 @@
         <v>172</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H81">
         <v>0.59</v>
@@ -3227,7 +3263,7 @@
         <v>173</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H82">
         <v>0.641</v>
@@ -3304,6 +3340,9 @@
       <c r="C85" t="s">
         <v>169</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P85">
         <v>0.445</v>
       </c>
@@ -3328,7 +3367,7 @@
         <v>170</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O86">
         <v>0.5649999999999999</v>
@@ -3360,7 +3399,7 @@
         <v>171</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -3392,7 +3431,7 @@
         <v>172</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O88">
         <v>0.572</v>
@@ -3424,7 +3463,7 @@
         <v>173</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O89">
         <v>0.719</v>
@@ -3534,6 +3573,9 @@
       <c r="C92" t="s">
         <v>169</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H92">
         <v>0.628</v>
       </c>
@@ -3549,7 +3591,7 @@
         <v>170</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E93">
         <v>0.953</v>
@@ -3596,7 +3638,7 @@
         <v>171</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I94">
         <v>0.876</v>
@@ -3616,7 +3658,7 @@
         <v>172</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H95">
         <v>0.586</v>
@@ -3651,7 +3693,7 @@
         <v>173</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E96">
         <v>0.576</v>
@@ -3785,6 +3827,9 @@
       <c r="C99" t="s">
         <v>169</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P99">
         <v>0.707</v>
       </c>
@@ -3809,7 +3854,7 @@
         <v>170</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K100">
         <v>0.525</v>
@@ -3853,7 +3898,7 @@
         <v>171</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O101">
         <v>0.573</v>
@@ -3885,7 +3930,7 @@
         <v>172</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K102">
         <v>0.867</v>
@@ -3929,7 +3974,7 @@
         <v>173</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K103">
         <v>0.541</v>
@@ -4033,6 +4078,9 @@
       <c r="C106" t="s">
         <v>169</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P106">
         <v>0.512</v>
       </c>
@@ -4057,7 +4105,7 @@
         <v>170</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O107">
         <v>0.843</v>
@@ -4089,7 +4137,7 @@
         <v>171</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O108">
         <v>0.717</v>
@@ -4121,7 +4169,7 @@
         <v>172</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O109">
         <v>0.436</v>
@@ -4153,7 +4201,7 @@
         <v>173</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O110">
         <v>0.988</v>
@@ -4278,6 +4326,9 @@
       <c r="C113" t="s">
         <v>169</v>
       </c>
+      <c r="D113" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P113">
         <v>0.502</v>
       </c>
@@ -4302,7 +4353,7 @@
         <v>170</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J114">
         <v>0.73</v>
@@ -4349,7 +4400,7 @@
         <v>171</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O115">
         <v>0.704</v>
@@ -4381,7 +4432,7 @@
         <v>172</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J116">
         <v>0.678</v>
@@ -4428,7 +4479,7 @@
         <v>173</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J117">
         <v>0.6870000000000001</v>
@@ -4498,7 +4549,7 @@
         <v>170</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H119">
         <v>0.892</v>
@@ -4521,7 +4572,7 @@
         <v>171</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I120">
         <v>0.767</v>
@@ -4541,7 +4592,7 @@
         <v>173</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H121">
         <v>0.641</v>
@@ -4633,6 +4684,9 @@
       <c r="C124" t="s">
         <v>169</v>
       </c>
+      <c r="D124" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H124">
         <v>0.545</v>
       </c>
@@ -4648,7 +4702,7 @@
         <v>170</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H125">
         <v>0.604</v>
@@ -4686,7 +4740,7 @@
         <v>171</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I126">
         <v>0.73</v>
@@ -4709,7 +4763,7 @@
         <v>172</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H127">
         <v>0.657</v>
@@ -4744,7 +4798,7 @@
         <v>173</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H128">
         <v>0.9340000000000001</v>
@@ -4843,7 +4897,7 @@
         <v>170</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J131">
         <v>0.448</v>
@@ -4875,7 +4929,7 @@
         <v>172</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J132">
         <v>0.711</v>
@@ -4907,7 +4961,7 @@
         <v>173</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J133">
         <v>0.385</v>
@@ -4955,6 +5009,9 @@
       <c r="C135" t="s">
         <v>169</v>
       </c>
+      <c r="D135" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H135">
         <v>0.527</v>
       </c>
@@ -4970,7 +5027,7 @@
         <v>170</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H136">
         <v>0.616</v>
@@ -4987,7 +5044,7 @@
         <v>172</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H137">
         <v>0.644</v>
@@ -5004,7 +5061,7 @@
         <v>173</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H138">
         <v>0.887</v>
@@ -5114,6 +5171,9 @@
       <c r="C141" t="s">
         <v>169</v>
       </c>
+      <c r="D141" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P141">
         <v>0.546</v>
       </c>
@@ -5138,7 +5198,7 @@
         <v>170</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J142">
         <v>0.962</v>
@@ -5185,7 +5245,7 @@
         <v>171</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O143">
         <v>0.5580000000000001</v>
@@ -5217,7 +5277,7 @@
         <v>172</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J144">
         <v>0.585</v>
@@ -5264,7 +5324,7 @@
         <v>173</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J145">
         <v>0.6879999999999999</v>
@@ -5327,6 +5387,9 @@
       <c r="C147" t="s">
         <v>169</v>
       </c>
+      <c r="D147" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H147">
         <v>0.835</v>
       </c>
@@ -5342,7 +5405,7 @@
         <v>170</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H148">
         <v>0.665</v>
@@ -5359,7 +5422,7 @@
         <v>172</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H149">
         <v>0.726</v>
@@ -5376,7 +5439,7 @@
         <v>173</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H150">
         <v>0.553</v>
@@ -5483,6 +5546,9 @@
       <c r="C153" t="s">
         <v>169</v>
       </c>
+      <c r="D153" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H153">
         <v>0.491</v>
       </c>
@@ -5510,7 +5576,7 @@
         <v>170</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H154">
         <v>0.6830000000000001</v>
@@ -5560,7 +5626,7 @@
         <v>171</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I155">
         <v>0.5639999999999999</v>
@@ -5598,7 +5664,7 @@
         <v>172</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H156">
         <v>0.622</v>
@@ -5645,7 +5711,7 @@
         <v>173</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H157">
         <v>0.708</v>
@@ -5755,6 +5821,9 @@
       <c r="C160" t="s">
         <v>169</v>
       </c>
+      <c r="D160" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P160">
         <v>0.5</v>
       </c>
@@ -5779,7 +5848,7 @@
         <v>170</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O161">
         <v>0.883</v>
@@ -5811,7 +5880,7 @@
         <v>171</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O162">
         <v>0.722</v>
@@ -5843,7 +5912,7 @@
         <v>172</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O163">
         <v>0.406</v>
@@ -5875,7 +5944,7 @@
         <v>173</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O164">
         <v>0.988</v>
@@ -6006,6 +6075,9 @@
       <c r="C167" t="s">
         <v>169</v>
       </c>
+      <c r="D167" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P167">
         <v>0.585</v>
       </c>
@@ -6030,7 +6102,7 @@
         <v>170</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H168">
         <v>0.909</v>
@@ -6083,7 +6155,7 @@
         <v>171</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I169">
         <v>0.836</v>
@@ -6121,7 +6193,7 @@
         <v>172</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J170">
         <v>0.585</v>
@@ -6168,7 +6240,7 @@
         <v>173</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H171">
         <v>0.626</v>
@@ -6299,6 +6371,9 @@
       <c r="C174" t="s">
         <v>169</v>
       </c>
+      <c r="D174" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H174">
         <v>0.5679999999999999</v>
       </c>
@@ -6314,7 +6389,7 @@
         <v>170</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E175">
         <v>0.611</v>
@@ -6361,7 +6436,7 @@
         <v>171</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I176">
         <v>0.832</v>
@@ -6381,7 +6456,7 @@
         <v>172</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H177">
         <v>0.6879999999999999</v>
@@ -6416,7 +6491,7 @@
         <v>173</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E178">
         <v>0.982</v>
@@ -6541,6 +6616,9 @@
       <c r="C181" t="s">
         <v>169</v>
       </c>
+      <c r="D181" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H181">
         <v>0.605</v>
       </c>
@@ -6556,7 +6634,7 @@
         <v>170</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E182">
         <v>0.951</v>
@@ -6603,7 +6681,7 @@
         <v>171</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I183">
         <v>0.87</v>
@@ -6623,7 +6701,7 @@
         <v>172</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H184">
         <v>0.598</v>
@@ -6658,7 +6736,7 @@
         <v>173</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E185">
         <v>0.584</v>
@@ -6769,7 +6847,7 @@
         <v>170</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J188">
         <v>0.518</v>
@@ -6801,7 +6879,7 @@
         <v>172</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J189">
         <v>0.833</v>
@@ -6833,7 +6911,7 @@
         <v>173</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J190">
         <v>0.441</v>
@@ -6882,7 +6960,7 @@
         <v>170</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J192">
         <v>0.961</v>
@@ -6899,7 +6977,7 @@
         <v>171</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J193">
         <v>0.93</v>
@@ -6916,7 +6994,7 @@
         <v>173</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J194">
         <v>0.749</v>
@@ -7026,6 +7104,9 @@
       <c r="C197" t="s">
         <v>169</v>
       </c>
+      <c r="D197" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P197">
         <v>0.506</v>
       </c>
@@ -7050,7 +7131,7 @@
         <v>170</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J198">
         <v>0.518</v>
@@ -7097,7 +7178,7 @@
         <v>171</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P199">
         <v>0.753</v>
@@ -7126,7 +7207,7 @@
         <v>172</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J200">
         <v>0.484</v>
@@ -7173,7 +7254,7 @@
         <v>173</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J201">
         <v>0.989</v>
@@ -7240,7 +7321,7 @@
         <v>170</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H203">
         <v>0.669</v>
@@ -7260,7 +7341,7 @@
         <v>171</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -7277,7 +7358,7 @@
         <v>173</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H205">
         <v>0.9330000000000001</v>
@@ -7396,6 +7477,9 @@
       <c r="C208" t="s">
         <v>169</v>
       </c>
+      <c r="D208" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P208">
         <v>0.521</v>
       </c>
@@ -7420,7 +7504,7 @@
         <v>170</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H209">
         <v>0.654</v>
@@ -7473,7 +7557,7 @@
         <v>171</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I210">
         <v>0.806</v>
@@ -7511,7 +7595,7 @@
         <v>172</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H211">
         <v>0.5</v>
@@ -7561,7 +7645,7 @@
         <v>173</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H212">
         <v>0.931</v>
@@ -7674,6 +7758,9 @@
       <c r="C215" t="s">
         <v>169</v>
       </c>
+      <c r="D215" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P215">
         <v>0.507</v>
       </c>
@@ -7698,7 +7785,7 @@
         <v>170</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O216">
         <v>0.826</v>
@@ -7730,7 +7817,7 @@
         <v>171</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O217">
         <v>0.709</v>
@@ -7762,7 +7849,7 @@
         <v>172</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O218">
         <v>0.449</v>
@@ -7794,7 +7881,7 @@
         <v>173</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O219">
         <v>0.989</v>
@@ -7866,7 +7953,7 @@
         <v>170</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N222">
         <v>0.832</v>
@@ -7886,7 +7973,7 @@
         <v>172</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N223">
         <v>0.845</v>
@@ -7906,7 +7993,7 @@
         <v>173</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N224">
         <v>0.924</v>
@@ -7942,6 +8029,9 @@
       <c r="C226" t="s">
         <v>169</v>
       </c>
+      <c r="D226" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H226">
         <v>0.5610000000000001</v>
       </c>
@@ -7957,7 +8047,7 @@
         <v>170</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H227">
         <v>0.619</v>
@@ -7974,7 +8064,7 @@
         <v>172</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H228">
         <v>0.6850000000000001</v>
@@ -7991,7 +8081,7 @@
         <v>173</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H229">
         <v>0.946</v>
@@ -8068,6 +8158,9 @@
       <c r="C232" t="s">
         <v>169</v>
       </c>
+      <c r="D232" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P232">
         <v>0.488</v>
       </c>
@@ -8092,7 +8185,7 @@
         <v>170</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O233">
         <v>0.897</v>
@@ -8124,7 +8217,7 @@
         <v>171</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O234">
         <v>0.719</v>
@@ -8156,7 +8249,7 @@
         <v>172</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O235">
         <v>0.396</v>
@@ -8188,7 +8281,7 @@
         <v>173</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O236">
         <v>0.991</v>
@@ -8280,6 +8373,9 @@
       <c r="C239" t="s">
         <v>169</v>
       </c>
+      <c r="D239" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P239">
         <v>0.5669999999999999</v>
       </c>
@@ -8304,7 +8400,7 @@
         <v>170</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O240">
         <v>0.986</v>
@@ -8336,7 +8432,7 @@
         <v>171</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O241">
         <v>0.5620000000000001</v>
@@ -8368,7 +8464,7 @@
         <v>172</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O242">
         <v>0.369</v>
@@ -8400,7 +8496,7 @@
         <v>173</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O243">
         <v>0.838</v>
@@ -8455,7 +8551,7 @@
         <v>170</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H245">
         <v>0.741</v>
@@ -8478,7 +8574,7 @@
         <v>171</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I246">
         <v>0.642</v>
@@ -8498,7 +8594,7 @@
         <v>173</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H247">
         <v>0.8110000000000001</v>
@@ -8538,7 +8634,7 @@
         <v>170</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J249">
         <v>0.974</v>
@@ -8555,7 +8651,7 @@
         <v>171</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J250">
         <v>0.948</v>
@@ -8572,7 +8668,7 @@
         <v>173</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J251">
         <v>0.831</v>
@@ -8605,6 +8701,9 @@
       <c r="C253" t="s">
         <v>169</v>
       </c>
+      <c r="D253" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H253">
         <v>0.873</v>
       </c>
@@ -8620,7 +8719,7 @@
         <v>170</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H254">
         <v>0.62</v>
@@ -8637,7 +8736,7 @@
         <v>172</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H255">
         <v>0.66</v>
@@ -8654,7 +8753,7 @@
         <v>173</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H256">
         <v>0.5679999999999999</v>
@@ -8731,6 +8830,9 @@
       <c r="C259" t="s">
         <v>169</v>
       </c>
+      <c r="D259" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P259">
         <v>0.515</v>
       </c>
@@ -8755,7 +8857,7 @@
         <v>170</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O260">
         <v>0.822</v>
@@ -8787,7 +8889,7 @@
         <v>171</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O261">
         <v>0.737</v>
@@ -8819,7 +8921,7 @@
         <v>172</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O262">
         <v>0.458</v>
@@ -8851,7 +8953,7 @@
         <v>173</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O263">
         <v>0.991</v>
@@ -8923,7 +9025,7 @@
         <v>170</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H266">
         <v>0.924</v>
@@ -8946,7 +9048,7 @@
         <v>171</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I267">
         <v>0.747</v>
@@ -8966,7 +9068,7 @@
         <v>172</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J268">
         <v>0.626</v>
@@ -8983,7 +9085,7 @@
         <v>173</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H269">
         <v>0.667</v>
@@ -9022,6 +9124,9 @@
       <c r="C271" t="s">
         <v>169</v>
       </c>
+      <c r="D271" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H271">
         <v>0.8070000000000001</v>
       </c>
@@ -9037,7 +9142,7 @@
         <v>170</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H272">
         <v>0.5580000000000001</v>
@@ -9054,7 +9159,7 @@
         <v>172</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H273">
         <v>0.748</v>
@@ -9071,7 +9176,7 @@
         <v>173</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H274">
         <v>0.599</v>
@@ -9108,7 +9213,7 @@
         <v>170</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H276">
         <v>0.895</v>
@@ -9128,7 +9233,7 @@
         <v>171</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I277">
         <v>0.726</v>
@@ -9145,7 +9250,7 @@
         <v>173</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H278">
         <v>0.703</v>
@@ -9243,6 +9348,9 @@
       <c r="C281" t="s">
         <v>169</v>
       </c>
+      <c r="D281" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H281">
         <v>0.544</v>
       </c>
@@ -9258,7 +9366,7 @@
         <v>170</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E282">
         <v>0.597</v>
@@ -9305,7 +9413,7 @@
         <v>171</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I283">
         <v>0.641</v>
@@ -9325,7 +9433,7 @@
         <v>172</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H284">
         <v>0.671</v>
@@ -9360,7 +9468,7 @@
         <v>173</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E285">
         <v>0.981</v>
@@ -9452,6 +9560,9 @@
       <c r="C288" t="s">
         <v>169</v>
       </c>
+      <c r="D288" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H288">
         <v>0.554</v>
       </c>
@@ -9467,7 +9578,7 @@
         <v>170</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H289">
         <v>0.715</v>
@@ -9493,7 +9604,7 @@
         <v>171</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O290">
         <v>0.523</v>
@@ -9513,7 +9624,7 @@
         <v>172</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H291">
         <v>0.599</v>
@@ -9539,7 +9650,7 @@
         <v>173</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H292">
         <v>0.745</v>
@@ -9629,7 +9740,7 @@
         <v>170</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J295">
         <v>0.973</v>
@@ -9661,7 +9772,7 @@
         <v>172</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J296">
         <v>0.605</v>
@@ -9693,7 +9804,7 @@
         <v>173</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J297">
         <v>0.601</v>
@@ -9789,7 +9900,7 @@
         <v>170</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J300">
         <v>0.968</v>
@@ -9821,7 +9932,7 @@
         <v>172</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J301">
         <v>0.585</v>
@@ -9853,7 +9964,7 @@
         <v>173</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J302">
         <v>0.668</v>
@@ -9945,6 +10056,9 @@
       <c r="C305" t="s">
         <v>169</v>
       </c>
+      <c r="D305" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P305">
         <v>0.529</v>
       </c>
@@ -9969,7 +10083,7 @@
         <v>170</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O306">
         <v>0.792</v>
@@ -10001,7 +10115,7 @@
         <v>171</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O307">
         <v>0.718</v>
@@ -10033,7 +10147,7 @@
         <v>172</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O308">
         <v>0.542</v>
@@ -10065,7 +10179,7 @@
         <v>173</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O309">
         <v>0.991</v>
@@ -10131,7 +10245,7 @@
         <v>170</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J312">
         <v>0.971</v>
@@ -10148,7 +10262,7 @@
         <v>172</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J313">
         <v>0.625</v>
@@ -10165,7 +10279,7 @@
         <v>173</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J314">
         <v>0.658</v>
@@ -10228,7 +10342,7 @@
         <v>170</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M317">
         <v>0.977</v>
@@ -10251,7 +10365,7 @@
         <v>172</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M318">
         <v>0.759</v>
@@ -10274,7 +10388,7 @@
         <v>173</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M319">
         <v>0.898</v>
@@ -10325,6 +10439,9 @@
       <c r="C321" t="s">
         <v>169</v>
       </c>
+      <c r="D321" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H321">
         <v>0.614</v>
       </c>
@@ -10340,7 +10457,7 @@
         <v>170</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F322">
         <v>0.978</v>
@@ -10369,7 +10486,7 @@
         <v>171</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I323">
         <v>0.858</v>
@@ -10389,7 +10506,7 @@
         <v>172</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H324">
         <v>0.58</v>
@@ -10406,7 +10523,7 @@
         <v>173</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F325">
         <v>0.585</v>
@@ -10451,6 +10568,9 @@
       <c r="C327" t="s">
         <v>169</v>
       </c>
+      <c r="D327" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H327">
         <v>0.758</v>
       </c>
@@ -10466,7 +10586,7 @@
         <v>170</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H328">
         <v>0.5629999999999999</v>
@@ -10483,7 +10603,7 @@
         <v>172</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H329">
         <v>0.6889999999999999</v>
@@ -10500,7 +10620,7 @@
         <v>173</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H330">
         <v>0.651</v>
@@ -10537,7 +10657,7 @@
         <v>170</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I332">
         <v>0.9419999999999999</v>
@@ -10557,7 +10677,7 @@
         <v>171</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I333">
         <v>0.759</v>
@@ -10577,7 +10697,7 @@
         <v>173</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I334">
         <v>0.798</v>
@@ -10620,7 +10740,7 @@
         <v>170</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H336">
         <v>0.65</v>
@@ -10643,7 +10763,7 @@
         <v>171</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I337">
         <v>0.8110000000000001</v>
@@ -10663,7 +10783,7 @@
         <v>172</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H338">
         <v>0.619</v>
@@ -10680,7 +10800,7 @@
         <v>173</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H339">
         <v>0.947</v>
@@ -10743,7 +10863,7 @@
         <v>170</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K342">
         <v>0.645</v>
@@ -10763,7 +10883,7 @@
         <v>172</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K343">
         <v>0.765</v>
@@ -10783,7 +10903,7 @@
         <v>173</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K344">
         <v>0.772</v>
@@ -10867,7 +10987,7 @@
         <v>170</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J347">
         <v>0.666</v>
@@ -10899,7 +11019,7 @@
         <v>172</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J348">
         <v>0.515</v>
@@ -10931,7 +11051,7 @@
         <v>173</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J349">
         <v>0.973</v>
@@ -10979,6 +11099,9 @@
       <c r="C351" t="s">
         <v>169</v>
       </c>
+      <c r="D351" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H351">
         <v>0.572</v>
       </c>
@@ -10994,7 +11117,7 @@
         <v>170</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H352">
         <v>0.698</v>
@@ -11011,7 +11134,7 @@
         <v>172</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H353">
         <v>0.597</v>
@@ -11028,7 +11151,7 @@
         <v>173</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H354">
         <v>0.739</v>
@@ -11076,6 +11199,9 @@
       <c r="C356" t="s">
         <v>169</v>
       </c>
+      <c r="D356" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H356">
         <v>0.553</v>
       </c>
@@ -11091,7 +11217,7 @@
         <v>170</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E357">
         <v>0.626</v>
@@ -11123,7 +11249,7 @@
         <v>171</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I358">
         <v>0.93</v>
@@ -11143,7 +11269,7 @@
         <v>172</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H359">
         <v>0.681</v>
@@ -11160,7 +11286,7 @@
         <v>173</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E360">
         <v>0.974</v>
@@ -11252,6 +11378,9 @@
       <c r="C363" t="s">
         <v>169</v>
       </c>
+      <c r="D363" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P363">
         <v>0.593</v>
       </c>
@@ -11276,7 +11405,7 @@
         <v>170</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O364">
         <v>0.978</v>
@@ -11308,7 +11437,7 @@
         <v>171</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O365">
         <v>0.572</v>
@@ -11340,7 +11469,7 @@
         <v>172</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O366">
         <v>0.375</v>
@@ -11372,7 +11501,7 @@
         <v>173</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O367">
         <v>0.851</v>
@@ -11512,6 +11641,9 @@
       <c r="C370" t="s">
         <v>169</v>
       </c>
+      <c r="D370" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H370">
         <v>0.629</v>
       </c>
@@ -11539,7 +11671,7 @@
         <v>170</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E371">
         <v>0.9350000000000001</v>
@@ -11601,7 +11733,7 @@
         <v>171</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I372">
         <v>0.876</v>
@@ -11639,7 +11771,7 @@
         <v>172</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H373">
         <v>0.605</v>
@@ -11689,7 +11821,7 @@
         <v>173</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E374">
         <v>0.5600000000000001</v>
@@ -11768,7 +11900,7 @@
         <v>170</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E376">
         <v>0.972</v>
@@ -11785,7 +11917,7 @@
         <v>173</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E377">
         <v>0.9350000000000001</v>
@@ -11833,6 +11965,9 @@
       <c r="C379" t="s">
         <v>169</v>
       </c>
+      <c r="D379" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H379">
         <v>0.371</v>
       </c>
@@ -11848,7 +11983,7 @@
         <v>170</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E380">
         <v>0.589</v>
@@ -11880,7 +12015,7 @@
         <v>171</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I381">
         <v>0.949</v>
@@ -11900,7 +12035,7 @@
         <v>172</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H382">
         <v>0.572</v>
@@ -11917,7 +12052,7 @@
         <v>173</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E383">
         <v>0.978</v>
@@ -11965,6 +12100,9 @@
       <c r="C385" t="s">
         <v>169</v>
       </c>
+      <c r="D385" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H385">
         <v>0.5600000000000001</v>
       </c>
@@ -11980,7 +12118,7 @@
         <v>170</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H386">
         <v>0.713</v>
@@ -11997,7 +12135,7 @@
         <v>172</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H387">
         <v>0.603</v>
@@ -12014,7 +12152,7 @@
         <v>173</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H388">
         <v>0.75</v>
@@ -12106,6 +12244,9 @@
       <c r="C391" t="s">
         <v>169</v>
       </c>
+      <c r="D391" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P391">
         <v>0.595</v>
       </c>
@@ -12127,7 +12268,7 @@
         <v>170</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K392">
         <v>0.968</v>
@@ -12165,7 +12306,7 @@
         <v>171</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O393">
         <v>0.5639999999999999</v>
@@ -12191,7 +12332,7 @@
         <v>172</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K394">
         <v>0.628</v>
@@ -12229,7 +12370,7 @@
         <v>173</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K395">
         <v>0.698</v>
@@ -12331,7 +12472,7 @@
         <v>170</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J398">
         <v>0.674</v>
@@ -12363,7 +12504,7 @@
         <v>172</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J399">
         <v>0.529</v>
@@ -12395,7 +12536,7 @@
         <v>173</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J400">
         <v>0.974</v>
@@ -12444,7 +12585,7 @@
         <v>170</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J402">
         <v>0.969</v>
@@ -12461,7 +12602,7 @@
         <v>171</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J403">
         <v>0.9379999999999999</v>
@@ -12478,7 +12619,7 @@
         <v>173</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J404">
         <v>0.75</v>
@@ -12594,6 +12735,9 @@
       <c r="C407" t="s">
         <v>169</v>
       </c>
+      <c r="D407" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H407">
         <v>0.5669999999999999</v>
       </c>
@@ -12621,7 +12765,7 @@
         <v>170</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H408">
         <v>0.64</v>
@@ -12674,7 +12818,7 @@
         <v>171</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I409">
         <v>0.802</v>
@@ -12712,7 +12856,7 @@
         <v>172</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H410">
         <v>0.5</v>
@@ -12762,7 +12906,7 @@
         <v>173</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H411">
         <v>0.945</v>
@@ -12879,7 +13023,7 @@
         <v>170</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J414">
         <v>0.974</v>
@@ -12911,7 +13055,7 @@
         <v>171</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J415">
         <v>0.952</v>
@@ -12928,7 +13072,7 @@
         <v>172</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J416">
         <v>0.589</v>
@@ -12960,7 +13104,7 @@
         <v>173</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J417">
         <v>0.746</v>
@@ -13009,7 +13153,7 @@
         <v>170</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E419">
         <v>0.956</v>
@@ -13026,7 +13170,7 @@
         <v>173</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E420">
         <v>0.61</v>
@@ -13074,6 +13218,9 @@
       <c r="C422" t="s">
         <v>169</v>
       </c>
+      <c r="D422" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H422">
         <v>0.533</v>
       </c>
@@ -13089,7 +13236,7 @@
         <v>170</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E423">
         <v>0.729</v>
@@ -13121,7 +13268,7 @@
         <v>171</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I424">
         <v>0.631</v>
@@ -13141,7 +13288,7 @@
         <v>172</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H425">
         <v>0.6</v>
@@ -13158,7 +13305,7 @@
         <v>173</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E426">
         <v>0.772</v>
@@ -13250,6 +13397,9 @@
       <c r="C429" t="s">
         <v>169</v>
       </c>
+      <c r="D429" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P429">
         <v>0.498</v>
       </c>
@@ -13274,7 +13424,7 @@
         <v>170</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O430">
         <v>0.8110000000000001</v>
@@ -13306,7 +13456,7 @@
         <v>171</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O431">
         <v>0.754</v>
@@ -13338,7 +13488,7 @@
         <v>172</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O432">
         <v>0.468</v>
@@ -13370,7 +13520,7 @@
         <v>173</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O433">
         <v>0.978</v>
@@ -13501,6 +13651,9 @@
       <c r="C436" t="s">
         <v>169</v>
       </c>
+      <c r="D436" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P436">
         <v>0.59</v>
       </c>
@@ -13525,7 +13678,7 @@
         <v>170</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H437">
         <v>0.874</v>
@@ -13578,7 +13731,7 @@
         <v>171</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I438">
         <v>0.893</v>
@@ -13616,7 +13769,7 @@
         <v>172</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J439">
         <v>0.584</v>
@@ -13663,7 +13816,7 @@
         <v>173</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H440">
         <v>0.622</v>
@@ -13762,7 +13915,7 @@
         <v>170</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J443">
         <v>0.966</v>
@@ -13785,7 +13938,7 @@
         <v>172</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J444">
         <v>0.596</v>
@@ -13808,7 +13961,7 @@
         <v>173</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J445">
         <v>0.666</v>
@@ -13939,6 +14092,9 @@
       <c r="C448" t="s">
         <v>169</v>
       </c>
+      <c r="D448" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H448">
         <v>0.627</v>
       </c>
@@ -13966,7 +14122,7 @@
         <v>170</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E449">
         <v>0.961</v>
@@ -14028,7 +14184,7 @@
         <v>171</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I450">
         <v>0.869</v>
@@ -14066,7 +14222,7 @@
         <v>172</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H451">
         <v>0.575</v>
@@ -14116,7 +14272,7 @@
         <v>173</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E452">
         <v>0.607</v>
@@ -14209,6 +14365,9 @@
       <c r="C454" t="s">
         <v>169</v>
       </c>
+      <c r="D454" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H454">
         <v>0.472</v>
       </c>
@@ -14224,7 +14383,7 @@
         <v>170</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E455">
         <v>0.606</v>
@@ -14256,7 +14415,7 @@
         <v>171</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I456">
         <v>0.787</v>
@@ -14276,7 +14435,7 @@
         <v>172</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H457">
         <v>0.656</v>
@@ -14293,7 +14452,7 @@
         <v>173</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E458">
         <v>0.957</v>
@@ -14433,6 +14592,9 @@
       <c r="C461" t="s">
         <v>169</v>
       </c>
+      <c r="D461" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H461">
         <v>0.622</v>
       </c>
@@ -14460,7 +14622,7 @@
         <v>170</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E462">
         <v>0.962</v>
@@ -14522,7 +14684,7 @@
         <v>171</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I463">
         <v>0.873</v>
@@ -14560,7 +14722,7 @@
         <v>172</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H464">
         <v>0.58</v>
@@ -14610,7 +14772,7 @@
         <v>173</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E465">
         <v>0.615</v>
@@ -14736,7 +14898,7 @@
         <v>170</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J468">
         <v>0.675</v>
@@ -14768,7 +14930,7 @@
         <v>172</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J469">
         <v>0.515</v>
@@ -14800,7 +14962,7 @@
         <v>173</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J470">
         <v>0.976</v>
@@ -14925,6 +15087,9 @@
       <c r="C473" t="s">
         <v>169</v>
       </c>
+      <c r="D473" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P473">
         <v>0.717</v>
       </c>
@@ -14949,7 +15114,7 @@
         <v>170</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J474">
         <v>0.438</v>
@@ -14996,7 +15161,7 @@
         <v>171</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O475">
         <v>0.586</v>
@@ -15028,7 +15193,7 @@
         <v>172</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J476">
         <v>0.853</v>
@@ -15075,7 +15240,7 @@
         <v>173</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J477">
         <v>0.301</v>
@@ -15138,6 +15303,9 @@
       <c r="C479" t="s">
         <v>169</v>
       </c>
+      <c r="D479" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H479">
         <v>0.542</v>
       </c>
@@ -15153,7 +15321,7 @@
         <v>170</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H480">
         <v>0.902</v>
@@ -15170,7 +15338,7 @@
         <v>172</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H481">
         <v>0.631</v>
@@ -15187,7 +15355,7 @@
         <v>173</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H482">
         <v>0.634</v>
@@ -15268,7 +15436,7 @@
         <v>170</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J485">
         <v>0.662</v>
@@ -15300,7 +15468,7 @@
         <v>172</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J486">
         <v>0.573</v>
@@ -15332,7 +15500,7 @@
         <v>173</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J487">
         <v>0.622</v>
@@ -15424,6 +15592,9 @@
       <c r="C490" t="s">
         <v>169</v>
       </c>
+      <c r="D490" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P490">
         <v>1</v>
       </c>
@@ -15448,7 +15619,7 @@
         <v>170</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O491">
         <v>0.825</v>
@@ -15480,7 +15651,7 @@
         <v>171</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O492">
         <v>0.711</v>
@@ -15512,7 +15683,7 @@
         <v>172</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O493">
         <v>0.462</v>
@@ -15544,7 +15715,7 @@
         <v>173</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O494">
         <v>0.982</v>
@@ -15654,6 +15825,9 @@
       <c r="C497" t="s">
         <v>169</v>
       </c>
+      <c r="D497" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H497">
         <v>0.7</v>
       </c>
@@ -15669,7 +15843,7 @@
         <v>170</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E498">
         <v>0.966</v>
@@ -15716,7 +15890,7 @@
         <v>171</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I499">
         <v>0.892</v>
@@ -15736,7 +15910,7 @@
         <v>172</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H500">
         <v>0.584</v>
@@ -15771,7 +15945,7 @@
         <v>173</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E501">
         <v>0.621</v>
@@ -15914,6 +16088,9 @@
       <c r="C504" t="s">
         <v>169</v>
       </c>
+      <c r="D504" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P504">
         <v>0.598</v>
       </c>
@@ -15938,7 +16115,7 @@
         <v>170</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I505">
         <v>0.822</v>
@@ -15988,7 +16165,7 @@
         <v>171</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I506">
         <v>1</v>
@@ -16026,7 +16203,7 @@
         <v>172</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J507">
         <v>0.531</v>
@@ -16073,7 +16250,7 @@
         <v>173</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I508">
         <v>0.8080000000000001</v>
@@ -16216,6 +16393,9 @@
       <c r="C511" t="s">
         <v>169</v>
       </c>
+      <c r="D511" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H511">
         <v>0.653</v>
       </c>
@@ -16237,7 +16417,7 @@
         <v>170</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E512">
         <v>0.963</v>
@@ -16293,7 +16473,7 @@
         <v>171</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I513">
         <v>0.875</v>
@@ -16322,7 +16502,7 @@
         <v>172</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H514">
         <v>0.51</v>
@@ -16366,7 +16546,7 @@
         <v>173</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E515">
         <v>0.594</v>
@@ -16453,6 +16633,9 @@
       <c r="C517" t="s">
         <v>169</v>
       </c>
+      <c r="D517" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H517">
         <v>0.493</v>
       </c>
@@ -16468,7 +16651,7 @@
         <v>170</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E518">
         <v>0.547</v>
@@ -16500,7 +16683,7 @@
         <v>171</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I519">
         <v>0.9429999999999999</v>
@@ -16520,7 +16703,7 @@
         <v>172</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H520">
         <v>0.652</v>
@@ -16537,7 +16720,7 @@
         <v>173</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E521">
         <v>0.985</v>
@@ -16592,7 +16775,7 @@
         <v>170</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H523">
         <v>0.733</v>
@@ -16615,7 +16798,7 @@
         <v>171</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I524">
         <v>0.664</v>
@@ -16635,7 +16818,7 @@
         <v>173</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H525">
         <v>0.8169999999999999</v>
@@ -16718,6 +16901,9 @@
       <c r="C528" t="s">
         <v>169</v>
       </c>
+      <c r="D528" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P528">
         <v>0.507</v>
       </c>
@@ -16742,7 +16928,7 @@
         <v>170</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O529">
         <v>0.827</v>
@@ -16774,7 +16960,7 @@
         <v>171</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O530">
         <v>0.735</v>
@@ -16806,7 +16992,7 @@
         <v>172</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O531">
         <v>0.453</v>
@@ -16838,7 +17024,7 @@
         <v>173</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O532">
         <v>0.991</v>
@@ -16909,6 +17095,9 @@
       <c r="C535" t="s">
         <v>169</v>
       </c>
+      <c r="D535" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="S535">
         <v>0.443</v>
       </c>
@@ -16924,7 +17113,7 @@
         <v>170</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S536">
         <v>0.785</v>
@@ -16944,7 +17133,7 @@
         <v>171</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S537">
         <v>0.698</v>
@@ -16964,7 +17153,7 @@
         <v>172</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S538">
         <v>0.538</v>
@@ -16984,7 +17173,7 @@
         <v>173</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S539">
         <v>0.955</v>
@@ -17026,6 +17215,9 @@
       <c r="C541" t="s">
         <v>169</v>
       </c>
+      <c r="D541" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H541">
         <v>0.601</v>
       </c>
@@ -17041,7 +17233,7 @@
         <v>170</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H542">
         <v>0.9379999999999999</v>
@@ -17064,7 +17256,7 @@
         <v>171</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I543">
         <v>0.752</v>
@@ -17084,7 +17276,7 @@
         <v>172</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H544">
         <v>0.509</v>
@@ -17101,7 +17293,7 @@
         <v>173</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H545">
         <v>0.615</v>
@@ -17144,7 +17336,7 @@
         <v>170</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H547">
         <v>0.904</v>
@@ -17164,7 +17356,7 @@
         <v>171</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I548">
         <v>0.78</v>
@@ -17181,7 +17373,7 @@
         <v>173</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H549">
         <v>0.651</v>
@@ -17300,6 +17492,9 @@
       <c r="C552" t="s">
         <v>169</v>
       </c>
+      <c r="D552" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H552">
         <v>0.642</v>
       </c>
@@ -17327,7 +17522,7 @@
         <v>170</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H553">
         <v>0.915</v>
@@ -17380,7 +17575,7 @@
         <v>171</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I554">
         <v>0.8139999999999999</v>
@@ -17418,7 +17613,7 @@
         <v>172</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H555">
         <v>0.624</v>
@@ -17468,7 +17663,7 @@
         <v>173</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H556">
         <v>0.675</v>
@@ -17541,7 +17736,7 @@
         <v>170</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H558">
         <v>0.915</v>
@@ -17561,7 +17756,7 @@
         <v>171</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I559">
         <v>0.789</v>
@@ -17578,7 +17773,7 @@
         <v>173</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H560">
         <v>0.6860000000000001</v>
@@ -17655,6 +17850,9 @@
       <c r="C563" t="s">
         <v>169</v>
       </c>
+      <c r="D563" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P563">
         <v>0.5629999999999999</v>
       </c>
@@ -17679,7 +17877,7 @@
         <v>170</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P564">
         <v>0.972</v>
@@ -17708,7 +17906,7 @@
         <v>171</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P565">
         <v>0.545</v>
@@ -17737,7 +17935,7 @@
         <v>172</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P566">
         <v>0.476</v>
@@ -17766,7 +17964,7 @@
         <v>173</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P567">
         <v>0.785</v>
@@ -17841,7 +18039,7 @@
         <v>170</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M570">
         <v>0.829</v>
@@ -17864,7 +18062,7 @@
         <v>172</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M571">
         <v>0.766</v>
@@ -17887,7 +18085,7 @@
         <v>173</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M572">
         <v>0.979</v>
@@ -17970,6 +18168,9 @@
       <c r="C575" t="s">
         <v>169</v>
       </c>
+      <c r="D575" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P575">
         <v>0.443</v>
       </c>
@@ -17994,7 +18195,7 @@
         <v>170</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O576">
         <v>0.831</v>
@@ -18026,7 +18227,7 @@
         <v>171</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O577">
         <v>0.59</v>
@@ -18058,7 +18259,7 @@
         <v>172</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O578">
         <v>0.385</v>
@@ -18090,7 +18291,7 @@
         <v>173</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O579">
         <v>0.821</v>
@@ -18215,6 +18416,9 @@
       <c r="C582" t="s">
         <v>169</v>
       </c>
+      <c r="D582" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P582">
         <v>0.541</v>
       </c>
@@ -18239,7 +18443,7 @@
         <v>170</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J583">
         <v>0.964</v>
@@ -18286,7 +18490,7 @@
         <v>171</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O584">
         <v>0.502</v>
@@ -18318,7 +18522,7 @@
         <v>172</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J585">
         <v>0.5649999999999999</v>
@@ -18365,7 +18569,7 @@
         <v>173</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J586">
         <v>0.652</v>
@@ -18428,6 +18632,9 @@
       <c r="C588" t="s">
         <v>169</v>
       </c>
+      <c r="D588" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H588">
         <v>0.606</v>
       </c>
@@ -18443,7 +18650,7 @@
         <v>170</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H589">
         <v>0.928</v>
@@ -18460,7 +18667,7 @@
         <v>172</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H590">
         <v>0.49</v>
@@ -18477,7 +18684,7 @@
         <v>173</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H591">
         <v>0.599</v>
@@ -18517,7 +18724,7 @@
         <v>170</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H593">
         <v>0.883</v>
@@ -18540,7 +18747,7 @@
         <v>171</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I594">
         <v>0.745</v>
@@ -18560,7 +18767,7 @@
         <v>173</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H595">
         <v>0.66</v>
@@ -18606,7 +18813,7 @@
         <v>170</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H597">
         <v>0.883</v>
@@ -18629,7 +18836,7 @@
         <v>171</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I598">
         <v>0.774</v>
@@ -18649,7 +18856,7 @@
         <v>173</v>
       </c>
       <c r="D599" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H599">
         <v>0.704</v>
@@ -18732,6 +18939,9 @@
       <c r="C602" t="s">
         <v>169</v>
       </c>
+      <c r="D602" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P602">
         <v>0.6</v>
       </c>
@@ -18756,7 +18966,7 @@
         <v>170</v>
       </c>
       <c r="D603" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O603">
         <v>0.989</v>
@@ -18788,7 +18998,7 @@
         <v>171</v>
       </c>
       <c r="D604" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O604">
         <v>0.571</v>
@@ -18820,7 +19030,7 @@
         <v>172</v>
       </c>
       <c r="D605" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O605">
         <v>0.373</v>
@@ -18852,7 +19062,7 @@
         <v>173</v>
       </c>
       <c r="D606" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O606">
         <v>0.848</v>
@@ -18977,6 +19187,9 @@
       <c r="C609" t="s">
         <v>169</v>
       </c>
+      <c r="D609" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P609">
         <v>0.539</v>
       </c>
@@ -19001,7 +19214,7 @@
         <v>170</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J610">
         <v>0.5600000000000001</v>
@@ -19048,7 +19261,7 @@
         <v>171</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O611">
         <v>0.621</v>
@@ -19080,7 +19293,7 @@
         <v>172</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J612">
         <v>0.482</v>
@@ -19127,7 +19340,7 @@
         <v>173</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J613">
         <v>0.773</v>
@@ -19214,7 +19427,7 @@
         <v>170</v>
       </c>
       <c r="D616" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N616">
         <v>0.775</v>
@@ -19234,7 +19447,7 @@
         <v>172</v>
       </c>
       <c r="D617" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N617">
         <v>0.714</v>
@@ -19254,7 +19467,7 @@
         <v>173</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N618">
         <v>0.833</v>
@@ -19290,6 +19503,9 @@
       <c r="C620" t="s">
         <v>169</v>
       </c>
+      <c r="D620" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H620">
         <v>0.644</v>
       </c>
@@ -19305,7 +19521,7 @@
         <v>170</v>
       </c>
       <c r="D621" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H621">
         <v>0.853</v>
@@ -19322,7 +19538,7 @@
         <v>172</v>
       </c>
       <c r="D622" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H622">
         <v>0.53</v>
@@ -19339,7 +19555,7 @@
         <v>173</v>
       </c>
       <c r="D623" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H623">
         <v>0.543</v>
@@ -19372,6 +19588,9 @@
       <c r="C625" t="s">
         <v>169</v>
       </c>
+      <c r="D625" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H625">
         <v>0.855</v>
       </c>
@@ -19387,7 +19606,7 @@
         <v>170</v>
       </c>
       <c r="D626" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H626">
         <v>0.67</v>
@@ -19404,7 +19623,7 @@
         <v>172</v>
       </c>
       <c r="D627" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H627">
         <v>0.6840000000000001</v>
@@ -19421,7 +19640,7 @@
         <v>173</v>
       </c>
       <c r="D628" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H628">
         <v>0.571</v>
@@ -19502,7 +19721,7 @@
         <v>170</v>
       </c>
       <c r="D631" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J631">
         <v>0.966</v>
@@ -19534,7 +19753,7 @@
         <v>172</v>
       </c>
       <c r="D632" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J632">
         <v>0.589</v>
@@ -19566,7 +19785,7 @@
         <v>173</v>
       </c>
       <c r="D633" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J633">
         <v>0.671</v>
@@ -19618,7 +19837,7 @@
         <v>170</v>
       </c>
       <c r="D635" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H635">
         <v>0.907</v>
@@ -19638,7 +19857,7 @@
         <v>171</v>
       </c>
       <c r="D636" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I636">
         <v>0.721</v>
@@ -19655,7 +19874,7 @@
         <v>173</v>
       </c>
       <c r="D637" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H637">
         <v>0.642</v>
@@ -19723,6 +19942,9 @@
       <c r="C640" t="s">
         <v>169</v>
       </c>
+      <c r="D640" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H640">
         <v>0.578</v>
       </c>
@@ -19738,7 +19960,7 @@
         <v>170</v>
       </c>
       <c r="D641" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E641">
         <v>0.92</v>
@@ -19770,7 +19992,7 @@
         <v>171</v>
       </c>
       <c r="D642" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I642">
         <v>0.865</v>
@@ -19790,7 +20012,7 @@
         <v>172</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H643">
         <v>0.587</v>
@@ -19810,7 +20032,7 @@
         <v>173</v>
       </c>
       <c r="D644" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E644">
         <v>0.588</v>
@@ -19902,6 +20124,9 @@
       <c r="C647" t="s">
         <v>169</v>
       </c>
+      <c r="D647" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P647">
         <v>0.503</v>
       </c>
@@ -19926,7 +20151,7 @@
         <v>170</v>
       </c>
       <c r="D648" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O648">
         <v>0.83</v>
@@ -19958,7 +20183,7 @@
         <v>171</v>
       </c>
       <c r="D649" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O649">
         <v>0.709</v>
@@ -19990,7 +20215,7 @@
         <v>172</v>
       </c>
       <c r="D650" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O650">
         <v>0.44</v>
@@ -20022,7 +20247,7 @@
         <v>173</v>
       </c>
       <c r="D651" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O651">
         <v>0.986</v>
@@ -20085,6 +20310,9 @@
       <c r="C653" t="s">
         <v>169</v>
       </c>
+      <c r="D653" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H653">
         <v>0.625</v>
       </c>
@@ -20100,7 +20328,7 @@
         <v>170</v>
       </c>
       <c r="D654" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E654">
         <v>0.9320000000000001</v>
@@ -20132,7 +20360,7 @@
         <v>171</v>
       </c>
       <c r="D655" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I655">
         <v>0.865</v>
@@ -20152,7 +20380,7 @@
         <v>172</v>
       </c>
       <c r="D656" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H656">
         <v>0.61</v>
@@ -20169,7 +20397,7 @@
         <v>173</v>
       </c>
       <c r="D657" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E657">
         <v>0.65</v>
@@ -20217,6 +20445,9 @@
       <c r="C659" t="s">
         <v>169</v>
       </c>
+      <c r="D659" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H659">
         <v>0.552</v>
       </c>
@@ -20232,7 +20463,7 @@
         <v>170</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H660">
         <v>0.642</v>
@@ -20249,7 +20480,7 @@
         <v>172</v>
       </c>
       <c r="D661" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H661">
         <v>0.622</v>
@@ -20266,7 +20497,7 @@
         <v>173</v>
       </c>
       <c r="D662" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H662">
         <v>0.9389999999999999</v>
@@ -20299,6 +20530,9 @@
       <c r="C664" t="s">
         <v>169</v>
       </c>
+      <c r="D664" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H664">
         <v>0.5679999999999999</v>
       </c>
@@ -20314,7 +20548,7 @@
         <v>170</v>
       </c>
       <c r="D665" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H665">
         <v>0.878</v>
@@ -20331,7 +20565,7 @@
         <v>172</v>
       </c>
       <c r="D666" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H666">
         <v>0.621</v>
@@ -20348,7 +20582,7 @@
         <v>173</v>
       </c>
       <c r="D667" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H667">
         <v>0.586</v>
@@ -20455,6 +20689,9 @@
       <c r="C670" t="s">
         <v>169</v>
       </c>
+      <c r="D670" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P670">
         <v>0.5629999999999999</v>
       </c>
@@ -20479,7 +20716,7 @@
         <v>170</v>
       </c>
       <c r="D671" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H671">
         <v>0.742</v>
@@ -20529,7 +20766,7 @@
         <v>171</v>
       </c>
       <c r="D672" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I672">
         <v>0.673</v>
@@ -20567,7 +20804,7 @@
         <v>172</v>
       </c>
       <c r="D673" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J673">
         <v>0.5679999999999999</v>
@@ -20611,7 +20848,7 @@
         <v>173</v>
       </c>
       <c r="D674" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H674">
         <v>0.823</v>
@@ -20728,7 +20965,7 @@
         <v>170</v>
       </c>
       <c r="D677" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H677">
         <v>0.916</v>
@@ -20766,7 +21003,7 @@
         <v>171</v>
       </c>
       <c r="D678" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I678">
         <v>0.831</v>
@@ -20786,7 +21023,7 @@
         <v>172</v>
       </c>
       <c r="D679" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J679">
         <v>0.616</v>
@@ -20818,7 +21055,7 @@
         <v>173</v>
       </c>
       <c r="D680" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H680">
         <v>0.671</v>
@@ -20955,6 +21192,9 @@
       <c r="C683" t="s">
         <v>169</v>
       </c>
+      <c r="D683" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P683">
         <v>0.474</v>
       </c>
@@ -20979,7 +21219,7 @@
         <v>170</v>
       </c>
       <c r="D684" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H684">
         <v>0.741</v>
@@ -21032,7 +21272,7 @@
         <v>171</v>
       </c>
       <c r="D685" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I685">
         <v>0.622</v>
@@ -21070,7 +21310,7 @@
         <v>172</v>
       </c>
       <c r="D686" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J686">
         <v>0.5</v>
@@ -21117,7 +21357,7 @@
         <v>173</v>
       </c>
       <c r="D687" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H687">
         <v>0.823</v>
@@ -21189,6 +21429,9 @@
       <c r="C689" t="s">
         <v>169</v>
       </c>
+      <c r="D689" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H689">
         <v>0.593</v>
       </c>
@@ -21204,7 +21447,7 @@
         <v>170</v>
       </c>
       <c r="D690" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H690">
         <v>0.923</v>
@@ -21224,7 +21467,7 @@
         <v>171</v>
       </c>
       <c r="D691" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I691">
         <v>0.667</v>
@@ -21241,7 +21484,7 @@
         <v>172</v>
       </c>
       <c r="D692" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H692">
         <v>0.538</v>
@@ -21258,7 +21501,7 @@
         <v>173</v>
       </c>
       <c r="D693" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H693">
         <v>0.639</v>
@@ -21330,7 +21573,7 @@
         <v>170</v>
       </c>
       <c r="D696" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H696">
         <v>0.698</v>
@@ -21359,7 +21602,7 @@
         <v>171</v>
       </c>
       <c r="D697" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I697">
         <v>0.75</v>
@@ -21379,7 +21622,7 @@
         <v>172</v>
       </c>
       <c r="D698" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H698">
         <v>0.57</v>
@@ -21405,7 +21648,7 @@
         <v>173</v>
       </c>
       <c r="D699" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H699">
         <v>0.9350000000000001</v>
@@ -21479,6 +21722,9 @@
       <c r="C702" t="s">
         <v>169</v>
       </c>
+      <c r="D702" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="R702">
         <v>0.44</v>
       </c>
@@ -21497,7 +21743,7 @@
         <v>170</v>
       </c>
       <c r="D703" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R703">
         <v>0.79</v>
@@ -21520,7 +21766,7 @@
         <v>171</v>
       </c>
       <c r="D704" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R704">
         <v>0.777</v>
@@ -21543,7 +21789,7 @@
         <v>172</v>
       </c>
       <c r="D705" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R705">
         <v>0.504</v>
@@ -21566,7 +21812,7 @@
         <v>173</v>
       </c>
       <c r="D706" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R706">
         <v>0.971</v>
@@ -21659,7 +21905,7 @@
         <v>170</v>
       </c>
       <c r="D709" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H709">
         <v>0.924</v>
@@ -21697,7 +21943,7 @@
         <v>171</v>
       </c>
       <c r="D710" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I710">
         <v>0.768</v>
@@ -21717,7 +21963,7 @@
         <v>172</v>
       </c>
       <c r="D711" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J711">
         <v>0.599</v>
@@ -21749,7 +21995,7 @@
         <v>173</v>
       </c>
       <c r="D712" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H712">
         <v>0.672</v>
@@ -21847,6 +22093,9 @@
       <c r="C715" t="s">
         <v>169</v>
       </c>
+      <c r="D715" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P715">
         <v>0.5659999999999999</v>
       </c>
@@ -21871,7 +22120,7 @@
         <v>170</v>
       </c>
       <c r="D716" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O716">
         <v>0.985</v>
@@ -21903,7 +22152,7 @@
         <v>171</v>
       </c>
       <c r="D717" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O717">
         <v>0.5610000000000001</v>
@@ -21935,7 +22184,7 @@
         <v>172</v>
       </c>
       <c r="D718" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O718">
         <v>0.366</v>
@@ -21967,7 +22216,7 @@
         <v>173</v>
       </c>
       <c r="D719" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O719">
         <v>0.844</v>
@@ -22015,6 +22264,9 @@
       <c r="C721" t="s">
         <v>169</v>
       </c>
+      <c r="D721" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H721">
         <v>0.533</v>
       </c>
@@ -22030,7 +22282,7 @@
         <v>170</v>
       </c>
       <c r="D722" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H722">
         <v>0.715</v>
@@ -22047,7 +22299,7 @@
         <v>172</v>
       </c>
       <c r="D723" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H723">
         <v>0.594</v>
@@ -22064,7 +22316,7 @@
         <v>173</v>
       </c>
       <c r="D724" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H724">
         <v>0.737</v>
@@ -22150,6 +22402,9 @@
       <c r="C727" t="s">
         <v>169</v>
       </c>
+      <c r="D727" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H727">
         <v>0.674</v>
       </c>
@@ -22165,7 +22420,7 @@
         <v>170</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H728">
         <v>0.641</v>
@@ -22203,7 +22458,7 @@
         <v>171</v>
       </c>
       <c r="D729" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I729">
         <v>0.782</v>
@@ -22223,7 +22478,7 @@
         <v>172</v>
       </c>
       <c r="D730" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H730">
         <v>0.639</v>
@@ -22258,7 +22513,7 @@
         <v>173</v>
       </c>
       <c r="D731" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H731">
         <v>0.9330000000000001</v>
@@ -22313,7 +22568,7 @@
         <v>170</v>
       </c>
       <c r="D733" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H733">
         <v>0.902</v>
@@ -22330,7 +22585,7 @@
         <v>173</v>
       </c>
       <c r="D734" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H734">
         <v>0.678</v>
@@ -22407,6 +22662,9 @@
       <c r="C737" t="s">
         <v>169</v>
       </c>
+      <c r="D737" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P737">
         <v>0.491</v>
       </c>
@@ -22431,7 +22689,7 @@
         <v>170</v>
       </c>
       <c r="D738" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O738">
         <v>0.844</v>
@@ -22463,7 +22721,7 @@
         <v>171</v>
       </c>
       <c r="D739" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O739">
         <v>0.712</v>
@@ -22495,7 +22753,7 @@
         <v>172</v>
       </c>
       <c r="D740" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O740">
         <v>0.444</v>
@@ -22527,7 +22785,7 @@
         <v>173</v>
       </c>
       <c r="D741" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O741">
         <v>0.987</v>
@@ -22590,6 +22848,9 @@
       <c r="C743" t="s">
         <v>169</v>
       </c>
+      <c r="D743" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H743">
         <v>0.5570000000000001</v>
       </c>
@@ -22605,7 +22866,7 @@
         <v>170</v>
       </c>
       <c r="D744" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E744">
         <v>0.648</v>
@@ -22637,7 +22898,7 @@
         <v>171</v>
       </c>
       <c r="D745" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I745">
         <v>0.8159999999999999</v>
@@ -22657,7 +22918,7 @@
         <v>172</v>
       </c>
       <c r="D746" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H746">
         <v>0.643</v>
@@ -22674,7 +22935,7 @@
         <v>173</v>
       </c>
       <c r="D747" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E747">
         <v>0.981</v>
@@ -22722,6 +22983,9 @@
       <c r="C749" t="s">
         <v>169</v>
       </c>
+      <c r="D749" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H749">
         <v>0.581</v>
       </c>
@@ -22737,7 +23001,7 @@
         <v>170</v>
       </c>
       <c r="D750" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H750">
         <v>0.9350000000000001</v>
@@ -22754,7 +23018,7 @@
         <v>173</v>
       </c>
       <c r="D751" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H751">
         <v>0.594</v>
@@ -22864,6 +23128,9 @@
       <c r="C754" t="s">
         <v>169</v>
       </c>
+      <c r="D754" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P754">
         <v>0.5649999999999999</v>
       </c>
@@ -22888,7 +23155,7 @@
         <v>170</v>
       </c>
       <c r="D755" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J755">
         <v>0.966</v>
@@ -22935,7 +23202,7 @@
         <v>171</v>
       </c>
       <c r="D756" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O756">
         <v>0.594</v>
@@ -22967,7 +23234,7 @@
         <v>172</v>
       </c>
       <c r="D757" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J757">
         <v>0.492</v>
@@ -23014,7 +23281,7 @@
         <v>173</v>
       </c>
       <c r="D758" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J758">
         <v>0.706</v>
@@ -23121,6 +23388,9 @@
       <c r="C761" t="s">
         <v>169</v>
       </c>
+      <c r="D761" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P761">
         <v>0.473</v>
       </c>
@@ -23145,7 +23415,7 @@
         <v>170</v>
       </c>
       <c r="D762" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O762">
         <v>0.555</v>
@@ -23177,7 +23447,7 @@
         <v>171</v>
       </c>
       <c r="D763" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O763">
         <v>1</v>
@@ -23209,7 +23479,7 @@
         <v>172</v>
       </c>
       <c r="D764" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O764">
         <v>0.59</v>
@@ -23241,7 +23511,7 @@
         <v>173</v>
       </c>
       <c r="D765" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O765">
         <v>0.719</v>
@@ -23372,6 +23642,9 @@
       <c r="C768" t="s">
         <v>169</v>
       </c>
+      <c r="D768" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P768">
         <v>0.5610000000000001</v>
       </c>
@@ -23396,7 +23669,7 @@
         <v>170</v>
       </c>
       <c r="D769" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H769">
         <v>0.832</v>
@@ -23449,7 +23722,7 @@
         <v>171</v>
       </c>
       <c r="D770" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I770">
         <v>0.652</v>
@@ -23487,7 +23760,7 @@
         <v>172</v>
       </c>
       <c r="D771" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J771">
         <v>0.5639999999999999</v>
@@ -23534,7 +23807,7 @@
         <v>173</v>
       </c>
       <c r="D772" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H772">
         <v>0.663</v>
@@ -23603,6 +23876,9 @@
       <c r="C774" t="s">
         <v>169</v>
       </c>
+      <c r="D774" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H774">
         <v>0.468</v>
       </c>
@@ -23618,7 +23894,7 @@
         <v>170</v>
       </c>
       <c r="D775" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H775">
         <v>0.652</v>
@@ -23635,7 +23911,7 @@
         <v>172</v>
       </c>
       <c r="D776" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H776">
         <v>0.626</v>
@@ -23652,7 +23928,7 @@
         <v>173</v>
       </c>
       <c r="D777" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H777">
         <v>0.726</v>
@@ -23729,6 +24005,9 @@
       <c r="C780" t="s">
         <v>169</v>
       </c>
+      <c r="D780" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P780">
         <v>0.504</v>
       </c>
@@ -23753,7 +24032,7 @@
         <v>170</v>
       </c>
       <c r="D781" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O781">
         <v>0.8080000000000001</v>
@@ -23785,7 +24064,7 @@
         <v>171</v>
       </c>
       <c r="D782" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O782">
         <v>0.727</v>
@@ -23817,7 +24096,7 @@
         <v>172</v>
       </c>
       <c r="D783" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O783">
         <v>0.465</v>
@@ -23849,7 +24128,7 @@
         <v>173</v>
       </c>
       <c r="D784" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O784">
         <v>0.971</v>
@@ -23901,7 +24180,7 @@
         <v>170</v>
       </c>
       <c r="D786" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H786">
         <v>0.6899999999999999</v>
@@ -23921,7 +24200,7 @@
         <v>171</v>
       </c>
       <c r="D787" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I787">
         <v>1</v>
@@ -23938,7 +24217,7 @@
         <v>173</v>
       </c>
       <c r="D788" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H788">
         <v>0.9379999999999999</v>
@@ -24045,6 +24324,9 @@
       <c r="C791" t="s">
         <v>169</v>
       </c>
+      <c r="D791" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P791">
         <v>0.5590000000000001</v>
       </c>
@@ -24069,7 +24351,7 @@
         <v>170</v>
       </c>
       <c r="D792" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J792">
         <v>0.994</v>
@@ -24116,7 +24398,7 @@
         <v>171</v>
       </c>
       <c r="D793" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O793">
         <v>0.5</v>
@@ -24148,7 +24430,7 @@
         <v>172</v>
       </c>
       <c r="D794" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J794">
         <v>0.672</v>
@@ -24195,7 +24477,7 @@
         <v>173</v>
       </c>
       <c r="D795" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J795">
         <v>0.391</v>
@@ -24258,6 +24540,9 @@
       <c r="C797" t="s">
         <v>169</v>
       </c>
+      <c r="D797" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H797">
         <v>0.497</v>
       </c>
@@ -24273,7 +24558,7 @@
         <v>170</v>
       </c>
       <c r="D798" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H798">
         <v>0.636</v>
@@ -24290,7 +24575,7 @@
         <v>172</v>
       </c>
       <c r="D799" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H799">
         <v>0.649</v>
@@ -24307,7 +24592,7 @@
         <v>173</v>
       </c>
       <c r="D800" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H800">
         <v>0.929</v>
@@ -24423,6 +24708,9 @@
       <c r="C803" t="s">
         <v>169</v>
       </c>
+      <c r="D803" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P803">
         <v>0.504</v>
       </c>
@@ -24447,7 +24735,7 @@
         <v>170</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H804">
         <v>0.642</v>
@@ -24500,7 +24788,7 @@
         <v>171</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I805">
         <v>0.8090000000000001</v>
@@ -24538,7 +24826,7 @@
         <v>172</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J806">
         <v>0.521</v>
@@ -24585,7 +24873,7 @@
         <v>173</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H807">
         <v>0.891</v>
@@ -24686,6 +24974,9 @@
       <c r="C810" t="s">
         <v>169</v>
       </c>
+      <c r="D810" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P810">
         <v>0.513</v>
       </c>
@@ -24707,7 +24998,7 @@
         <v>170</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O811">
         <v>0.837</v>
@@ -24733,7 +25024,7 @@
         <v>171</v>
       </c>
       <c r="D812" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O812">
         <v>0.699</v>
@@ -24759,7 +25050,7 @@
         <v>172</v>
       </c>
       <c r="D813" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O813">
         <v>0.429</v>
@@ -24785,7 +25076,7 @@
         <v>173</v>
       </c>
       <c r="D814" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O814">
         <v>0.981</v>
@@ -24836,6 +25127,9 @@
       <c r="C816" t="s">
         <v>169</v>
       </c>
+      <c r="D816" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H816">
         <v>0.553</v>
       </c>
@@ -24851,7 +25145,7 @@
         <v>170</v>
       </c>
       <c r="D817" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G817">
         <v>0.8179999999999999</v>
@@ -24877,7 +25171,7 @@
         <v>171</v>
       </c>
       <c r="D818" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I818">
         <v>0.509</v>
@@ -24897,7 +25191,7 @@
         <v>172</v>
       </c>
       <c r="D819" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H819">
         <v>0.603</v>
@@ -24914,7 +25208,7 @@
         <v>173</v>
       </c>
       <c r="D820" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G820">
         <v>0.787</v>
@@ -25021,6 +25315,9 @@
       <c r="C823" t="s">
         <v>169</v>
       </c>
+      <c r="D823" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P823">
         <v>0.519</v>
       </c>
@@ -25042,7 +25339,7 @@
         <v>170</v>
       </c>
       <c r="D824" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J824">
         <v>0.6899999999999999</v>
@@ -25083,7 +25380,7 @@
         <v>171</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J825">
         <v>0.773</v>
@@ -25112,7 +25409,7 @@
         <v>172</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J826">
         <v>0.495</v>
@@ -25153,7 +25450,7 @@
         <v>173</v>
       </c>
       <c r="D827" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J827">
         <v>0.982</v>
@@ -25210,6 +25507,9 @@
       <c r="C829" t="s">
         <v>169</v>
       </c>
+      <c r="D829" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H829">
         <v>0.869</v>
       </c>
@@ -25225,7 +25525,7 @@
         <v>170</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H830">
         <v>0.581</v>
@@ -25242,7 +25542,7 @@
         <v>172</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H831">
         <v>0.735</v>
@@ -25259,7 +25559,7 @@
         <v>173</v>
       </c>
       <c r="D832" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H832">
         <v>0.435</v>
@@ -25354,6 +25654,9 @@
       <c r="C835" t="s">
         <v>169</v>
       </c>
+      <c r="D835" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H835">
         <v>0.468</v>
       </c>
@@ -25369,7 +25672,7 @@
         <v>170</v>
       </c>
       <c r="D836" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E836">
         <v>0.482</v>
@@ -25416,7 +25719,7 @@
         <v>171</v>
       </c>
       <c r="D837" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I837">
         <v>0.783</v>
@@ -25436,7 +25739,7 @@
         <v>172</v>
       </c>
       <c r="D838" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H838">
         <v>0.628</v>
@@ -25471,7 +25774,7 @@
         <v>173</v>
       </c>
       <c r="D839" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E839">
         <v>0.977</v>
@@ -25576,7 +25879,7 @@
         <v>170</v>
       </c>
       <c r="D842" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K842">
         <v>0.969</v>
@@ -25605,7 +25908,7 @@
         <v>172</v>
       </c>
       <c r="D843" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K843">
         <v>0.609</v>
@@ -25634,7 +25937,7 @@
         <v>173</v>
       </c>
       <c r="D844" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K844">
         <v>0.704</v>
@@ -25729,6 +26032,9 @@
       <c r="C847" t="s">
         <v>169</v>
       </c>
+      <c r="D847" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P847">
         <v>0.732</v>
       </c>
@@ -25753,7 +26059,7 @@
         <v>170</v>
       </c>
       <c r="D848" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J848">
         <v>0.491</v>
@@ -25788,7 +26094,7 @@
         <v>171</v>
       </c>
       <c r="D849" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O849">
         <v>0.582</v>
@@ -25820,7 +26126,7 @@
         <v>172</v>
       </c>
       <c r="D850" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J850">
         <v>0.8110000000000001</v>
@@ -25855,7 +26161,7 @@
         <v>173</v>
       </c>
       <c r="D851" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J851">
         <v>0.439</v>
@@ -25921,6 +26227,9 @@
       <c r="C853" t="s">
         <v>169</v>
       </c>
+      <c r="D853" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="H853">
         <v>0.638</v>
       </c>
@@ -25936,7 +26245,7 @@
         <v>170</v>
       </c>
       <c r="D854" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E854">
         <v>0.955</v>
@@ -25968,7 +26277,7 @@
         <v>171</v>
       </c>
       <c r="D855" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I855">
         <v>0.805</v>
@@ -25988,7 +26297,7 @@
         <v>172</v>
       </c>
       <c r="D856" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H856">
         <v>0.594</v>
@@ -26005,7 +26314,7 @@
         <v>173</v>
       </c>
       <c r="D857" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E857">
         <v>0.572</v>
@@ -26130,6 +26439,9 @@
       <c r="C860" t="s">
         <v>169</v>
       </c>
+      <c r="D860" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="P860">
         <v>0.62</v>
       </c>
@@ -26154,7 +26466,7 @@
         <v>170</v>
       </c>
       <c r="D861" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J861">
         <v>0.971</v>
@@ -26201,7 +26513,7 @@
         <v>171</v>
       </c>
       <c r="D862" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O862">
         <v>0.586</v>
@@ -26233,7 +26545,7 @@
         <v>172</v>
       </c>
       <c r="D863" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J863">
         <v>0.593</v>
@@ -26280,7 +26592,7 @@
         <v>173</v>
       </c>
       <c r="D864" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J864">
         <v>0.669</v>
@@ -26391,7 +26703,7 @@
         <v>170</v>
       </c>
       <c r="D867" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J867">
         <v>0.972</v>
@@ -26423,7 +26735,7 @@
         <v>172</v>
       </c>
       <c r="D868" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J868">
         <v>0.582</v>
@@ -26455,7 +26767,7 @@
         <v>173</v>
       </c>
       <c r="D869" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J869">
         <v>0.674</v>
@@ -26480,769 +26792,872 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="D12" r:id="rId10"/>
-    <hyperlink ref="D13" r:id="rId11"/>
-    <hyperlink ref="D14" r:id="rId12"/>
-    <hyperlink ref="D16" r:id="rId13"/>
-    <hyperlink ref="D17" r:id="rId14"/>
-    <hyperlink ref="D18" r:id="rId15"/>
-    <hyperlink ref="D19" r:id="rId16"/>
-    <hyperlink ref="D20" r:id="rId17"/>
-    <hyperlink ref="D22" r:id="rId18"/>
-    <hyperlink ref="D23" r:id="rId19"/>
-    <hyperlink ref="D24" r:id="rId20"/>
-    <hyperlink ref="D25" r:id="rId21"/>
-    <hyperlink ref="D26" r:id="rId22"/>
-    <hyperlink ref="D28" r:id="rId23"/>
-    <hyperlink ref="D29" r:id="rId24"/>
-    <hyperlink ref="D30" r:id="rId25"/>
-    <hyperlink ref="D31" r:id="rId26"/>
-    <hyperlink ref="D32" r:id="rId27"/>
-    <hyperlink ref="D33" r:id="rId28"/>
-    <hyperlink ref="D34" r:id="rId29"/>
-    <hyperlink ref="D35" r:id="rId30"/>
-    <hyperlink ref="D37" r:id="rId31"/>
-    <hyperlink ref="D38" r:id="rId32"/>
-    <hyperlink ref="D39" r:id="rId33"/>
-    <hyperlink ref="D40" r:id="rId34"/>
-    <hyperlink ref="D41" r:id="rId35"/>
-    <hyperlink ref="D42" r:id="rId36"/>
-    <hyperlink ref="D43" r:id="rId37"/>
-    <hyperlink ref="D44" r:id="rId38"/>
-    <hyperlink ref="D45" r:id="rId39"/>
-    <hyperlink ref="D47" r:id="rId40"/>
-    <hyperlink ref="D48" r:id="rId41"/>
-    <hyperlink ref="D49" r:id="rId42"/>
-    <hyperlink ref="D50" r:id="rId43"/>
-    <hyperlink ref="D51" r:id="rId44"/>
-    <hyperlink ref="D52" r:id="rId45"/>
-    <hyperlink ref="D54" r:id="rId46"/>
-    <hyperlink ref="D55" r:id="rId47"/>
-    <hyperlink ref="D56" r:id="rId48"/>
-    <hyperlink ref="D57" r:id="rId49"/>
-    <hyperlink ref="D58" r:id="rId50"/>
-    <hyperlink ref="D59" r:id="rId51"/>
-    <hyperlink ref="D61" r:id="rId52"/>
-    <hyperlink ref="D62" r:id="rId53"/>
-    <hyperlink ref="D63" r:id="rId54"/>
-    <hyperlink ref="D64" r:id="rId55"/>
-    <hyperlink ref="D65" r:id="rId56"/>
-    <hyperlink ref="D66" r:id="rId57"/>
-    <hyperlink ref="D68" r:id="rId58"/>
-    <hyperlink ref="D69" r:id="rId59"/>
-    <hyperlink ref="D70" r:id="rId60"/>
-    <hyperlink ref="D71" r:id="rId61"/>
-    <hyperlink ref="D72" r:id="rId62"/>
-    <hyperlink ref="D74" r:id="rId63"/>
-    <hyperlink ref="D75" r:id="rId64"/>
-    <hyperlink ref="D76" r:id="rId65"/>
-    <hyperlink ref="D77" r:id="rId66"/>
-    <hyperlink ref="D78" r:id="rId67"/>
-    <hyperlink ref="D80" r:id="rId68"/>
-    <hyperlink ref="D81" r:id="rId69"/>
-    <hyperlink ref="D82" r:id="rId70"/>
-    <hyperlink ref="D83" r:id="rId71"/>
-    <hyperlink ref="D84" r:id="rId72"/>
-    <hyperlink ref="D86" r:id="rId73"/>
-    <hyperlink ref="D87" r:id="rId74"/>
-    <hyperlink ref="D88" r:id="rId75"/>
-    <hyperlink ref="D89" r:id="rId76"/>
-    <hyperlink ref="D90" r:id="rId77"/>
-    <hyperlink ref="D91" r:id="rId78"/>
-    <hyperlink ref="D93" r:id="rId79"/>
-    <hyperlink ref="D94" r:id="rId80"/>
-    <hyperlink ref="D95" r:id="rId81"/>
-    <hyperlink ref="D96" r:id="rId82"/>
-    <hyperlink ref="D97" r:id="rId83"/>
-    <hyperlink ref="D98" r:id="rId84"/>
-    <hyperlink ref="D100" r:id="rId85"/>
-    <hyperlink ref="D101" r:id="rId86"/>
-    <hyperlink ref="D102" r:id="rId87"/>
-    <hyperlink ref="D103" r:id="rId88"/>
-    <hyperlink ref="D104" r:id="rId89"/>
-    <hyperlink ref="D105" r:id="rId90"/>
-    <hyperlink ref="D107" r:id="rId91"/>
-    <hyperlink ref="D108" r:id="rId92"/>
-    <hyperlink ref="D109" r:id="rId93"/>
-    <hyperlink ref="D110" r:id="rId94"/>
-    <hyperlink ref="D111" r:id="rId95"/>
-    <hyperlink ref="D112" r:id="rId96"/>
-    <hyperlink ref="D114" r:id="rId97"/>
-    <hyperlink ref="D115" r:id="rId98"/>
-    <hyperlink ref="D116" r:id="rId99"/>
-    <hyperlink ref="D117" r:id="rId100"/>
-    <hyperlink ref="D118" r:id="rId101"/>
-    <hyperlink ref="D119" r:id="rId102"/>
-    <hyperlink ref="D120" r:id="rId103"/>
-    <hyperlink ref="D121" r:id="rId104"/>
-    <hyperlink ref="D122" r:id="rId105"/>
-    <hyperlink ref="D123" r:id="rId106"/>
-    <hyperlink ref="D125" r:id="rId107"/>
-    <hyperlink ref="D126" r:id="rId108"/>
-    <hyperlink ref="D127" r:id="rId109"/>
-    <hyperlink ref="D128" r:id="rId110"/>
-    <hyperlink ref="D129" r:id="rId111"/>
-    <hyperlink ref="D130" r:id="rId112"/>
-    <hyperlink ref="D131" r:id="rId113"/>
-    <hyperlink ref="D132" r:id="rId114"/>
-    <hyperlink ref="D133" r:id="rId115"/>
-    <hyperlink ref="D134" r:id="rId116"/>
-    <hyperlink ref="D136" r:id="rId117"/>
-    <hyperlink ref="D137" r:id="rId118"/>
-    <hyperlink ref="D138" r:id="rId119"/>
-    <hyperlink ref="D139" r:id="rId120"/>
-    <hyperlink ref="D140" r:id="rId121"/>
-    <hyperlink ref="D142" r:id="rId122"/>
-    <hyperlink ref="D143" r:id="rId123"/>
-    <hyperlink ref="D144" r:id="rId124"/>
-    <hyperlink ref="D145" r:id="rId125"/>
-    <hyperlink ref="D146" r:id="rId126"/>
-    <hyperlink ref="D148" r:id="rId127"/>
-    <hyperlink ref="D149" r:id="rId128"/>
-    <hyperlink ref="D150" r:id="rId129"/>
-    <hyperlink ref="D151" r:id="rId130"/>
-    <hyperlink ref="D152" r:id="rId131"/>
-    <hyperlink ref="D154" r:id="rId132"/>
-    <hyperlink ref="D155" r:id="rId133"/>
-    <hyperlink ref="D156" r:id="rId134"/>
-    <hyperlink ref="D157" r:id="rId135"/>
-    <hyperlink ref="D158" r:id="rId136"/>
-    <hyperlink ref="D159" r:id="rId137"/>
-    <hyperlink ref="D161" r:id="rId138"/>
-    <hyperlink ref="D162" r:id="rId139"/>
-    <hyperlink ref="D163" r:id="rId140"/>
-    <hyperlink ref="D164" r:id="rId141"/>
-    <hyperlink ref="D165" r:id="rId142"/>
-    <hyperlink ref="D166" r:id="rId143"/>
-    <hyperlink ref="D168" r:id="rId144"/>
-    <hyperlink ref="D169" r:id="rId145"/>
-    <hyperlink ref="D170" r:id="rId146"/>
-    <hyperlink ref="D171" r:id="rId147"/>
-    <hyperlink ref="D172" r:id="rId148"/>
-    <hyperlink ref="D173" r:id="rId149"/>
-    <hyperlink ref="D175" r:id="rId150"/>
-    <hyperlink ref="D176" r:id="rId151"/>
-    <hyperlink ref="D177" r:id="rId152"/>
-    <hyperlink ref="D178" r:id="rId153"/>
-    <hyperlink ref="D179" r:id="rId154"/>
-    <hyperlink ref="D180" r:id="rId155"/>
-    <hyperlink ref="D182" r:id="rId156"/>
-    <hyperlink ref="D183" r:id="rId157"/>
-    <hyperlink ref="D184" r:id="rId158"/>
-    <hyperlink ref="D185" r:id="rId159"/>
-    <hyperlink ref="D186" r:id="rId160"/>
-    <hyperlink ref="D187" r:id="rId161"/>
-    <hyperlink ref="D188" r:id="rId162"/>
-    <hyperlink ref="D189" r:id="rId163"/>
-    <hyperlink ref="D190" r:id="rId164"/>
-    <hyperlink ref="D191" r:id="rId165"/>
-    <hyperlink ref="D192" r:id="rId166"/>
-    <hyperlink ref="D193" r:id="rId167"/>
-    <hyperlink ref="D194" r:id="rId168"/>
-    <hyperlink ref="D195" r:id="rId169"/>
-    <hyperlink ref="D196" r:id="rId170"/>
-    <hyperlink ref="D198" r:id="rId171"/>
-    <hyperlink ref="D199" r:id="rId172"/>
-    <hyperlink ref="D200" r:id="rId173"/>
-    <hyperlink ref="D201" r:id="rId174"/>
-    <hyperlink ref="D202" r:id="rId175"/>
-    <hyperlink ref="D203" r:id="rId176"/>
-    <hyperlink ref="D204" r:id="rId177"/>
-    <hyperlink ref="D205" r:id="rId178"/>
-    <hyperlink ref="D206" r:id="rId179"/>
-    <hyperlink ref="D207" r:id="rId180"/>
-    <hyperlink ref="D209" r:id="rId181"/>
-    <hyperlink ref="D210" r:id="rId182"/>
-    <hyperlink ref="D211" r:id="rId183"/>
-    <hyperlink ref="D212" r:id="rId184"/>
-    <hyperlink ref="D213" r:id="rId185"/>
-    <hyperlink ref="D214" r:id="rId186"/>
-    <hyperlink ref="D216" r:id="rId187"/>
-    <hyperlink ref="D217" r:id="rId188"/>
-    <hyperlink ref="D218" r:id="rId189"/>
-    <hyperlink ref="D219" r:id="rId190"/>
-    <hyperlink ref="D220" r:id="rId191"/>
-    <hyperlink ref="D221" r:id="rId192"/>
-    <hyperlink ref="D222" r:id="rId193"/>
-    <hyperlink ref="D223" r:id="rId194"/>
-    <hyperlink ref="D224" r:id="rId195"/>
-    <hyperlink ref="D225" r:id="rId196"/>
-    <hyperlink ref="D227" r:id="rId197"/>
-    <hyperlink ref="D228" r:id="rId198"/>
-    <hyperlink ref="D229" r:id="rId199"/>
-    <hyperlink ref="D230" r:id="rId200"/>
-    <hyperlink ref="D231" r:id="rId201"/>
-    <hyperlink ref="D233" r:id="rId202"/>
-    <hyperlink ref="D234" r:id="rId203"/>
-    <hyperlink ref="D235" r:id="rId204"/>
-    <hyperlink ref="D236" r:id="rId205"/>
-    <hyperlink ref="D237" r:id="rId206"/>
-    <hyperlink ref="D238" r:id="rId207"/>
-    <hyperlink ref="D240" r:id="rId208"/>
-    <hyperlink ref="D241" r:id="rId209"/>
-    <hyperlink ref="D242" r:id="rId210"/>
-    <hyperlink ref="D243" r:id="rId211"/>
-    <hyperlink ref="D244" r:id="rId212"/>
-    <hyperlink ref="D245" r:id="rId213"/>
-    <hyperlink ref="D246" r:id="rId214"/>
-    <hyperlink ref="D247" r:id="rId215"/>
-    <hyperlink ref="D248" r:id="rId216"/>
-    <hyperlink ref="D249" r:id="rId217"/>
-    <hyperlink ref="D250" r:id="rId218"/>
-    <hyperlink ref="D251" r:id="rId219"/>
-    <hyperlink ref="D252" r:id="rId220"/>
-    <hyperlink ref="D254" r:id="rId221"/>
-    <hyperlink ref="D255" r:id="rId222"/>
-    <hyperlink ref="D256" r:id="rId223"/>
-    <hyperlink ref="D257" r:id="rId224"/>
-    <hyperlink ref="D258" r:id="rId225"/>
-    <hyperlink ref="D260" r:id="rId226"/>
-    <hyperlink ref="D261" r:id="rId227"/>
-    <hyperlink ref="D262" r:id="rId228"/>
-    <hyperlink ref="D263" r:id="rId229"/>
-    <hyperlink ref="D264" r:id="rId230"/>
-    <hyperlink ref="D265" r:id="rId231"/>
-    <hyperlink ref="D266" r:id="rId232"/>
-    <hyperlink ref="D267" r:id="rId233"/>
-    <hyperlink ref="D268" r:id="rId234"/>
-    <hyperlink ref="D269" r:id="rId235"/>
-    <hyperlink ref="D270" r:id="rId236"/>
-    <hyperlink ref="D272" r:id="rId237"/>
-    <hyperlink ref="D273" r:id="rId238"/>
-    <hyperlink ref="D274" r:id="rId239"/>
-    <hyperlink ref="D275" r:id="rId240"/>
-    <hyperlink ref="D276" r:id="rId241"/>
-    <hyperlink ref="D277" r:id="rId242"/>
-    <hyperlink ref="D278" r:id="rId243"/>
-    <hyperlink ref="D279" r:id="rId244"/>
-    <hyperlink ref="D280" r:id="rId245"/>
-    <hyperlink ref="D282" r:id="rId246"/>
-    <hyperlink ref="D283" r:id="rId247"/>
-    <hyperlink ref="D284" r:id="rId248"/>
-    <hyperlink ref="D285" r:id="rId249"/>
-    <hyperlink ref="D286" r:id="rId250"/>
-    <hyperlink ref="D287" r:id="rId251"/>
-    <hyperlink ref="D289" r:id="rId252"/>
-    <hyperlink ref="D290" r:id="rId253"/>
-    <hyperlink ref="D291" r:id="rId254"/>
-    <hyperlink ref="D292" r:id="rId255"/>
-    <hyperlink ref="D293" r:id="rId256"/>
-    <hyperlink ref="D294" r:id="rId257"/>
-    <hyperlink ref="D295" r:id="rId258"/>
-    <hyperlink ref="D296" r:id="rId259"/>
-    <hyperlink ref="D297" r:id="rId260"/>
-    <hyperlink ref="D298" r:id="rId261"/>
-    <hyperlink ref="D299" r:id="rId262"/>
-    <hyperlink ref="D300" r:id="rId263"/>
-    <hyperlink ref="D301" r:id="rId264"/>
-    <hyperlink ref="D302" r:id="rId265"/>
-    <hyperlink ref="D303" r:id="rId266"/>
-    <hyperlink ref="D304" r:id="rId267"/>
-    <hyperlink ref="D306" r:id="rId268"/>
-    <hyperlink ref="D307" r:id="rId269"/>
-    <hyperlink ref="D308" r:id="rId270"/>
-    <hyperlink ref="D309" r:id="rId271"/>
-    <hyperlink ref="D310" r:id="rId272"/>
-    <hyperlink ref="D311" r:id="rId273"/>
-    <hyperlink ref="D312" r:id="rId274"/>
-    <hyperlink ref="D313" r:id="rId275"/>
-    <hyperlink ref="D314" r:id="rId276"/>
-    <hyperlink ref="D315" r:id="rId277"/>
-    <hyperlink ref="D316" r:id="rId278"/>
-    <hyperlink ref="D317" r:id="rId279"/>
-    <hyperlink ref="D318" r:id="rId280"/>
-    <hyperlink ref="D319" r:id="rId281"/>
-    <hyperlink ref="D320" r:id="rId282"/>
-    <hyperlink ref="D322" r:id="rId283"/>
-    <hyperlink ref="D323" r:id="rId284"/>
-    <hyperlink ref="D324" r:id="rId285"/>
-    <hyperlink ref="D325" r:id="rId286"/>
-    <hyperlink ref="D326" r:id="rId287"/>
-    <hyperlink ref="D328" r:id="rId288"/>
-    <hyperlink ref="D329" r:id="rId289"/>
-    <hyperlink ref="D330" r:id="rId290"/>
-    <hyperlink ref="D331" r:id="rId291"/>
-    <hyperlink ref="D332" r:id="rId292"/>
-    <hyperlink ref="D333" r:id="rId293"/>
-    <hyperlink ref="D334" r:id="rId294"/>
-    <hyperlink ref="D335" r:id="rId295"/>
-    <hyperlink ref="D336" r:id="rId296"/>
-    <hyperlink ref="D337" r:id="rId297"/>
-    <hyperlink ref="D338" r:id="rId298"/>
-    <hyperlink ref="D339" r:id="rId299"/>
-    <hyperlink ref="D340" r:id="rId300"/>
-    <hyperlink ref="D341" r:id="rId301"/>
-    <hyperlink ref="D342" r:id="rId302"/>
-    <hyperlink ref="D343" r:id="rId303"/>
-    <hyperlink ref="D344" r:id="rId304"/>
-    <hyperlink ref="D345" r:id="rId305"/>
-    <hyperlink ref="D346" r:id="rId306"/>
-    <hyperlink ref="D347" r:id="rId307"/>
-    <hyperlink ref="D348" r:id="rId308"/>
-    <hyperlink ref="D349" r:id="rId309"/>
-    <hyperlink ref="D350" r:id="rId310"/>
-    <hyperlink ref="D352" r:id="rId311"/>
-    <hyperlink ref="D353" r:id="rId312"/>
-    <hyperlink ref="D354" r:id="rId313"/>
-    <hyperlink ref="D355" r:id="rId314"/>
-    <hyperlink ref="D357" r:id="rId315"/>
-    <hyperlink ref="D358" r:id="rId316"/>
-    <hyperlink ref="D359" r:id="rId317"/>
-    <hyperlink ref="D360" r:id="rId318"/>
-    <hyperlink ref="D361" r:id="rId319"/>
-    <hyperlink ref="D362" r:id="rId320"/>
-    <hyperlink ref="D364" r:id="rId321"/>
-    <hyperlink ref="D365" r:id="rId322"/>
-    <hyperlink ref="D366" r:id="rId323"/>
-    <hyperlink ref="D367" r:id="rId324"/>
-    <hyperlink ref="D368" r:id="rId325"/>
-    <hyperlink ref="D369" r:id="rId326"/>
-    <hyperlink ref="D371" r:id="rId327"/>
-    <hyperlink ref="D372" r:id="rId328"/>
-    <hyperlink ref="D373" r:id="rId329"/>
-    <hyperlink ref="D374" r:id="rId330"/>
-    <hyperlink ref="D375" r:id="rId331"/>
-    <hyperlink ref="D376" r:id="rId332"/>
-    <hyperlink ref="D377" r:id="rId333"/>
-    <hyperlink ref="D378" r:id="rId334"/>
-    <hyperlink ref="D380" r:id="rId335"/>
-    <hyperlink ref="D381" r:id="rId336"/>
-    <hyperlink ref="D382" r:id="rId337"/>
-    <hyperlink ref="D383" r:id="rId338"/>
-    <hyperlink ref="D384" r:id="rId339"/>
-    <hyperlink ref="D386" r:id="rId340"/>
-    <hyperlink ref="D387" r:id="rId341"/>
-    <hyperlink ref="D388" r:id="rId342"/>
-    <hyperlink ref="D389" r:id="rId343"/>
-    <hyperlink ref="D390" r:id="rId344"/>
-    <hyperlink ref="D392" r:id="rId345"/>
-    <hyperlink ref="D393" r:id="rId346"/>
-    <hyperlink ref="D394" r:id="rId347"/>
-    <hyperlink ref="D395" r:id="rId348"/>
-    <hyperlink ref="D396" r:id="rId349"/>
-    <hyperlink ref="D397" r:id="rId350"/>
-    <hyperlink ref="D398" r:id="rId351"/>
-    <hyperlink ref="D399" r:id="rId352"/>
-    <hyperlink ref="D400" r:id="rId353"/>
-    <hyperlink ref="D401" r:id="rId354"/>
-    <hyperlink ref="D402" r:id="rId355"/>
-    <hyperlink ref="D403" r:id="rId356"/>
-    <hyperlink ref="D404" r:id="rId357"/>
-    <hyperlink ref="D405" r:id="rId358"/>
-    <hyperlink ref="D406" r:id="rId359"/>
-    <hyperlink ref="D408" r:id="rId360"/>
-    <hyperlink ref="D409" r:id="rId361"/>
-    <hyperlink ref="D410" r:id="rId362"/>
-    <hyperlink ref="D411" r:id="rId363"/>
-    <hyperlink ref="D412" r:id="rId364"/>
-    <hyperlink ref="D413" r:id="rId365"/>
-    <hyperlink ref="D414" r:id="rId366"/>
-    <hyperlink ref="D415" r:id="rId367"/>
-    <hyperlink ref="D416" r:id="rId368"/>
-    <hyperlink ref="D417" r:id="rId369"/>
-    <hyperlink ref="D418" r:id="rId370"/>
-    <hyperlink ref="D419" r:id="rId371"/>
-    <hyperlink ref="D420" r:id="rId372"/>
-    <hyperlink ref="D421" r:id="rId373"/>
-    <hyperlink ref="D423" r:id="rId374"/>
-    <hyperlink ref="D424" r:id="rId375"/>
-    <hyperlink ref="D425" r:id="rId376"/>
-    <hyperlink ref="D426" r:id="rId377"/>
-    <hyperlink ref="D427" r:id="rId378"/>
-    <hyperlink ref="D428" r:id="rId379"/>
-    <hyperlink ref="D430" r:id="rId380"/>
-    <hyperlink ref="D431" r:id="rId381"/>
-    <hyperlink ref="D432" r:id="rId382"/>
-    <hyperlink ref="D433" r:id="rId383"/>
-    <hyperlink ref="D434" r:id="rId384"/>
-    <hyperlink ref="D435" r:id="rId385"/>
-    <hyperlink ref="D437" r:id="rId386"/>
-    <hyperlink ref="D438" r:id="rId387"/>
-    <hyperlink ref="D439" r:id="rId388"/>
-    <hyperlink ref="D440" r:id="rId389"/>
-    <hyperlink ref="D441" r:id="rId390"/>
-    <hyperlink ref="D442" r:id="rId391"/>
-    <hyperlink ref="D443" r:id="rId392"/>
-    <hyperlink ref="D444" r:id="rId393"/>
-    <hyperlink ref="D445" r:id="rId394"/>
-    <hyperlink ref="D446" r:id="rId395"/>
-    <hyperlink ref="D447" r:id="rId396"/>
-    <hyperlink ref="D449" r:id="rId397"/>
-    <hyperlink ref="D450" r:id="rId398"/>
-    <hyperlink ref="D451" r:id="rId399"/>
-    <hyperlink ref="D452" r:id="rId400"/>
-    <hyperlink ref="D453" r:id="rId401"/>
-    <hyperlink ref="D455" r:id="rId402"/>
-    <hyperlink ref="D456" r:id="rId403"/>
-    <hyperlink ref="D457" r:id="rId404"/>
-    <hyperlink ref="D458" r:id="rId405"/>
-    <hyperlink ref="D459" r:id="rId406"/>
-    <hyperlink ref="D460" r:id="rId407"/>
-    <hyperlink ref="D462" r:id="rId408"/>
-    <hyperlink ref="D463" r:id="rId409"/>
-    <hyperlink ref="D464" r:id="rId410"/>
-    <hyperlink ref="D465" r:id="rId411"/>
-    <hyperlink ref="D466" r:id="rId412"/>
-    <hyperlink ref="D467" r:id="rId413"/>
-    <hyperlink ref="D468" r:id="rId414"/>
-    <hyperlink ref="D469" r:id="rId415"/>
-    <hyperlink ref="D470" r:id="rId416"/>
-    <hyperlink ref="D471" r:id="rId417"/>
-    <hyperlink ref="D472" r:id="rId418"/>
-    <hyperlink ref="D474" r:id="rId419"/>
-    <hyperlink ref="D475" r:id="rId420"/>
-    <hyperlink ref="D476" r:id="rId421"/>
-    <hyperlink ref="D477" r:id="rId422"/>
-    <hyperlink ref="D478" r:id="rId423"/>
-    <hyperlink ref="D480" r:id="rId424"/>
-    <hyperlink ref="D481" r:id="rId425"/>
-    <hyperlink ref="D482" r:id="rId426"/>
-    <hyperlink ref="D483" r:id="rId427"/>
-    <hyperlink ref="D484" r:id="rId428"/>
-    <hyperlink ref="D485" r:id="rId429"/>
-    <hyperlink ref="D486" r:id="rId430"/>
-    <hyperlink ref="D487" r:id="rId431"/>
-    <hyperlink ref="D488" r:id="rId432"/>
-    <hyperlink ref="D489" r:id="rId433"/>
-    <hyperlink ref="D491" r:id="rId434"/>
-    <hyperlink ref="D492" r:id="rId435"/>
-    <hyperlink ref="D493" r:id="rId436"/>
-    <hyperlink ref="D494" r:id="rId437"/>
-    <hyperlink ref="D495" r:id="rId438"/>
-    <hyperlink ref="D496" r:id="rId439"/>
-    <hyperlink ref="D498" r:id="rId440"/>
-    <hyperlink ref="D499" r:id="rId441"/>
-    <hyperlink ref="D500" r:id="rId442"/>
-    <hyperlink ref="D501" r:id="rId443"/>
-    <hyperlink ref="D502" r:id="rId444"/>
-    <hyperlink ref="D503" r:id="rId445"/>
-    <hyperlink ref="D505" r:id="rId446"/>
-    <hyperlink ref="D506" r:id="rId447"/>
-    <hyperlink ref="D507" r:id="rId448"/>
-    <hyperlink ref="D508" r:id="rId449"/>
-    <hyperlink ref="D509" r:id="rId450"/>
-    <hyperlink ref="D510" r:id="rId451"/>
-    <hyperlink ref="D512" r:id="rId452"/>
-    <hyperlink ref="D513" r:id="rId453"/>
-    <hyperlink ref="D514" r:id="rId454"/>
-    <hyperlink ref="D515" r:id="rId455"/>
-    <hyperlink ref="D516" r:id="rId456"/>
-    <hyperlink ref="D518" r:id="rId457"/>
-    <hyperlink ref="D519" r:id="rId458"/>
-    <hyperlink ref="D520" r:id="rId459"/>
-    <hyperlink ref="D521" r:id="rId460"/>
-    <hyperlink ref="D522" r:id="rId461"/>
-    <hyperlink ref="D523" r:id="rId462"/>
-    <hyperlink ref="D524" r:id="rId463"/>
-    <hyperlink ref="D525" r:id="rId464"/>
-    <hyperlink ref="D526" r:id="rId465"/>
-    <hyperlink ref="D527" r:id="rId466"/>
-    <hyperlink ref="D529" r:id="rId467"/>
-    <hyperlink ref="D530" r:id="rId468"/>
-    <hyperlink ref="D531" r:id="rId469"/>
-    <hyperlink ref="D532" r:id="rId470"/>
-    <hyperlink ref="D533" r:id="rId471"/>
-    <hyperlink ref="D534" r:id="rId472"/>
-    <hyperlink ref="D536" r:id="rId473"/>
-    <hyperlink ref="D537" r:id="rId474"/>
-    <hyperlink ref="D538" r:id="rId475"/>
-    <hyperlink ref="D539" r:id="rId476"/>
-    <hyperlink ref="D540" r:id="rId477"/>
-    <hyperlink ref="D542" r:id="rId478"/>
-    <hyperlink ref="D543" r:id="rId479"/>
-    <hyperlink ref="D544" r:id="rId480"/>
-    <hyperlink ref="D545" r:id="rId481"/>
-    <hyperlink ref="D546" r:id="rId482"/>
-    <hyperlink ref="D547" r:id="rId483"/>
-    <hyperlink ref="D548" r:id="rId484"/>
-    <hyperlink ref="D549" r:id="rId485"/>
-    <hyperlink ref="D550" r:id="rId486"/>
-    <hyperlink ref="D551" r:id="rId487"/>
-    <hyperlink ref="D553" r:id="rId488"/>
-    <hyperlink ref="D554" r:id="rId489"/>
-    <hyperlink ref="D555" r:id="rId490"/>
-    <hyperlink ref="D556" r:id="rId491"/>
-    <hyperlink ref="D557" r:id="rId492"/>
-    <hyperlink ref="D558" r:id="rId493"/>
-    <hyperlink ref="D559" r:id="rId494"/>
-    <hyperlink ref="D560" r:id="rId495"/>
-    <hyperlink ref="D561" r:id="rId496"/>
-    <hyperlink ref="D562" r:id="rId497"/>
-    <hyperlink ref="D564" r:id="rId498"/>
-    <hyperlink ref="D565" r:id="rId499"/>
-    <hyperlink ref="D566" r:id="rId500"/>
-    <hyperlink ref="D567" r:id="rId501"/>
-    <hyperlink ref="D568" r:id="rId502"/>
-    <hyperlink ref="D569" r:id="rId503"/>
-    <hyperlink ref="D570" r:id="rId504"/>
-    <hyperlink ref="D571" r:id="rId505"/>
-    <hyperlink ref="D572" r:id="rId506"/>
-    <hyperlink ref="D573" r:id="rId507"/>
-    <hyperlink ref="D574" r:id="rId508"/>
-    <hyperlink ref="D576" r:id="rId509"/>
-    <hyperlink ref="D577" r:id="rId510"/>
-    <hyperlink ref="D578" r:id="rId511"/>
-    <hyperlink ref="D579" r:id="rId512"/>
-    <hyperlink ref="D580" r:id="rId513"/>
-    <hyperlink ref="D581" r:id="rId514"/>
-    <hyperlink ref="D583" r:id="rId515"/>
-    <hyperlink ref="D584" r:id="rId516"/>
-    <hyperlink ref="D585" r:id="rId517"/>
-    <hyperlink ref="D586" r:id="rId518"/>
-    <hyperlink ref="D587" r:id="rId519"/>
-    <hyperlink ref="D589" r:id="rId520"/>
-    <hyperlink ref="D590" r:id="rId521"/>
-    <hyperlink ref="D591" r:id="rId522"/>
-    <hyperlink ref="D592" r:id="rId523"/>
-    <hyperlink ref="D593" r:id="rId524"/>
-    <hyperlink ref="D594" r:id="rId525"/>
-    <hyperlink ref="D595" r:id="rId526"/>
-    <hyperlink ref="D596" r:id="rId527"/>
-    <hyperlink ref="D597" r:id="rId528"/>
-    <hyperlink ref="D598" r:id="rId529"/>
-    <hyperlink ref="D599" r:id="rId530"/>
-    <hyperlink ref="D600" r:id="rId531"/>
-    <hyperlink ref="D601" r:id="rId532"/>
-    <hyperlink ref="D603" r:id="rId533"/>
-    <hyperlink ref="D604" r:id="rId534"/>
-    <hyperlink ref="D605" r:id="rId535"/>
-    <hyperlink ref="D606" r:id="rId536"/>
-    <hyperlink ref="D607" r:id="rId537"/>
-    <hyperlink ref="D608" r:id="rId538"/>
-    <hyperlink ref="D610" r:id="rId539"/>
-    <hyperlink ref="D611" r:id="rId540"/>
-    <hyperlink ref="D612" r:id="rId541"/>
-    <hyperlink ref="D613" r:id="rId542"/>
-    <hyperlink ref="D614" r:id="rId543"/>
-    <hyperlink ref="D615" r:id="rId544"/>
-    <hyperlink ref="D616" r:id="rId545"/>
-    <hyperlink ref="D617" r:id="rId546"/>
-    <hyperlink ref="D618" r:id="rId547"/>
-    <hyperlink ref="D619" r:id="rId548"/>
-    <hyperlink ref="D621" r:id="rId549"/>
-    <hyperlink ref="D622" r:id="rId550"/>
-    <hyperlink ref="D623" r:id="rId551"/>
-    <hyperlink ref="D624" r:id="rId552"/>
-    <hyperlink ref="D626" r:id="rId553"/>
-    <hyperlink ref="D627" r:id="rId554"/>
-    <hyperlink ref="D628" r:id="rId555"/>
-    <hyperlink ref="D629" r:id="rId556"/>
-    <hyperlink ref="D630" r:id="rId557"/>
-    <hyperlink ref="D631" r:id="rId558"/>
-    <hyperlink ref="D632" r:id="rId559"/>
-    <hyperlink ref="D633" r:id="rId560"/>
-    <hyperlink ref="D634" r:id="rId561"/>
-    <hyperlink ref="D635" r:id="rId562"/>
-    <hyperlink ref="D636" r:id="rId563"/>
-    <hyperlink ref="D637" r:id="rId564"/>
-    <hyperlink ref="D638" r:id="rId565"/>
-    <hyperlink ref="D639" r:id="rId566"/>
-    <hyperlink ref="D641" r:id="rId567"/>
-    <hyperlink ref="D642" r:id="rId568"/>
-    <hyperlink ref="D643" r:id="rId569"/>
-    <hyperlink ref="D644" r:id="rId570"/>
-    <hyperlink ref="D645" r:id="rId571"/>
-    <hyperlink ref="D646" r:id="rId572"/>
-    <hyperlink ref="D648" r:id="rId573"/>
-    <hyperlink ref="D649" r:id="rId574"/>
-    <hyperlink ref="D650" r:id="rId575"/>
-    <hyperlink ref="D651" r:id="rId576"/>
-    <hyperlink ref="D652" r:id="rId577"/>
-    <hyperlink ref="D654" r:id="rId578"/>
-    <hyperlink ref="D655" r:id="rId579"/>
-    <hyperlink ref="D656" r:id="rId580"/>
-    <hyperlink ref="D657" r:id="rId581"/>
-    <hyperlink ref="D658" r:id="rId582"/>
-    <hyperlink ref="D660" r:id="rId583"/>
-    <hyperlink ref="D661" r:id="rId584"/>
-    <hyperlink ref="D662" r:id="rId585"/>
-    <hyperlink ref="D663" r:id="rId586"/>
-    <hyperlink ref="D665" r:id="rId587"/>
-    <hyperlink ref="D666" r:id="rId588"/>
-    <hyperlink ref="D667" r:id="rId589"/>
-    <hyperlink ref="D668" r:id="rId590"/>
-    <hyperlink ref="D669" r:id="rId591"/>
-    <hyperlink ref="D671" r:id="rId592"/>
-    <hyperlink ref="D672" r:id="rId593"/>
-    <hyperlink ref="D673" r:id="rId594"/>
-    <hyperlink ref="D674" r:id="rId595"/>
-    <hyperlink ref="D675" r:id="rId596"/>
-    <hyperlink ref="D676" r:id="rId597"/>
-    <hyperlink ref="D677" r:id="rId598"/>
-    <hyperlink ref="D678" r:id="rId599"/>
-    <hyperlink ref="D679" r:id="rId600"/>
-    <hyperlink ref="D680" r:id="rId601"/>
-    <hyperlink ref="D681" r:id="rId602"/>
-    <hyperlink ref="D682" r:id="rId603"/>
-    <hyperlink ref="D684" r:id="rId604"/>
-    <hyperlink ref="D685" r:id="rId605"/>
-    <hyperlink ref="D686" r:id="rId606"/>
-    <hyperlink ref="D687" r:id="rId607"/>
-    <hyperlink ref="D688" r:id="rId608"/>
-    <hyperlink ref="D690" r:id="rId609"/>
-    <hyperlink ref="D691" r:id="rId610"/>
-    <hyperlink ref="D692" r:id="rId611"/>
-    <hyperlink ref="D693" r:id="rId612"/>
-    <hyperlink ref="D694" r:id="rId613"/>
-    <hyperlink ref="D695" r:id="rId614"/>
-    <hyperlink ref="D696" r:id="rId615"/>
-    <hyperlink ref="D697" r:id="rId616"/>
-    <hyperlink ref="D698" r:id="rId617"/>
-    <hyperlink ref="D699" r:id="rId618"/>
-    <hyperlink ref="D700" r:id="rId619"/>
-    <hyperlink ref="D701" r:id="rId620"/>
-    <hyperlink ref="D703" r:id="rId621"/>
-    <hyperlink ref="D704" r:id="rId622"/>
-    <hyperlink ref="D705" r:id="rId623"/>
-    <hyperlink ref="D706" r:id="rId624"/>
-    <hyperlink ref="D707" r:id="rId625"/>
-    <hyperlink ref="D708" r:id="rId626"/>
-    <hyperlink ref="D709" r:id="rId627"/>
-    <hyperlink ref="D710" r:id="rId628"/>
-    <hyperlink ref="D711" r:id="rId629"/>
-    <hyperlink ref="D712" r:id="rId630"/>
-    <hyperlink ref="D713" r:id="rId631"/>
-    <hyperlink ref="D714" r:id="rId632"/>
-    <hyperlink ref="D716" r:id="rId633"/>
-    <hyperlink ref="D717" r:id="rId634"/>
-    <hyperlink ref="D718" r:id="rId635"/>
-    <hyperlink ref="D719" r:id="rId636"/>
-    <hyperlink ref="D720" r:id="rId637"/>
-    <hyperlink ref="D722" r:id="rId638"/>
-    <hyperlink ref="D723" r:id="rId639"/>
-    <hyperlink ref="D724" r:id="rId640"/>
-    <hyperlink ref="D725" r:id="rId641"/>
-    <hyperlink ref="D726" r:id="rId642"/>
-    <hyperlink ref="D728" r:id="rId643"/>
-    <hyperlink ref="D729" r:id="rId644"/>
-    <hyperlink ref="D730" r:id="rId645"/>
-    <hyperlink ref="D731" r:id="rId646"/>
-    <hyperlink ref="D732" r:id="rId647"/>
-    <hyperlink ref="D733" r:id="rId648"/>
-    <hyperlink ref="D734" r:id="rId649"/>
-    <hyperlink ref="D735" r:id="rId650"/>
-    <hyperlink ref="D736" r:id="rId651"/>
-    <hyperlink ref="D738" r:id="rId652"/>
-    <hyperlink ref="D739" r:id="rId653"/>
-    <hyperlink ref="D740" r:id="rId654"/>
-    <hyperlink ref="D741" r:id="rId655"/>
-    <hyperlink ref="D742" r:id="rId656"/>
-    <hyperlink ref="D744" r:id="rId657"/>
-    <hyperlink ref="D745" r:id="rId658"/>
-    <hyperlink ref="D746" r:id="rId659"/>
-    <hyperlink ref="D747" r:id="rId660"/>
-    <hyperlink ref="D748" r:id="rId661"/>
-    <hyperlink ref="D750" r:id="rId662"/>
-    <hyperlink ref="D751" r:id="rId663"/>
-    <hyperlink ref="D752" r:id="rId664"/>
-    <hyperlink ref="D753" r:id="rId665"/>
-    <hyperlink ref="D755" r:id="rId666"/>
-    <hyperlink ref="D756" r:id="rId667"/>
-    <hyperlink ref="D757" r:id="rId668"/>
-    <hyperlink ref="D758" r:id="rId669"/>
-    <hyperlink ref="D759" r:id="rId670"/>
-    <hyperlink ref="D760" r:id="rId671"/>
-    <hyperlink ref="D762" r:id="rId672"/>
-    <hyperlink ref="D763" r:id="rId673"/>
-    <hyperlink ref="D764" r:id="rId674"/>
-    <hyperlink ref="D765" r:id="rId675"/>
-    <hyperlink ref="D766" r:id="rId676"/>
-    <hyperlink ref="D767" r:id="rId677"/>
-    <hyperlink ref="D769" r:id="rId678"/>
-    <hyperlink ref="D770" r:id="rId679"/>
-    <hyperlink ref="D771" r:id="rId680"/>
-    <hyperlink ref="D772" r:id="rId681"/>
-    <hyperlink ref="D773" r:id="rId682"/>
-    <hyperlink ref="D775" r:id="rId683"/>
-    <hyperlink ref="D776" r:id="rId684"/>
-    <hyperlink ref="D777" r:id="rId685"/>
-    <hyperlink ref="D778" r:id="rId686"/>
-    <hyperlink ref="D779" r:id="rId687"/>
-    <hyperlink ref="D781" r:id="rId688"/>
-    <hyperlink ref="D782" r:id="rId689"/>
-    <hyperlink ref="D783" r:id="rId690"/>
-    <hyperlink ref="D784" r:id="rId691"/>
-    <hyperlink ref="D785" r:id="rId692"/>
-    <hyperlink ref="D786" r:id="rId693"/>
-    <hyperlink ref="D787" r:id="rId694"/>
-    <hyperlink ref="D788" r:id="rId695"/>
-    <hyperlink ref="D789" r:id="rId696"/>
-    <hyperlink ref="D790" r:id="rId697"/>
-    <hyperlink ref="D792" r:id="rId698"/>
-    <hyperlink ref="D793" r:id="rId699"/>
-    <hyperlink ref="D794" r:id="rId700"/>
-    <hyperlink ref="D795" r:id="rId701"/>
-    <hyperlink ref="D796" r:id="rId702"/>
-    <hyperlink ref="D798" r:id="rId703"/>
-    <hyperlink ref="D799" r:id="rId704"/>
-    <hyperlink ref="D800" r:id="rId705"/>
-    <hyperlink ref="D801" r:id="rId706"/>
-    <hyperlink ref="D802" r:id="rId707"/>
-    <hyperlink ref="D804" r:id="rId708"/>
-    <hyperlink ref="D805" r:id="rId709"/>
-    <hyperlink ref="D806" r:id="rId710"/>
-    <hyperlink ref="D807" r:id="rId711"/>
-    <hyperlink ref="D808" r:id="rId712"/>
-    <hyperlink ref="D809" r:id="rId713"/>
-    <hyperlink ref="D811" r:id="rId714"/>
-    <hyperlink ref="D812" r:id="rId715"/>
-    <hyperlink ref="D813" r:id="rId716"/>
-    <hyperlink ref="D814" r:id="rId717"/>
-    <hyperlink ref="D815" r:id="rId718"/>
-    <hyperlink ref="D817" r:id="rId719"/>
-    <hyperlink ref="D818" r:id="rId720"/>
-    <hyperlink ref="D819" r:id="rId721"/>
-    <hyperlink ref="D820" r:id="rId722"/>
-    <hyperlink ref="D821" r:id="rId723"/>
-    <hyperlink ref="D822" r:id="rId724"/>
-    <hyperlink ref="D824" r:id="rId725"/>
-    <hyperlink ref="D825" r:id="rId726"/>
-    <hyperlink ref="D826" r:id="rId727"/>
-    <hyperlink ref="D827" r:id="rId728"/>
-    <hyperlink ref="D828" r:id="rId729"/>
-    <hyperlink ref="D830" r:id="rId730"/>
-    <hyperlink ref="D831" r:id="rId731"/>
-    <hyperlink ref="D832" r:id="rId732"/>
-    <hyperlink ref="D833" r:id="rId733"/>
-    <hyperlink ref="D834" r:id="rId734"/>
-    <hyperlink ref="D836" r:id="rId735"/>
-    <hyperlink ref="D837" r:id="rId736"/>
-    <hyperlink ref="D838" r:id="rId737"/>
-    <hyperlink ref="D839" r:id="rId738"/>
-    <hyperlink ref="D840" r:id="rId739"/>
-    <hyperlink ref="D841" r:id="rId740"/>
-    <hyperlink ref="D842" r:id="rId741"/>
-    <hyperlink ref="D843" r:id="rId742"/>
-    <hyperlink ref="D844" r:id="rId743"/>
-    <hyperlink ref="D845" r:id="rId744"/>
-    <hyperlink ref="D846" r:id="rId745"/>
-    <hyperlink ref="D848" r:id="rId746"/>
-    <hyperlink ref="D849" r:id="rId747"/>
-    <hyperlink ref="D850" r:id="rId748"/>
-    <hyperlink ref="D851" r:id="rId749"/>
-    <hyperlink ref="D852" r:id="rId750"/>
-    <hyperlink ref="D854" r:id="rId751"/>
-    <hyperlink ref="D855" r:id="rId752"/>
-    <hyperlink ref="D856" r:id="rId753"/>
-    <hyperlink ref="D857" r:id="rId754"/>
-    <hyperlink ref="D858" r:id="rId755"/>
-    <hyperlink ref="D859" r:id="rId756"/>
-    <hyperlink ref="D861" r:id="rId757"/>
-    <hyperlink ref="D862" r:id="rId758"/>
-    <hyperlink ref="D863" r:id="rId759"/>
-    <hyperlink ref="D864" r:id="rId760"/>
-    <hyperlink ref="D865" r:id="rId761"/>
-    <hyperlink ref="D866" r:id="rId762"/>
-    <hyperlink ref="D867" r:id="rId763"/>
-    <hyperlink ref="D868" r:id="rId764"/>
-    <hyperlink ref="D869" r:id="rId765"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
+    <hyperlink ref="D171" r:id="rId170"/>
+    <hyperlink ref="D172" r:id="rId171"/>
+    <hyperlink ref="D173" r:id="rId172"/>
+    <hyperlink ref="D174" r:id="rId173"/>
+    <hyperlink ref="D175" r:id="rId174"/>
+    <hyperlink ref="D176" r:id="rId175"/>
+    <hyperlink ref="D177" r:id="rId176"/>
+    <hyperlink ref="D178" r:id="rId177"/>
+    <hyperlink ref="D179" r:id="rId178"/>
+    <hyperlink ref="D180" r:id="rId179"/>
+    <hyperlink ref="D181" r:id="rId180"/>
+    <hyperlink ref="D182" r:id="rId181"/>
+    <hyperlink ref="D183" r:id="rId182"/>
+    <hyperlink ref="D184" r:id="rId183"/>
+    <hyperlink ref="D185" r:id="rId184"/>
+    <hyperlink ref="D186" r:id="rId185"/>
+    <hyperlink ref="D187" r:id="rId186"/>
+    <hyperlink ref="D188" r:id="rId187"/>
+    <hyperlink ref="D189" r:id="rId188"/>
+    <hyperlink ref="D190" r:id="rId189"/>
+    <hyperlink ref="D191" r:id="rId190"/>
+    <hyperlink ref="D192" r:id="rId191"/>
+    <hyperlink ref="D193" r:id="rId192"/>
+    <hyperlink ref="D194" r:id="rId193"/>
+    <hyperlink ref="D195" r:id="rId194"/>
+    <hyperlink ref="D196" r:id="rId195"/>
+    <hyperlink ref="D197" r:id="rId196"/>
+    <hyperlink ref="D198" r:id="rId197"/>
+    <hyperlink ref="D199" r:id="rId198"/>
+    <hyperlink ref="D200" r:id="rId199"/>
+    <hyperlink ref="D201" r:id="rId200"/>
+    <hyperlink ref="D202" r:id="rId201"/>
+    <hyperlink ref="D203" r:id="rId202"/>
+    <hyperlink ref="D204" r:id="rId203"/>
+    <hyperlink ref="D205" r:id="rId204"/>
+    <hyperlink ref="D206" r:id="rId205"/>
+    <hyperlink ref="D207" r:id="rId206"/>
+    <hyperlink ref="D208" r:id="rId207"/>
+    <hyperlink ref="D209" r:id="rId208"/>
+    <hyperlink ref="D210" r:id="rId209"/>
+    <hyperlink ref="D211" r:id="rId210"/>
+    <hyperlink ref="D212" r:id="rId211"/>
+    <hyperlink ref="D213" r:id="rId212"/>
+    <hyperlink ref="D214" r:id="rId213"/>
+    <hyperlink ref="D215" r:id="rId214"/>
+    <hyperlink ref="D216" r:id="rId215"/>
+    <hyperlink ref="D217" r:id="rId216"/>
+    <hyperlink ref="D218" r:id="rId217"/>
+    <hyperlink ref="D219" r:id="rId218"/>
+    <hyperlink ref="D220" r:id="rId219"/>
+    <hyperlink ref="D221" r:id="rId220"/>
+    <hyperlink ref="D222" r:id="rId221"/>
+    <hyperlink ref="D223" r:id="rId222"/>
+    <hyperlink ref="D224" r:id="rId223"/>
+    <hyperlink ref="D225" r:id="rId224"/>
+    <hyperlink ref="D226" r:id="rId225"/>
+    <hyperlink ref="D227" r:id="rId226"/>
+    <hyperlink ref="D228" r:id="rId227"/>
+    <hyperlink ref="D229" r:id="rId228"/>
+    <hyperlink ref="D230" r:id="rId229"/>
+    <hyperlink ref="D231" r:id="rId230"/>
+    <hyperlink ref="D232" r:id="rId231"/>
+    <hyperlink ref="D233" r:id="rId232"/>
+    <hyperlink ref="D234" r:id="rId233"/>
+    <hyperlink ref="D235" r:id="rId234"/>
+    <hyperlink ref="D236" r:id="rId235"/>
+    <hyperlink ref="D237" r:id="rId236"/>
+    <hyperlink ref="D238" r:id="rId237"/>
+    <hyperlink ref="D239" r:id="rId238"/>
+    <hyperlink ref="D240" r:id="rId239"/>
+    <hyperlink ref="D241" r:id="rId240"/>
+    <hyperlink ref="D242" r:id="rId241"/>
+    <hyperlink ref="D243" r:id="rId242"/>
+    <hyperlink ref="D244" r:id="rId243"/>
+    <hyperlink ref="D245" r:id="rId244"/>
+    <hyperlink ref="D246" r:id="rId245"/>
+    <hyperlink ref="D247" r:id="rId246"/>
+    <hyperlink ref="D248" r:id="rId247"/>
+    <hyperlink ref="D249" r:id="rId248"/>
+    <hyperlink ref="D250" r:id="rId249"/>
+    <hyperlink ref="D251" r:id="rId250"/>
+    <hyperlink ref="D252" r:id="rId251"/>
+    <hyperlink ref="D253" r:id="rId252"/>
+    <hyperlink ref="D254" r:id="rId253"/>
+    <hyperlink ref="D255" r:id="rId254"/>
+    <hyperlink ref="D256" r:id="rId255"/>
+    <hyperlink ref="D257" r:id="rId256"/>
+    <hyperlink ref="D258" r:id="rId257"/>
+    <hyperlink ref="D259" r:id="rId258"/>
+    <hyperlink ref="D260" r:id="rId259"/>
+    <hyperlink ref="D261" r:id="rId260"/>
+    <hyperlink ref="D262" r:id="rId261"/>
+    <hyperlink ref="D263" r:id="rId262"/>
+    <hyperlink ref="D264" r:id="rId263"/>
+    <hyperlink ref="D265" r:id="rId264"/>
+    <hyperlink ref="D266" r:id="rId265"/>
+    <hyperlink ref="D267" r:id="rId266"/>
+    <hyperlink ref="D268" r:id="rId267"/>
+    <hyperlink ref="D269" r:id="rId268"/>
+    <hyperlink ref="D270" r:id="rId269"/>
+    <hyperlink ref="D271" r:id="rId270"/>
+    <hyperlink ref="D272" r:id="rId271"/>
+    <hyperlink ref="D273" r:id="rId272"/>
+    <hyperlink ref="D274" r:id="rId273"/>
+    <hyperlink ref="D275" r:id="rId274"/>
+    <hyperlink ref="D276" r:id="rId275"/>
+    <hyperlink ref="D277" r:id="rId276"/>
+    <hyperlink ref="D278" r:id="rId277"/>
+    <hyperlink ref="D279" r:id="rId278"/>
+    <hyperlink ref="D280" r:id="rId279"/>
+    <hyperlink ref="D281" r:id="rId280"/>
+    <hyperlink ref="D282" r:id="rId281"/>
+    <hyperlink ref="D283" r:id="rId282"/>
+    <hyperlink ref="D284" r:id="rId283"/>
+    <hyperlink ref="D285" r:id="rId284"/>
+    <hyperlink ref="D286" r:id="rId285"/>
+    <hyperlink ref="D287" r:id="rId286"/>
+    <hyperlink ref="D288" r:id="rId287"/>
+    <hyperlink ref="D289" r:id="rId288"/>
+    <hyperlink ref="D290" r:id="rId289"/>
+    <hyperlink ref="D291" r:id="rId290"/>
+    <hyperlink ref="D292" r:id="rId291"/>
+    <hyperlink ref="D293" r:id="rId292"/>
+    <hyperlink ref="D294" r:id="rId293"/>
+    <hyperlink ref="D295" r:id="rId294"/>
+    <hyperlink ref="D296" r:id="rId295"/>
+    <hyperlink ref="D297" r:id="rId296"/>
+    <hyperlink ref="D298" r:id="rId297"/>
+    <hyperlink ref="D299" r:id="rId298"/>
+    <hyperlink ref="D300" r:id="rId299"/>
+    <hyperlink ref="D301" r:id="rId300"/>
+    <hyperlink ref="D302" r:id="rId301"/>
+    <hyperlink ref="D303" r:id="rId302"/>
+    <hyperlink ref="D304" r:id="rId303"/>
+    <hyperlink ref="D305" r:id="rId304"/>
+    <hyperlink ref="D306" r:id="rId305"/>
+    <hyperlink ref="D307" r:id="rId306"/>
+    <hyperlink ref="D308" r:id="rId307"/>
+    <hyperlink ref="D309" r:id="rId308"/>
+    <hyperlink ref="D310" r:id="rId309"/>
+    <hyperlink ref="D311" r:id="rId310"/>
+    <hyperlink ref="D312" r:id="rId311"/>
+    <hyperlink ref="D313" r:id="rId312"/>
+    <hyperlink ref="D314" r:id="rId313"/>
+    <hyperlink ref="D315" r:id="rId314"/>
+    <hyperlink ref="D316" r:id="rId315"/>
+    <hyperlink ref="D317" r:id="rId316"/>
+    <hyperlink ref="D318" r:id="rId317"/>
+    <hyperlink ref="D319" r:id="rId318"/>
+    <hyperlink ref="D320" r:id="rId319"/>
+    <hyperlink ref="D321" r:id="rId320"/>
+    <hyperlink ref="D322" r:id="rId321"/>
+    <hyperlink ref="D323" r:id="rId322"/>
+    <hyperlink ref="D324" r:id="rId323"/>
+    <hyperlink ref="D325" r:id="rId324"/>
+    <hyperlink ref="D326" r:id="rId325"/>
+    <hyperlink ref="D327" r:id="rId326"/>
+    <hyperlink ref="D328" r:id="rId327"/>
+    <hyperlink ref="D329" r:id="rId328"/>
+    <hyperlink ref="D330" r:id="rId329"/>
+    <hyperlink ref="D331" r:id="rId330"/>
+    <hyperlink ref="D332" r:id="rId331"/>
+    <hyperlink ref="D333" r:id="rId332"/>
+    <hyperlink ref="D334" r:id="rId333"/>
+    <hyperlink ref="D335" r:id="rId334"/>
+    <hyperlink ref="D336" r:id="rId335"/>
+    <hyperlink ref="D337" r:id="rId336"/>
+    <hyperlink ref="D338" r:id="rId337"/>
+    <hyperlink ref="D339" r:id="rId338"/>
+    <hyperlink ref="D340" r:id="rId339"/>
+    <hyperlink ref="D341" r:id="rId340"/>
+    <hyperlink ref="D342" r:id="rId341"/>
+    <hyperlink ref="D343" r:id="rId342"/>
+    <hyperlink ref="D344" r:id="rId343"/>
+    <hyperlink ref="D345" r:id="rId344"/>
+    <hyperlink ref="D346" r:id="rId345"/>
+    <hyperlink ref="D347" r:id="rId346"/>
+    <hyperlink ref="D348" r:id="rId347"/>
+    <hyperlink ref="D349" r:id="rId348"/>
+    <hyperlink ref="D350" r:id="rId349"/>
+    <hyperlink ref="D351" r:id="rId350"/>
+    <hyperlink ref="D352" r:id="rId351"/>
+    <hyperlink ref="D353" r:id="rId352"/>
+    <hyperlink ref="D354" r:id="rId353"/>
+    <hyperlink ref="D355" r:id="rId354"/>
+    <hyperlink ref="D356" r:id="rId355"/>
+    <hyperlink ref="D357" r:id="rId356"/>
+    <hyperlink ref="D358" r:id="rId357"/>
+    <hyperlink ref="D359" r:id="rId358"/>
+    <hyperlink ref="D360" r:id="rId359"/>
+    <hyperlink ref="D361" r:id="rId360"/>
+    <hyperlink ref="D362" r:id="rId361"/>
+    <hyperlink ref="D363" r:id="rId362"/>
+    <hyperlink ref="D364" r:id="rId363"/>
+    <hyperlink ref="D365" r:id="rId364"/>
+    <hyperlink ref="D366" r:id="rId365"/>
+    <hyperlink ref="D367" r:id="rId366"/>
+    <hyperlink ref="D368" r:id="rId367"/>
+    <hyperlink ref="D369" r:id="rId368"/>
+    <hyperlink ref="D370" r:id="rId369"/>
+    <hyperlink ref="D371" r:id="rId370"/>
+    <hyperlink ref="D372" r:id="rId371"/>
+    <hyperlink ref="D373" r:id="rId372"/>
+    <hyperlink ref="D374" r:id="rId373"/>
+    <hyperlink ref="D375" r:id="rId374"/>
+    <hyperlink ref="D376" r:id="rId375"/>
+    <hyperlink ref="D377" r:id="rId376"/>
+    <hyperlink ref="D378" r:id="rId377"/>
+    <hyperlink ref="D379" r:id="rId378"/>
+    <hyperlink ref="D380" r:id="rId379"/>
+    <hyperlink ref="D381" r:id="rId380"/>
+    <hyperlink ref="D382" r:id="rId381"/>
+    <hyperlink ref="D383" r:id="rId382"/>
+    <hyperlink ref="D384" r:id="rId383"/>
+    <hyperlink ref="D385" r:id="rId384"/>
+    <hyperlink ref="D386" r:id="rId385"/>
+    <hyperlink ref="D387" r:id="rId386"/>
+    <hyperlink ref="D388" r:id="rId387"/>
+    <hyperlink ref="D389" r:id="rId388"/>
+    <hyperlink ref="D390" r:id="rId389"/>
+    <hyperlink ref="D391" r:id="rId390"/>
+    <hyperlink ref="D392" r:id="rId391"/>
+    <hyperlink ref="D393" r:id="rId392"/>
+    <hyperlink ref="D394" r:id="rId393"/>
+    <hyperlink ref="D395" r:id="rId394"/>
+    <hyperlink ref="D396" r:id="rId395"/>
+    <hyperlink ref="D397" r:id="rId396"/>
+    <hyperlink ref="D398" r:id="rId397"/>
+    <hyperlink ref="D399" r:id="rId398"/>
+    <hyperlink ref="D400" r:id="rId399"/>
+    <hyperlink ref="D401" r:id="rId400"/>
+    <hyperlink ref="D402" r:id="rId401"/>
+    <hyperlink ref="D403" r:id="rId402"/>
+    <hyperlink ref="D404" r:id="rId403"/>
+    <hyperlink ref="D405" r:id="rId404"/>
+    <hyperlink ref="D406" r:id="rId405"/>
+    <hyperlink ref="D407" r:id="rId406"/>
+    <hyperlink ref="D408" r:id="rId407"/>
+    <hyperlink ref="D409" r:id="rId408"/>
+    <hyperlink ref="D410" r:id="rId409"/>
+    <hyperlink ref="D411" r:id="rId410"/>
+    <hyperlink ref="D412" r:id="rId411"/>
+    <hyperlink ref="D413" r:id="rId412"/>
+    <hyperlink ref="D414" r:id="rId413"/>
+    <hyperlink ref="D415" r:id="rId414"/>
+    <hyperlink ref="D416" r:id="rId415"/>
+    <hyperlink ref="D417" r:id="rId416"/>
+    <hyperlink ref="D418" r:id="rId417"/>
+    <hyperlink ref="D419" r:id="rId418"/>
+    <hyperlink ref="D420" r:id="rId419"/>
+    <hyperlink ref="D421" r:id="rId420"/>
+    <hyperlink ref="D422" r:id="rId421"/>
+    <hyperlink ref="D423" r:id="rId422"/>
+    <hyperlink ref="D424" r:id="rId423"/>
+    <hyperlink ref="D425" r:id="rId424"/>
+    <hyperlink ref="D426" r:id="rId425"/>
+    <hyperlink ref="D427" r:id="rId426"/>
+    <hyperlink ref="D428" r:id="rId427"/>
+    <hyperlink ref="D429" r:id="rId428"/>
+    <hyperlink ref="D430" r:id="rId429"/>
+    <hyperlink ref="D431" r:id="rId430"/>
+    <hyperlink ref="D432" r:id="rId431"/>
+    <hyperlink ref="D433" r:id="rId432"/>
+    <hyperlink ref="D434" r:id="rId433"/>
+    <hyperlink ref="D435" r:id="rId434"/>
+    <hyperlink ref="D436" r:id="rId435"/>
+    <hyperlink ref="D437" r:id="rId436"/>
+    <hyperlink ref="D438" r:id="rId437"/>
+    <hyperlink ref="D439" r:id="rId438"/>
+    <hyperlink ref="D440" r:id="rId439"/>
+    <hyperlink ref="D441" r:id="rId440"/>
+    <hyperlink ref="D442" r:id="rId441"/>
+    <hyperlink ref="D443" r:id="rId442"/>
+    <hyperlink ref="D444" r:id="rId443"/>
+    <hyperlink ref="D445" r:id="rId444"/>
+    <hyperlink ref="D446" r:id="rId445"/>
+    <hyperlink ref="D447" r:id="rId446"/>
+    <hyperlink ref="D448" r:id="rId447"/>
+    <hyperlink ref="D449" r:id="rId448"/>
+    <hyperlink ref="D450" r:id="rId449"/>
+    <hyperlink ref="D451" r:id="rId450"/>
+    <hyperlink ref="D452" r:id="rId451"/>
+    <hyperlink ref="D453" r:id="rId452"/>
+    <hyperlink ref="D454" r:id="rId453"/>
+    <hyperlink ref="D455" r:id="rId454"/>
+    <hyperlink ref="D456" r:id="rId455"/>
+    <hyperlink ref="D457" r:id="rId456"/>
+    <hyperlink ref="D458" r:id="rId457"/>
+    <hyperlink ref="D459" r:id="rId458"/>
+    <hyperlink ref="D460" r:id="rId459"/>
+    <hyperlink ref="D461" r:id="rId460"/>
+    <hyperlink ref="D462" r:id="rId461"/>
+    <hyperlink ref="D463" r:id="rId462"/>
+    <hyperlink ref="D464" r:id="rId463"/>
+    <hyperlink ref="D465" r:id="rId464"/>
+    <hyperlink ref="D466" r:id="rId465"/>
+    <hyperlink ref="D467" r:id="rId466"/>
+    <hyperlink ref="D468" r:id="rId467"/>
+    <hyperlink ref="D469" r:id="rId468"/>
+    <hyperlink ref="D470" r:id="rId469"/>
+    <hyperlink ref="D471" r:id="rId470"/>
+    <hyperlink ref="D472" r:id="rId471"/>
+    <hyperlink ref="D473" r:id="rId472"/>
+    <hyperlink ref="D474" r:id="rId473"/>
+    <hyperlink ref="D475" r:id="rId474"/>
+    <hyperlink ref="D476" r:id="rId475"/>
+    <hyperlink ref="D477" r:id="rId476"/>
+    <hyperlink ref="D478" r:id="rId477"/>
+    <hyperlink ref="D479" r:id="rId478"/>
+    <hyperlink ref="D480" r:id="rId479"/>
+    <hyperlink ref="D481" r:id="rId480"/>
+    <hyperlink ref="D482" r:id="rId481"/>
+    <hyperlink ref="D483" r:id="rId482"/>
+    <hyperlink ref="D484" r:id="rId483"/>
+    <hyperlink ref="D485" r:id="rId484"/>
+    <hyperlink ref="D486" r:id="rId485"/>
+    <hyperlink ref="D487" r:id="rId486"/>
+    <hyperlink ref="D488" r:id="rId487"/>
+    <hyperlink ref="D489" r:id="rId488"/>
+    <hyperlink ref="D490" r:id="rId489"/>
+    <hyperlink ref="D491" r:id="rId490"/>
+    <hyperlink ref="D492" r:id="rId491"/>
+    <hyperlink ref="D493" r:id="rId492"/>
+    <hyperlink ref="D494" r:id="rId493"/>
+    <hyperlink ref="D495" r:id="rId494"/>
+    <hyperlink ref="D496" r:id="rId495"/>
+    <hyperlink ref="D497" r:id="rId496"/>
+    <hyperlink ref="D498" r:id="rId497"/>
+    <hyperlink ref="D499" r:id="rId498"/>
+    <hyperlink ref="D500" r:id="rId499"/>
+    <hyperlink ref="D501" r:id="rId500"/>
+    <hyperlink ref="D502" r:id="rId501"/>
+    <hyperlink ref="D503" r:id="rId502"/>
+    <hyperlink ref="D504" r:id="rId503"/>
+    <hyperlink ref="D505" r:id="rId504"/>
+    <hyperlink ref="D506" r:id="rId505"/>
+    <hyperlink ref="D507" r:id="rId506"/>
+    <hyperlink ref="D508" r:id="rId507"/>
+    <hyperlink ref="D509" r:id="rId508"/>
+    <hyperlink ref="D510" r:id="rId509"/>
+    <hyperlink ref="D511" r:id="rId510"/>
+    <hyperlink ref="D512" r:id="rId511"/>
+    <hyperlink ref="D513" r:id="rId512"/>
+    <hyperlink ref="D514" r:id="rId513"/>
+    <hyperlink ref="D515" r:id="rId514"/>
+    <hyperlink ref="D516" r:id="rId515"/>
+    <hyperlink ref="D517" r:id="rId516"/>
+    <hyperlink ref="D518" r:id="rId517"/>
+    <hyperlink ref="D519" r:id="rId518"/>
+    <hyperlink ref="D520" r:id="rId519"/>
+    <hyperlink ref="D521" r:id="rId520"/>
+    <hyperlink ref="D522" r:id="rId521"/>
+    <hyperlink ref="D523" r:id="rId522"/>
+    <hyperlink ref="D524" r:id="rId523"/>
+    <hyperlink ref="D525" r:id="rId524"/>
+    <hyperlink ref="D526" r:id="rId525"/>
+    <hyperlink ref="D527" r:id="rId526"/>
+    <hyperlink ref="D528" r:id="rId527"/>
+    <hyperlink ref="D529" r:id="rId528"/>
+    <hyperlink ref="D530" r:id="rId529"/>
+    <hyperlink ref="D531" r:id="rId530"/>
+    <hyperlink ref="D532" r:id="rId531"/>
+    <hyperlink ref="D533" r:id="rId532"/>
+    <hyperlink ref="D534" r:id="rId533"/>
+    <hyperlink ref="D535" r:id="rId534"/>
+    <hyperlink ref="D536" r:id="rId535"/>
+    <hyperlink ref="D537" r:id="rId536"/>
+    <hyperlink ref="D538" r:id="rId537"/>
+    <hyperlink ref="D539" r:id="rId538"/>
+    <hyperlink ref="D540" r:id="rId539"/>
+    <hyperlink ref="D541" r:id="rId540"/>
+    <hyperlink ref="D542" r:id="rId541"/>
+    <hyperlink ref="D543" r:id="rId542"/>
+    <hyperlink ref="D544" r:id="rId543"/>
+    <hyperlink ref="D545" r:id="rId544"/>
+    <hyperlink ref="D546" r:id="rId545"/>
+    <hyperlink ref="D547" r:id="rId546"/>
+    <hyperlink ref="D548" r:id="rId547"/>
+    <hyperlink ref="D549" r:id="rId548"/>
+    <hyperlink ref="D550" r:id="rId549"/>
+    <hyperlink ref="D551" r:id="rId550"/>
+    <hyperlink ref="D552" r:id="rId551"/>
+    <hyperlink ref="D553" r:id="rId552"/>
+    <hyperlink ref="D554" r:id="rId553"/>
+    <hyperlink ref="D555" r:id="rId554"/>
+    <hyperlink ref="D556" r:id="rId555"/>
+    <hyperlink ref="D557" r:id="rId556"/>
+    <hyperlink ref="D558" r:id="rId557"/>
+    <hyperlink ref="D559" r:id="rId558"/>
+    <hyperlink ref="D560" r:id="rId559"/>
+    <hyperlink ref="D561" r:id="rId560"/>
+    <hyperlink ref="D562" r:id="rId561"/>
+    <hyperlink ref="D563" r:id="rId562"/>
+    <hyperlink ref="D564" r:id="rId563"/>
+    <hyperlink ref="D565" r:id="rId564"/>
+    <hyperlink ref="D566" r:id="rId565"/>
+    <hyperlink ref="D567" r:id="rId566"/>
+    <hyperlink ref="D568" r:id="rId567"/>
+    <hyperlink ref="D569" r:id="rId568"/>
+    <hyperlink ref="D570" r:id="rId569"/>
+    <hyperlink ref="D571" r:id="rId570"/>
+    <hyperlink ref="D572" r:id="rId571"/>
+    <hyperlink ref="D573" r:id="rId572"/>
+    <hyperlink ref="D574" r:id="rId573"/>
+    <hyperlink ref="D575" r:id="rId574"/>
+    <hyperlink ref="D576" r:id="rId575"/>
+    <hyperlink ref="D577" r:id="rId576"/>
+    <hyperlink ref="D578" r:id="rId577"/>
+    <hyperlink ref="D579" r:id="rId578"/>
+    <hyperlink ref="D580" r:id="rId579"/>
+    <hyperlink ref="D581" r:id="rId580"/>
+    <hyperlink ref="D582" r:id="rId581"/>
+    <hyperlink ref="D583" r:id="rId582"/>
+    <hyperlink ref="D584" r:id="rId583"/>
+    <hyperlink ref="D585" r:id="rId584"/>
+    <hyperlink ref="D586" r:id="rId585"/>
+    <hyperlink ref="D587" r:id="rId586"/>
+    <hyperlink ref="D588" r:id="rId587"/>
+    <hyperlink ref="D589" r:id="rId588"/>
+    <hyperlink ref="D590" r:id="rId589"/>
+    <hyperlink ref="D591" r:id="rId590"/>
+    <hyperlink ref="D592" r:id="rId591"/>
+    <hyperlink ref="D593" r:id="rId592"/>
+    <hyperlink ref="D594" r:id="rId593"/>
+    <hyperlink ref="D595" r:id="rId594"/>
+    <hyperlink ref="D596" r:id="rId595"/>
+    <hyperlink ref="D597" r:id="rId596"/>
+    <hyperlink ref="D598" r:id="rId597"/>
+    <hyperlink ref="D599" r:id="rId598"/>
+    <hyperlink ref="D600" r:id="rId599"/>
+    <hyperlink ref="D601" r:id="rId600"/>
+    <hyperlink ref="D602" r:id="rId601"/>
+    <hyperlink ref="D603" r:id="rId602"/>
+    <hyperlink ref="D604" r:id="rId603"/>
+    <hyperlink ref="D605" r:id="rId604"/>
+    <hyperlink ref="D606" r:id="rId605"/>
+    <hyperlink ref="D607" r:id="rId606"/>
+    <hyperlink ref="D608" r:id="rId607"/>
+    <hyperlink ref="D609" r:id="rId608"/>
+    <hyperlink ref="D610" r:id="rId609"/>
+    <hyperlink ref="D611" r:id="rId610"/>
+    <hyperlink ref="D612" r:id="rId611"/>
+    <hyperlink ref="D613" r:id="rId612"/>
+    <hyperlink ref="D614" r:id="rId613"/>
+    <hyperlink ref="D615" r:id="rId614"/>
+    <hyperlink ref="D616" r:id="rId615"/>
+    <hyperlink ref="D617" r:id="rId616"/>
+    <hyperlink ref="D618" r:id="rId617"/>
+    <hyperlink ref="D619" r:id="rId618"/>
+    <hyperlink ref="D620" r:id="rId619"/>
+    <hyperlink ref="D621" r:id="rId620"/>
+    <hyperlink ref="D622" r:id="rId621"/>
+    <hyperlink ref="D623" r:id="rId622"/>
+    <hyperlink ref="D624" r:id="rId623"/>
+    <hyperlink ref="D625" r:id="rId624"/>
+    <hyperlink ref="D626" r:id="rId625"/>
+    <hyperlink ref="D627" r:id="rId626"/>
+    <hyperlink ref="D628" r:id="rId627"/>
+    <hyperlink ref="D629" r:id="rId628"/>
+    <hyperlink ref="D630" r:id="rId629"/>
+    <hyperlink ref="D631" r:id="rId630"/>
+    <hyperlink ref="D632" r:id="rId631"/>
+    <hyperlink ref="D633" r:id="rId632"/>
+    <hyperlink ref="D634" r:id="rId633"/>
+    <hyperlink ref="D635" r:id="rId634"/>
+    <hyperlink ref="D636" r:id="rId635"/>
+    <hyperlink ref="D637" r:id="rId636"/>
+    <hyperlink ref="D638" r:id="rId637"/>
+    <hyperlink ref="D639" r:id="rId638"/>
+    <hyperlink ref="D640" r:id="rId639"/>
+    <hyperlink ref="D641" r:id="rId640"/>
+    <hyperlink ref="D642" r:id="rId641"/>
+    <hyperlink ref="D643" r:id="rId642"/>
+    <hyperlink ref="D644" r:id="rId643"/>
+    <hyperlink ref="D645" r:id="rId644"/>
+    <hyperlink ref="D646" r:id="rId645"/>
+    <hyperlink ref="D647" r:id="rId646"/>
+    <hyperlink ref="D648" r:id="rId647"/>
+    <hyperlink ref="D649" r:id="rId648"/>
+    <hyperlink ref="D650" r:id="rId649"/>
+    <hyperlink ref="D651" r:id="rId650"/>
+    <hyperlink ref="D652" r:id="rId651"/>
+    <hyperlink ref="D653" r:id="rId652"/>
+    <hyperlink ref="D654" r:id="rId653"/>
+    <hyperlink ref="D655" r:id="rId654"/>
+    <hyperlink ref="D656" r:id="rId655"/>
+    <hyperlink ref="D657" r:id="rId656"/>
+    <hyperlink ref="D658" r:id="rId657"/>
+    <hyperlink ref="D659" r:id="rId658"/>
+    <hyperlink ref="D660" r:id="rId659"/>
+    <hyperlink ref="D661" r:id="rId660"/>
+    <hyperlink ref="D662" r:id="rId661"/>
+    <hyperlink ref="D663" r:id="rId662"/>
+    <hyperlink ref="D664" r:id="rId663"/>
+    <hyperlink ref="D665" r:id="rId664"/>
+    <hyperlink ref="D666" r:id="rId665"/>
+    <hyperlink ref="D667" r:id="rId666"/>
+    <hyperlink ref="D668" r:id="rId667"/>
+    <hyperlink ref="D669" r:id="rId668"/>
+    <hyperlink ref="D670" r:id="rId669"/>
+    <hyperlink ref="D671" r:id="rId670"/>
+    <hyperlink ref="D672" r:id="rId671"/>
+    <hyperlink ref="D673" r:id="rId672"/>
+    <hyperlink ref="D674" r:id="rId673"/>
+    <hyperlink ref="D675" r:id="rId674"/>
+    <hyperlink ref="D676" r:id="rId675"/>
+    <hyperlink ref="D677" r:id="rId676"/>
+    <hyperlink ref="D678" r:id="rId677"/>
+    <hyperlink ref="D679" r:id="rId678"/>
+    <hyperlink ref="D680" r:id="rId679"/>
+    <hyperlink ref="D681" r:id="rId680"/>
+    <hyperlink ref="D682" r:id="rId681"/>
+    <hyperlink ref="D683" r:id="rId682"/>
+    <hyperlink ref="D684" r:id="rId683"/>
+    <hyperlink ref="D685" r:id="rId684"/>
+    <hyperlink ref="D686" r:id="rId685"/>
+    <hyperlink ref="D687" r:id="rId686"/>
+    <hyperlink ref="D688" r:id="rId687"/>
+    <hyperlink ref="D689" r:id="rId688"/>
+    <hyperlink ref="D690" r:id="rId689"/>
+    <hyperlink ref="D691" r:id="rId690"/>
+    <hyperlink ref="D692" r:id="rId691"/>
+    <hyperlink ref="D693" r:id="rId692"/>
+    <hyperlink ref="D694" r:id="rId693"/>
+    <hyperlink ref="D695" r:id="rId694"/>
+    <hyperlink ref="D696" r:id="rId695"/>
+    <hyperlink ref="D697" r:id="rId696"/>
+    <hyperlink ref="D698" r:id="rId697"/>
+    <hyperlink ref="D699" r:id="rId698"/>
+    <hyperlink ref="D700" r:id="rId699"/>
+    <hyperlink ref="D701" r:id="rId700"/>
+    <hyperlink ref="D702" r:id="rId701"/>
+    <hyperlink ref="D703" r:id="rId702"/>
+    <hyperlink ref="D704" r:id="rId703"/>
+    <hyperlink ref="D705" r:id="rId704"/>
+    <hyperlink ref="D706" r:id="rId705"/>
+    <hyperlink ref="D707" r:id="rId706"/>
+    <hyperlink ref="D708" r:id="rId707"/>
+    <hyperlink ref="D709" r:id="rId708"/>
+    <hyperlink ref="D710" r:id="rId709"/>
+    <hyperlink ref="D711" r:id="rId710"/>
+    <hyperlink ref="D712" r:id="rId711"/>
+    <hyperlink ref="D713" r:id="rId712"/>
+    <hyperlink ref="D714" r:id="rId713"/>
+    <hyperlink ref="D715" r:id="rId714"/>
+    <hyperlink ref="D716" r:id="rId715"/>
+    <hyperlink ref="D717" r:id="rId716"/>
+    <hyperlink ref="D718" r:id="rId717"/>
+    <hyperlink ref="D719" r:id="rId718"/>
+    <hyperlink ref="D720" r:id="rId719"/>
+    <hyperlink ref="D721" r:id="rId720"/>
+    <hyperlink ref="D722" r:id="rId721"/>
+    <hyperlink ref="D723" r:id="rId722"/>
+    <hyperlink ref="D724" r:id="rId723"/>
+    <hyperlink ref="D725" r:id="rId724"/>
+    <hyperlink ref="D726" r:id="rId725"/>
+    <hyperlink ref="D727" r:id="rId726"/>
+    <hyperlink ref="D728" r:id="rId727"/>
+    <hyperlink ref="D729" r:id="rId728"/>
+    <hyperlink ref="D730" r:id="rId729"/>
+    <hyperlink ref="D731" r:id="rId730"/>
+    <hyperlink ref="D732" r:id="rId731"/>
+    <hyperlink ref="D733" r:id="rId732"/>
+    <hyperlink ref="D734" r:id="rId733"/>
+    <hyperlink ref="D735" r:id="rId734"/>
+    <hyperlink ref="D736" r:id="rId735"/>
+    <hyperlink ref="D737" r:id="rId736"/>
+    <hyperlink ref="D738" r:id="rId737"/>
+    <hyperlink ref="D739" r:id="rId738"/>
+    <hyperlink ref="D740" r:id="rId739"/>
+    <hyperlink ref="D741" r:id="rId740"/>
+    <hyperlink ref="D742" r:id="rId741"/>
+    <hyperlink ref="D743" r:id="rId742"/>
+    <hyperlink ref="D744" r:id="rId743"/>
+    <hyperlink ref="D745" r:id="rId744"/>
+    <hyperlink ref="D746" r:id="rId745"/>
+    <hyperlink ref="D747" r:id="rId746"/>
+    <hyperlink ref="D748" r:id="rId747"/>
+    <hyperlink ref="D749" r:id="rId748"/>
+    <hyperlink ref="D750" r:id="rId749"/>
+    <hyperlink ref="D751" r:id="rId750"/>
+    <hyperlink ref="D752" r:id="rId751"/>
+    <hyperlink ref="D753" r:id="rId752"/>
+    <hyperlink ref="D754" r:id="rId753"/>
+    <hyperlink ref="D755" r:id="rId754"/>
+    <hyperlink ref="D756" r:id="rId755"/>
+    <hyperlink ref="D757" r:id="rId756"/>
+    <hyperlink ref="D758" r:id="rId757"/>
+    <hyperlink ref="D759" r:id="rId758"/>
+    <hyperlink ref="D760" r:id="rId759"/>
+    <hyperlink ref="D761" r:id="rId760"/>
+    <hyperlink ref="D762" r:id="rId761"/>
+    <hyperlink ref="D763" r:id="rId762"/>
+    <hyperlink ref="D764" r:id="rId763"/>
+    <hyperlink ref="D765" r:id="rId764"/>
+    <hyperlink ref="D766" r:id="rId765"/>
+    <hyperlink ref="D767" r:id="rId766"/>
+    <hyperlink ref="D768" r:id="rId767"/>
+    <hyperlink ref="D769" r:id="rId768"/>
+    <hyperlink ref="D770" r:id="rId769"/>
+    <hyperlink ref="D771" r:id="rId770"/>
+    <hyperlink ref="D772" r:id="rId771"/>
+    <hyperlink ref="D773" r:id="rId772"/>
+    <hyperlink ref="D774" r:id="rId773"/>
+    <hyperlink ref="D775" r:id="rId774"/>
+    <hyperlink ref="D776" r:id="rId775"/>
+    <hyperlink ref="D777" r:id="rId776"/>
+    <hyperlink ref="D778" r:id="rId777"/>
+    <hyperlink ref="D779" r:id="rId778"/>
+    <hyperlink ref="D780" r:id="rId779"/>
+    <hyperlink ref="D781" r:id="rId780"/>
+    <hyperlink ref="D782" r:id="rId781"/>
+    <hyperlink ref="D783" r:id="rId782"/>
+    <hyperlink ref="D784" r:id="rId783"/>
+    <hyperlink ref="D785" r:id="rId784"/>
+    <hyperlink ref="D786" r:id="rId785"/>
+    <hyperlink ref="D787" r:id="rId786"/>
+    <hyperlink ref="D788" r:id="rId787"/>
+    <hyperlink ref="D789" r:id="rId788"/>
+    <hyperlink ref="D790" r:id="rId789"/>
+    <hyperlink ref="D791" r:id="rId790"/>
+    <hyperlink ref="D792" r:id="rId791"/>
+    <hyperlink ref="D793" r:id="rId792"/>
+    <hyperlink ref="D794" r:id="rId793"/>
+    <hyperlink ref="D795" r:id="rId794"/>
+    <hyperlink ref="D796" r:id="rId795"/>
+    <hyperlink ref="D797" r:id="rId796"/>
+    <hyperlink ref="D798" r:id="rId797"/>
+    <hyperlink ref="D799" r:id="rId798"/>
+    <hyperlink ref="D800" r:id="rId799"/>
+    <hyperlink ref="D801" r:id="rId800"/>
+    <hyperlink ref="D802" r:id="rId801"/>
+    <hyperlink ref="D803" r:id="rId802"/>
+    <hyperlink ref="D804" r:id="rId803"/>
+    <hyperlink ref="D805" r:id="rId804"/>
+    <hyperlink ref="D806" r:id="rId805"/>
+    <hyperlink ref="D807" r:id="rId806"/>
+    <hyperlink ref="D808" r:id="rId807"/>
+    <hyperlink ref="D809" r:id="rId808"/>
+    <hyperlink ref="D810" r:id="rId809"/>
+    <hyperlink ref="D811" r:id="rId810"/>
+    <hyperlink ref="D812" r:id="rId811"/>
+    <hyperlink ref="D813" r:id="rId812"/>
+    <hyperlink ref="D814" r:id="rId813"/>
+    <hyperlink ref="D815" r:id="rId814"/>
+    <hyperlink ref="D816" r:id="rId815"/>
+    <hyperlink ref="D817" r:id="rId816"/>
+    <hyperlink ref="D818" r:id="rId817"/>
+    <hyperlink ref="D819" r:id="rId818"/>
+    <hyperlink ref="D820" r:id="rId819"/>
+    <hyperlink ref="D821" r:id="rId820"/>
+    <hyperlink ref="D822" r:id="rId821"/>
+    <hyperlink ref="D823" r:id="rId822"/>
+    <hyperlink ref="D824" r:id="rId823"/>
+    <hyperlink ref="D825" r:id="rId824"/>
+    <hyperlink ref="D826" r:id="rId825"/>
+    <hyperlink ref="D827" r:id="rId826"/>
+    <hyperlink ref="D828" r:id="rId827"/>
+    <hyperlink ref="D829" r:id="rId828"/>
+    <hyperlink ref="D830" r:id="rId829"/>
+    <hyperlink ref="D831" r:id="rId830"/>
+    <hyperlink ref="D832" r:id="rId831"/>
+    <hyperlink ref="D833" r:id="rId832"/>
+    <hyperlink ref="D834" r:id="rId833"/>
+    <hyperlink ref="D835" r:id="rId834"/>
+    <hyperlink ref="D836" r:id="rId835"/>
+    <hyperlink ref="D837" r:id="rId836"/>
+    <hyperlink ref="D838" r:id="rId837"/>
+    <hyperlink ref="D839" r:id="rId838"/>
+    <hyperlink ref="D840" r:id="rId839"/>
+    <hyperlink ref="D841" r:id="rId840"/>
+    <hyperlink ref="D842" r:id="rId841"/>
+    <hyperlink ref="D843" r:id="rId842"/>
+    <hyperlink ref="D844" r:id="rId843"/>
+    <hyperlink ref="D845" r:id="rId844"/>
+    <hyperlink ref="D846" r:id="rId845"/>
+    <hyperlink ref="D847" r:id="rId846"/>
+    <hyperlink ref="D848" r:id="rId847"/>
+    <hyperlink ref="D849" r:id="rId848"/>
+    <hyperlink ref="D850" r:id="rId849"/>
+    <hyperlink ref="D851" r:id="rId850"/>
+    <hyperlink ref="D852" r:id="rId851"/>
+    <hyperlink ref="D853" r:id="rId852"/>
+    <hyperlink ref="D854" r:id="rId853"/>
+    <hyperlink ref="D855" r:id="rId854"/>
+    <hyperlink ref="D856" r:id="rId855"/>
+    <hyperlink ref="D857" r:id="rId856"/>
+    <hyperlink ref="D858" r:id="rId857"/>
+    <hyperlink ref="D859" r:id="rId858"/>
+    <hyperlink ref="D860" r:id="rId859"/>
+    <hyperlink ref="D861" r:id="rId860"/>
+    <hyperlink ref="D862" r:id="rId861"/>
+    <hyperlink ref="D863" r:id="rId862"/>
+    <hyperlink ref="D864" r:id="rId863"/>
+    <hyperlink ref="D865" r:id="rId864"/>
+    <hyperlink ref="D866" r:id="rId865"/>
+    <hyperlink ref="D867" r:id="rId866"/>
+    <hyperlink ref="D868" r:id="rId867"/>
+    <hyperlink ref="D869" r:id="rId868"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
